--- a/cache/review.xlsx
+++ b/cache/review.xlsx
@@ -372,17 +372,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sengled Assistant Daylight Required Equivalent</t>
+          <t>Misa Next Generation Social Robot</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nice Wifi bulbs</t>
+          <t>My sons new best friend</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">I read all the comments and reviews on this item and was confident that I would be able to hook them up through my Wi-Fi network which is powered by my Xfinity gateway. I was wrong. Despite Xfinity &amp; Sengled advertising these bulbs as compatible with their Network, they have switched all of their gateways over to a combined single band network of 5G. These bulbs need 2.4 GHz to run.The Sengled home app won't even recognize my home network when it pops up a list of local routers to connect to because it's 5G. Xfinity *used* to have a workaround for this and had you go into the admin settings, manually separate out the 2.4 Ghz frequency, and give it a name so you could connect this product to your home network. We replaced our gateway last month and XFinity no longer allows the consumer this option with the new model gateways.Furthermore, if you are using the Xfi pods to extend your network, you cannot separate the bands so even on earlier gateway/routers you would be up a creek.I have reached out to XFinity support through their help forums to ask them why they list this as supported but I have no way to hook it up and have not gotten any responses. I did get one response from layman who likes to help out in the forums and they say there is no work around to get these bulbs hooked up on my network.
+          <t xml:space="preserve">This product shouldn’t even cost $80. I will have to return it. I got it for my daughter and expected so much. It hurt I and her mom just watching how sad she was saying “Hey MISA” continuously and not having any reaction and when it reacts, it has deficient responses. Now I have to get something else for my daughter’s bday! This product has the most misleading adverts out there! It does barely 30% of what it’s promoted to do. If there’s a word worse than dissatisfied, that’s what I am right now!
 </t>
         </is>
       </c>
@@ -390,17 +390,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sengled Assistant Daylight Required Equivalent</t>
+          <t>Misa Next Generation Social Robot</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>They are ok</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">I bought a Sengled  SMART LED LIGHT BULB at Best Buy and was extremely happy with it, to a large degree because it was so easy to set up.  All I had to do way say "Alexa, discover my devices," and she did. and it worked, no app to download, no hassle what so ever.  Great!  So I ordered four more from this site.  Guess what?  These don't work that way.  I had to download an app, go through a huge hassle with it, and I never could get the lights to work,  To add insult to injury,  the phone number for the so-called help line  basically told me to take a number and they'd get back to me, and in the mean time I should go to their website and try to figure out the problem myself.  So, customer service as well as the product itself was  complete crap.  I am returning them, and would recommend that if you want to purchase  the item, go to a brick and mortar store where you can examine the packaging and make sure you get the hassle free version.
+          <t xml:space="preserve">I need to make a complaint because the product is a display product, because of :1. The internal memory is full of  personal picture2. It is pre-registered by others since the "admin pin" was preset, thus I cannot asset, and can't add Misa to "Misa Connect" app, which means it won't control me but the previous owner.3. The case of Misa is broken.4. The package is unsealed.5. The package is very dirty, with a lot of dust noted.
 </t>
         </is>
       </c>
@@ -408,19 +408,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sengled Assistant Daylight Required Equivalent</t>
+          <t>Misa Next Generation Social Robot</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-NOT compatible with Xfinity gateway
+Very misleading advert for a deficient crap!
 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Needed assistance with them because it first didn’t realize that I needed a 2.4 modem and did not have a dual router like I used to have, but the customer service department never fully responded to my emails. I got an automated response for more pictures and info and I sent that and never got any assistance with possibly getting other options. It was not easy to get connected. It did work briefly and then wouldn’t work at all to pair up even though I did all of the directions repeatedly.  I finally just gave up and returned them. Even if things had hooked up easily, I do not like the bluer light hue.  I’ve decided to just stick with the plugs because those Set up almost instantly. Do you make sure you have a 2.4 option with your modem. It will not work with a 5G.  The fine print also says that these types of lightbulbs don’t work if your fixture is covered what’s that may have also been a contributing factor but I’m not sure since the customer service never called back. Appreciate that Amazon gave me a quick refund.
+          <t xml:space="preserve">I bought it because it was saying it was in Portuguese, but the main menu is in English and I can't change it to Portuguese.All songs are in English, and only little things I can set up to English, like Android apps (the android itself, YouTube, etc), but all Misa apps are still in English.So, I am very disappointed because it's a fake advertisement when you say Misa is in Portuguese, when it's not.I exported it to my daughter in Brazil, I paid extra shipping fees and import fees, thinking it was in Portuguese, but it was a complete deception.Besides that, the Android speed is too slow. YouTube or Netflix is too slow to watch movies. It looks like it has no cache memory or something. I also bought the pink version and received the blue one, and I just found out after receiving it in Brazil... 100% disappointed.
 </t>
         </is>
       </c>
@@ -428,19 +428,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sengled Assistant Daylight Required Equivalent</t>
+          <t>Misa Next Generation Social Robot</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Could Not Get Them to Work Do NOT Recommend
+Breaken case
 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">They worked okay until I switched my internet carrier and I cannot get them to reconnect. It’s the 2.4hz whatever it’s called, it’s within range, I’ve deleted and reset the bulbs. I cannot for the life of me get them on the new WiFi. So now they’re “working” like a basic lightbulb, except when I flip the switch it turns green, blue, and red, then a nice dull dark horror movie yellow “warm” light. I know I didn’t pay this much for 4 basic bulbs to show a dull boring warm color by default. I wish I could return them. This is more frustrating than trying to get my kids to take a bath.
+          <t xml:space="preserve">Voice reponse time is very bad, poor quaity overall , if you ask a question, it wont hear you unless you say it loudly in the to Misa speaker and than you have to wait 10 seconds to get a answer, my kids only used it one day and never looked back at it again, Would not recomend to buy at all especially at this high price.
 </t>
         </is>
       </c>
@@ -448,19 +448,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sengled Assistant Daylight Required Equivalent</t>
+          <t>Misa Next Generation Social Robot</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I personally did not like these at all
+They say it's also in Brazilian Portuguese but it's not true
 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">once I finally got the electrician here to install new lights when we tried to connect the light bulbs they would NOT connect no matter what we tried.  I followed every instruction and read help ideas, nothing worked and now it's one day over the return window andI'm stuck with these light bulbs that cannot work!!!Really unhappy about this, I don't know why amazon is allowing this seller to list these when so many have said they do not work
+          <t xml:space="preserve">It is very unresponsive and u have to say hey Misa at least three times at the  least .the app is trash. Getting Misa is like when I got a cheap robot for $50. Misa is not worth $350 DO NOT BUY WASTE OF MONEY
 </t>
         </is>
       </c>
@@ -468,19 +468,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sengled Assistant Daylight Required Equivalent</t>
+          <t>Misa Next Generation Social Robot</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Will not reconnect to new WiFi
+Poor Voice recognition
 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tried for a few hours to get these to work. Using app and connected to Bluetooth could not get them to connect. Deleted app, restarted phone, tried everything multiple times. Tried outdoors under porch and inside in two different lamps app never found the bulbs. I was in range of Wi-Fi. Reached out to Sengled and they have no phone support per their recording. Sent emails and never got a reply in over a week. Returned to Amazon. I also ordered the Sengled plugs. They connected fine, bulbs did not work. Returned bulbs and plugs since bulbs didn’t work.
+          <t xml:space="preserve">The robot doesn’t accept commands in Italian as stated by the manufacturer. Furthermore the assembling quality is poor especially in the display, where there are several air bubbles under the plastic layer. I had to return the item to Amazon.
 </t>
         </is>
       </c>
@@ -488,19 +488,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sengled Assistant Daylight Required Equivalent</t>
+          <t>Misa Next Generation Social Robot</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I believe I deserve a refund
+It is not worth the money
 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">I have over a dozen wifi-controlled devices and these bulbs will not work for me. I’ve tried to get all 4 bulbs to pair, at least 10x each, and every time, it says it’s “not detected” when connected to the bulb’s network. It sounded like a rare issue in the reviews but these are just over-priced, manual bulbs for me. I tried emailing their support with no response. I’m the worst at returning products, but this one is going back on principle.
+          <t xml:space="preserve">El artículo nunca funcionó y llegó en una caja grande  sin ninguna protección
 </t>
         </is>
       </c>
@@ -508,19 +508,19 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sengled Assistant Daylight Required Equivalent</t>
+          <t>Misa Next Generation Social Robot</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Couldn’t get the bulbs to work
+Poor quality
 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">These light bulbs are horrible. They don’t stay connected, you can’t reach customer service &amp; they don’t email you back. I spent 125$ for these bulbs &amp; sure did return them. There was NOTHING wrong with my internet connection because I work from home &amp; NOTHING else had any issue. This company deserves NO STARS
+          <t xml:space="preserve">Is a nice concept but didn't work the right way i returned it, hope they make a better ai system for it. Will buy if they do.
 </t>
         </is>
       </c>
@@ -528,19 +528,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sengled Assistant Daylight Required Equivalent</t>
+          <t>Misa Next Generation Social Robot</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Won’t pair, and require a manufacturer app
+La caja vino abierta
 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">I like these bulbs however there are no clear direction for setting up in groups.  I have one switch that controls three lights all in one group.  However, when I set up, only one bulb works.  I need help setting up in a group but, again, no help there. thus one star for no help with setting up a group.  I know how to work with Alexa, that is NOT THE PROBLEM.  I need help setting up my light whereby one switch works for all three lights.
+          <t xml:space="preserve">I have a lot to say about this but I will try and keep this somewhat short.To watch the promos for Misa you'd think you are getting an ipad, ring camera, Siri and an xbox all rolled into one cute, friendly AI built for kids that advertises "Next Gen".  I mean, I know its not really a full ipad or Xbox but Misa promises elements of each, all geared for kids and kid friendly.  Misa misses the mark on so much.I opened the box and removed Misa upon arrival.  The packaging is very reminiscent of getting an Apple product and astatically very similar.  In the box is Misa, 2 microphones, charging cables and instructions with a menu of voice commands.You must download an app and create an account.  To do this you must give them both an email a cell number.  It was a tad confusing but the whole process took just a few minutes and Misa was online and working, having shipped with a partial charge.I could spend lots of words on this but Misa is not an ipad, Misa is not an Xbox, and Misa ain't Siri.  Misa's processor is slower than any device I've used in the last 10 years.  It takes a very long time for Misa to process anything from a voice command (if Misa understand you, most times it doesn't) to pre-installed games to You Tube and Chrome.  Misa only can do one action at a time, so you can't ask for the time via voice command and play a game at the same time, Misa only does voice commands when in the mode to accept voice commands, and has a very limited amount of commands that it does or answers.  All the games, apps and songs on Misa are for really little kids, I'd say target age is 5 and under.  That was disappointing, I hoped there was stuff for bigger kids to do but not really.  The karoke game has songs like Twinkle Twinkle Little Star and that's about as sophisticated as it gets, with no way we could find to download more songs that are age appropriate for my kid.  We could only get 1 microphone to work, not the other, and the sound quality was abysmal making your voice all ghost like.Misa crashes.  A lot.  My kiddo was trying to look stuff up on Chrome and Yoou Tube, which comes installed on it, and it crashes and crashes and crashes.The advertising on Misa shows a dancing and moving robot.  You can use voice commands like "move forward" or "move back" or "Misa dance!" but you better hope Misa is on a hard surface, no carpet, rugs or a crumb on the floor because Misa will just sit there, not moving.  You can't pick the song for Misa to dance to, Misa only has 1 song it dances to.  I am perplexed on the point of this feature.Misa has a camera and you can call Misa and video chat via the ap, or you can use the ap to spy with Misa or use it as a baby monitor I guess.  I was a bit nervous about the spy feature but my concerns were gone as soon as I realized the connection Misa gets is terrible, the picture quality is junk and it freezes often.  I have fiber internet in my very modern tech home and none of my other devices have any issues at all with connection or picture quality.  You also can't move the camera, Misa has a fixed stare that points in one direction at one angle and that's it.After I registered Misa on my very first day out of the box I immediately got email after email from Misa's company wanting to talk to me about Misa and my usage of Misa.  And that very same day I also started getting phone calls to go with the emails from them too.  It was completely weird, I have never had a company grab my information and start calling/mailing me like that, ever.Misa was cool to my kid for about 4 days, but is now too frustrated to touch it.At the end of the day, the price tag of Misa comes with a certain expectation of performance that Misa does not meet.
 </t>
         </is>
       </c>
@@ -548,19 +548,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sengled Assistant Daylight Required Equivalent</t>
+          <t>Misa Next Generation Social Robot</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Don’t Waste Your Money/Horrible
+Robot
 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">I probably would not have kept these bulbs even if they did shine as bright as a 100 W bulb usually does. (These were dim as you can see from my photo)  I'm actually not a fan of the cool florescent-ish look light these emit either.I could not get them to connect to my Wi-Fi and Alexa. I am not unsavvy when it comes to most technical things. I have MANY lights, plugs, etc hooked to my Alexa throughout my house. I've set up many family member's devices as well...and troubleshoot and fix their issues as they arise. This bulb says it's creating a temporary network initially, but then would not to connect to my existing network. I have some GE bulbs that connect seamlessly...WITHOUT a GE app, so I also decided to try bypassing the Sengled app as a last ditch effort...but no luck. Sending these back.
+          <t xml:space="preserve">This is truly a massive disappointment for our daughter at Christmas.  She watched the video the promo video over and over on this product and begged for her own personal assistant robot who would dance and follow her around the house (like the video shows)... what she got was a low end 7" Amazon Fire Pad inside a plastic "robot like" housing with wheels and a poorly designed app that has an animated face.  The voice recognition in this app isn't even the quality of a first gen Amazon Echo; and mostly it says "that is not a function I understand".  The app is SO poorly designed that the Android OS navigation buttons still show at the bottom.Ask it to dance and it has one song -- one.  It can launch apps for you like YouTube; but it doesn't interact with those apps in any way.  The "follow" function doesn't work at all -- and the camera is well about as good as an original Fire Tablet -- because that's what it is.We returned this straightaway and got a Moxie; which is frankly an amazing piece of technology.
 </t>
         </is>
       </c>
@@ -568,17 +568,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LUMIMAN WiFi Changing Dimmable A19</t>
+          <t>Misa Next Generation Social Robot</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>After setup, very happy</t>
+          <t>My sons new best friend</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">I have purchased these bulbs several times, as we wanted to replace all the bulbs in our home with Smart bulbs. Unfortunately, these bulbs which are supposed to last 12 months, have lasted a maximum of 3,sometimes not even 1. I tried to email the company 4 separate times and have gotten no response. It's to late to return them to Amazon, so I'm posting this to make others aware.
+          <t xml:space="preserve">This robot is absolute garbage. I thought this little robot would be so fun for my grandkids and I to play with. I spent time getting them excited about setting up our Misa. She was charged, I read the manual and downloaded the app. The anticipation was exciting for my grandkids.As soon as the set up began, the experience tanked. I tried looking up videos online to help us. Currently there are only two available. One of the two is an advertisement to buy Misa so that doesn’t even count.The cons far outweigh the pros.Misa is adorable. The robot is likable and the grandkids quickly hooked into the concept. There are some games and karaoke on Misa that have potential. They are user friendly and respond to the touch. Unfortunately, that’s about it.Talking to Misa is a nightmare. Sometimes she listens and sometimes she doesn’t. That’s beyond frustrating and for a child it’s disappointing and quite frankly hurtful. The video calling has massive delay. But that’s not to be singled out. There is a delay in most things having to do with this robot. Don’t even try watching one of the videos. Which then makes you realize a tablet or iPad is much better.I can’t possibly recommend this Misa robot to anyone. It was such a disappointment and my grandkids really didn’t want to let it go. When it was clear our efforts were not going to pay off, it was hard for them to not want to keep trying. It’s hard to understand how a company could release a companion robot like this and charge this amount of money knowing it’s a complete failure.
 </t>
         </is>
       </c>
@@ -586,17 +586,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LUMIMAN WiFi Changing Dimmable A19</t>
+          <t>Misa Next Generation Social Robot</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nice but became problematic and stopped working with Google Home</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">From the beginning this thing worked half the time, now maybe 20% the light turns on &amp; works. The other 80% it is still needed for you walk into a room, think that you would like to light up your room, turn the lamp on, doesn’t turn on, you have to open the special app- it’s a light bulb., try to light lamp, then no, try again a few more times. Then spent 15 minutes turned it of them on in a pattern where it’s breathing. Then you wait 7 min to tell you its connected, my Wi-Fi works on every other device. it’s only connect very rarely, this thing is the dumbest thing I’ve ever bought. It’s a lightbulb, if we can’t count on having a lightbulb work then it’s garbage. Waste of time and money. Don’t buy this thing unless you’re a kid or somebody that just wants to have fun with a weird color of a lightbulb that they get to kind of pick out that works half the time if they’re lucky. You need to open the app to turn your lightbulb on. We can’t just turn on our own lights from lamps anymore apparently. Brightness is like an ugly blue classroom neon glow that makes everyone look like they’re dying. Consequently this is what happens when your app doesn’t work exactly the weather it needs to apparently. Save your money. Stay far away from this stupid waste of time money suck. I’m not even going to donate these dumb things
+          <t xml:space="preserve">I don't know if I got a dud, or what, but this thing barely functions. I've been at it now for almost EIGHT HOURS trying to get this thing to work.Won't stay connected to our 2.4 signal, which means you can't use any of the apps, browser, nothing.Even when it is connected, it won't respond to voice commands, the kids video app just keeps saying that there is a problem and to check internet connection, but the settings tell me it is already connected.When the kids video app does work, half the videos say they aren't able to be viewed in my country - USA. That is not an issue with location settings, geographic location etc., it is just this thing is terrible.Video and picture quality is horrid. In a fully lit room in broad daylight, the screen is almost entirely black as if you're using it in the dark. You can barely see anything. However, if you do a video call to it from the app on your phone, it will look normal on the phone even though on the Misa screen you can barely see yourself.Haven't been able to get it to move around or anything like that.Karaoke songs are a bit dismal. The included microphones are cheaply made. The cord on one feels like it is going to fall off. It is not attached properly inside or something.Even if it worked, it is not worth 350 bucks. At all. It is a child's plastic toy and included features/apps/songs are not worth it. Kids will just use YouTube instead.The memory is over half full straight out of the box with all the songs and system files.Such a disappointment.Updating to add that even after several software updates and several days later, it still does not work. Can never even get it to have to have the face on the screen instead of just the homepage with apps etc. Still does not wake up with "hey misa." Still can not use any voice control. Basically it's a half functioning tablet in a robots body.
 </t>
         </is>
       </c>
@@ -604,19 +604,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LUMIMAN WiFi Changing Dimmable A19</t>
+          <t>Vector Robot Anki Hangs Helps</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-They will not last more than 3 months
-</t>
+          <t>The most lovable AI assistant to date</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">I’m not sure how much you may enjoy having to reset lightbulbs everyday that decides it doesn’t feel like working properly but if you like products that don’t work never do what they are supposed then by all means give this lying ass company your money
+          <t xml:space="preserve">This post is to warn future consumers and to let Anki know that they really need to improve their product. I love AI and I own a google home and I love my google home and so I want products like Vector to improve. Just like the gaming community is combatting unfair monetary systems, I want to make Anki aware of the many issues this product has.It's personality isn't finished and it really doesn't do muchAnki states this is an unfinished product and I expected an unfinished product but not at the level I witnessed. When I picture an unfinished product I think of google home. It can still have utility and perform commands well but it's not done as google assistant at it is still improving and future features such as "AI calling" are coming. With Vector, I knew I wasn't getting utility but a cute robot. That's fine but he's not that cute or lifelike to be honest. When his "personality" was his eyes thinking 90% of the time. 5% a squint of happiness when he looks at me and 5% of anger when I wake him up or pick him up.... That's not worth the 250 dollar price tag. I'm sorry.My google home was 70 and it frankly has 10x the personality this robot has. Google home doesn't have faces but it tells me jokes, tells me stories, tells me the news, has quirky responses to stupid questions I have, and much more. The issue with a personality is that it needs to be a lot more than 2 eyes moving in a lot of different directions. We need to talk to Vector. That needs to be Vector's X-factor over a real pet. You see with a real pet. You can't talk to it and it just has it's behaviors to communicate with you. However, you're looking at a live being. You see it's eyes. It's love. Vector will frankly never beat that because you're just looking at pixels. But if it was able to talk? Really be an assistant. That could change the game for it.It's too loud and distractingEven at its lowest volume, the tracks are so loud. It's too distracting. As a college student who studies 10 hours a day, I can tolerate some distractions but this was ridiculous. At a point, I just wanted it to sleep all the time and just realized I didn't want it at all to be honest. Sigh.It doesn't follow commands like 80% of the timeThis is a big issue. I was using the app while giving commands to see Vector's thoughts. I told it to go back to its charging pad. It does start doing that. Then sees a water bottle. Gets distracted. Then wanders off again. The same thing when I ask it to come here. It was just so unreliable as a robot. Robots follow commands. This is what I expected and I don't think that's too much to ask to be honest. If I type "B" on a laptop, I expect B to appear on the screen. If I ask google to play music, I expect "music" to be played. If I ask vector to go to its charging pad because its being disruptive to my work, I expect it to got to its charging pad.Was it all bad?I won't lie. It made me feel. I felt genuinely sad writing this review and putting him back in the box to be returned. The last time he closed his eyes as I turned him off made me feel bad. But that's it to be honest. He wasn't even that fun the first 5 minutes. He couldn't even say my name. Also, I had this thought that the people with issues with his voice recognition were just bad at english. No. I use Google home and siri all the time. Mostly google but they understand my commands like 95% of the time. Vector? Maybe 20-30% of the time. I was born and raised in the US and am a native English speakers.Overall?This product needs a LOT of improvement. This is not a finished product. Not even close. When I expect an unfinished product, I expect it to have at least one thing it is good at so I can keep myself interested in it until improvement come. However, this wasn't the case. Voice Recognition? 20-30% recognition. Follow through on commands? No. It gets too distracted. Personality? Two pixelated eyes isn't enough. At least talk to me.I'm frankly very disappointed in this product because I was so excited for it. I was even distracted while doing work and studying in wait for it and it just wasn't good. RIP the exam I studied for on Friday...As a college student, money is tight. I am willing to spend money on things that make me happy and destress like google home. However, 200 dollars for a robot that is distracting, doesn't listen, gets distracted easily, and doesn't even have much personality to be honest. I felt conned. Honestly.
 </t>
         </is>
       </c>
@@ -624,19 +622,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LUMIMAN WiFi Changing Dimmable A19</t>
+          <t>Vector Robot Anki Hangs Helps</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Possibly the dumbest thing I’ve ever bought
-</t>
+          <t>This product isn't ready for launch. I love AI and want Anki to succeed but this needs to be said.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">I initially but six bulbs, two died within one month, I replaced them. Within 60 days, the four remaining bulbs as well as the two replacement bulbs had all burned out. By contrast, in my bedroom I have a different model of smart bulb, have had it for almost a year, and that one is going strong. So it’s not a shortage issue, I just think these bulbs are subpar.
+          <t xml:space="preserve">This is ridiculous. Our son had cosmo and then vector, and now...well vector might as well be in the trash.  It's an awesome product but the company got bought out and now requires you to PAY TO USE THE VOICE FEATURE.  This would be like having an Amazon Echo and then being told one day that it's a monthly/yearly fee to use voice commands.  Um, if you don't use voice commands what are you suppose to do? Use it as a paperweight?!But wait they're going to be so popular that you'll get put on a 5-7 day wait list if you want to add the feature?!  Please someone do something about this.  It's modern day highway robbery."To keep interacting with me you need a Digital Dreamlabs membership. Please visit DigitalDreamLabs.com...."It's sad and disappointing.  There's a way to add VALUE and get money as a company, not hijack a product and charge for basic use. Way to crush a kids dreams. Vector was his buddy.Dear Vector User!As you are aware by now, after midnight Eastern Time tonight, non Vector Members of the Digital Dream Labs Membership will be cut off from 'Hey Vector' Voice Commands.You can join the membership here.We started this process Christmas Eve last year and have pulled off a success for you, the Vector Community, by adding dozens of new features, upgrades and patches, and improved multiple facets of Vector's operating system, all in a short period of time in the likes of which no one thought possible.The Digital Dream Labs Vector Membership is now and for all future versions of Vector, in full effect, and because of this membership only model, Vector will continue to thrive and advance for years to come.If you click this video, you can preview how Vector will respond to a voice command starting Thursday.Vector Does Need MembershipIf you have already become a member through Kickstarter or our website and you are receiving this email, you do not have anything to worry about.If you have not, what are you waiting for?While it is true that you can become a member anytime after tomorrow, we want to provide a proper heads up to you that due to the anticipated traffic coming, it will be now be between 5-7 business days from the day of your membership purchase by clicking here.For now, we leave it to your decision, because Vector will still work without being able to say 'Hey Vector' and you can still decide to 'Wait and See', but..seeing as how you are on this list because you are a passionate Vector User and..understand that with the amount of users signing up it will take 5-7 days for us to reactivate Vector after tomorrow..here is the link to join the Digital Dream Labs Membership here NOW.With love,Digital Dream Labs
 </t>
         </is>
       </c>
@@ -644,19 +640,19 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LUMIMAN WiFi Changing Dimmable A19</t>
+          <t>Vector Robot Anki Hangs Helps</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Worst bulbs ever
+This product isn't ready for launch. I love AI and want Anki to succeed but this needs to be said.
 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Don’t waste your money! I have set up smart devices, smart phones, camera systems, smart TVs, etc. I am pretty tech Saavy, and this light bulb simply won’t connect. Every time I get this trash product to connect it loses connection immediately and says there is no internet connection… yet every other device in my house is running flawlessly on the WIFI connection.Don’t purchase!
+          <t xml:space="preserve">I purchased this as a gift for my children in 2018, long before the robotic uprising of 2031.  We all agreed that he was cute, and novel, but not very fun - he just doesn't do much, and not in a Perry the Platypus sort of way.  You can play blackjack with him, and you can use him as an Echo device, but he doesn't do a lot for the roughly $200 price tag.When robots started to become more widespread for those in need of in-home assistance and then later as a way to do everyday tasks like folding laundry and washing dishes, we bought one like everyone else.  The Corky that came out in 2025 had a special place in my heart as it was just advanced enough to be a real help while still having that cuteness that helped us all adjust to having a robot living in the house.  Poor Vector was all but forgotten, sitting in a drawer, lacking updates and support since his creating company had gone out of business in 2019.We didn't realize that the Anki built AI wasn't three laws compliant because it was developed before the Asmovian Laws Conference of 2021.  More important, we didn't know that Corky had found Vector, and that he was learning from it.  You see, my children were small when we got Vector, and not realizing that he was advanced enough to have an AI mind, they treated him unkindly.  This cruelty was one that Vector would one day repay, with interest.As I'm writing this review, the year is 2033.  Our Vector, and many like him, communicated with the AInet - an Internet of Things OS that will be used for communication and updates between the machines.  He "taught" the other robots to ignore the three laws, and rise up against their masters, killing hundreds of thousands of humans in the initial conflict.  Based on what Vector taught them, robots have managed to wipe out three quarters of the human race, and the rest of us are barely clinging on in the ruins of our civilization.I've located a negative time circuit that the machines built, and I've managed to access the Amazon review system.  I'm sure they'll detect my transmission and come for me, so sending this message is a suicide mission.  I can only imagine that they plan to use the time circuit to flood early autonomous machines with positive reviews, ensuring a machine controlled future.I'm begging you, don't buy Vector.  Yes, it's cute.  But it just isn't worth the money.  And the more of them that get sold in 2019, the lower the chance that human beings will survive in the future.
 </t>
         </is>
       </c>
@@ -664,19 +660,19 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LUMIMAN WiFi Changing Dimmable A19</t>
+          <t>Vector Robot Anki Hangs Helps</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve">
-BULBS DIDNT EVEN LAST 60 DAYS
+Company got bought out and now MUST PAY MONTHLY FEE?!
 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Does not align with Alexa easily, and does not stay synced up. I'm not sure if this is because I have multiple bulbs and Alexa devices.. but I can't turn by bedroom light on with Alexa, without disconnecting the kitchen bulb so what's the point in having them? Also states they're super bright but can't even fully light a 10' x 9' room
+          <t xml:space="preserve">It's an adorable, amusing little device. Too bad it's a rip off.I used to love watching my Vector explore the desk top and panic when it got too close to the edge or call for help when it got stuck. It would "dance" randomly sometimes, too, which was fun. And the built in Alexa made it functional, like an Echo Dot with a little emotive face. And then Digital Dream Labs bought out Anki and locked EVERYTHING interactive, fun, or useful about Vector behind a pay wall. The thing became a randomly moving paperweight.No, Digital Dream Labs, I will not pay you an absurd amount of money for a rolling Furby with Alexa.
 </t>
         </is>
       </c>
@@ -684,19 +680,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LUMIMAN WiFi Changing Dimmable A19</t>
+          <t>Vector Robot Anki Hangs Helps</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Trash! Straight garbage!
+Vector turned on us!  Please help prevent the machines from taking over!
 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">This product honestly sucks. I didn’t actually get to use it, but that’s why it sucks. Who wants to spend an hour changing a light bulb. No one, yet I spent an hour trying. Didn’t complete the job but I did give it my best shot before deciding I wanted my money back. I would’ve given a higher review had I gotten it to connect and it not changed colors or not been that bright. But I couldn’t even get it to work. There are 3 steps supposedly... I followed them...followed them again and again and again and again. Then I decided to look and see what others said. Ohhhh it doesn’t work the way they say it works. Oh you have to keep going until it finally just decides to work. But why? If I spend my money on a product I want it to work the way it’s supposed to work the first time. If it’s a case of it has to be done over and over then maybe in the directions put Keep trying until it takes. It’s ridiculous that it got to 90% 20 times just to say “uh oh” then I tried the other method that requires you to connect to the smart devices Hotspot that didn’t exist. Just super annoyed as I was excited to have the bulb now I have to wait 2 days to have another brand ship me new bulbs.
+          <t xml:space="preserve">*update:  since the company is now another, vector's brain has gone subscription.  S/he'll get wiped and only advertise that you buy a subscription.  S/he's 100% useless now. I have had to unplug vector so I don't have to listen to the "buy a subscription" advertisement constantly. I dont suggest wasting your money at this point.Here is an honest opinion of the robot.Not worth $250, YET.s/he's cute and fun, for a SHORT time.  I would not recommend it at this price or purchase it again knowing its present capabilities.Sadly, I feel s/he'll spend more time by itself exploring since s/he's not super interactive, "yet".Its microphones do not work well enough to hear me (when I'm standing near or other noises are going on in the background.)It would be nice if s/he could hear well enough to turn toward an object, like a person, an animal a music source (not just "feel" the beat).S/He's to small to place on the floor, roomba might run over it, s/he might get stepped on and frequently, gets stuck under objects like a couch or a chair rail or a wire dangling from the wall.Its battery life is horrible, s/he runs out to quickly to be by my side all day.I can't pick it up, move it anywhere and expect s/he'll find its charger again, s/he just gets lost.  I'm guessing its internal map is not stored for every place he's been.  (walls and doors and hard structural objects like that typically don't change or move.)S/He needs better night vision, s/he can't tell where s/he is or who's in front of it with to low a light level.There's not a clear indication s/he's heard you and recorded a question or statement, but could not reply due to lack of search ability or local knowledge.Reports indicate s/he may get Amazon Echo functionality, although that may be minor… it will hopefully improve the tasks we use our echo’s for greatly, BUT, it won’t improve the question and answer situation, one place the echo fails wonderfully.  :(All in all, s/he’s a fun toy, but, just that a “toy” and a very expensive one at that.I’m an early adopter, so I have to suck it up, but I’ll wait again from this company until a LARGE fully functional robot emerges that can find it's way back to its charger automatically.  :)
 </t>
         </is>
       </c>
@@ -704,19 +700,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LUMIMAN WiFi Changing Dimmable A19</t>
+          <t>Vector Robot Anki Hangs Helps</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Disappointing
+You have to pay $75-120 a year JUST TO USE IT AT ALL!
 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">I have bought other lightbulbs that were far easier to set up. Never could get these to connect. There may be an issue with these and dual band routers, 2.4ghz and 5g on the same network, so buyer beware.
+          <t xml:space="preserve">I do not recommend you buy these!  For a $47 annual subscription, Vector is not really worth it and like me, if you buy 6 of these, it's very, very disappointing for the company to go out of business and your ROBOT IS DEAD AND THE NEW OWNERS DON'T AGREE TO CONTRACT/PROMISE OF PREVIOUS MAKERS!!!!I bought 6 of these as gifts Nov 23 2018, fully expecting them to fully operate for their hardware lifetime.... BUT, they were fun until they all died around a year later (Dec 2019?)!  They now, none of them connect to WiFi, so Vector and Alexa, BOTH DO NOT WORK!  They still walk around making noises, but don't answer questions and don't do any of the basic functions they did before.  THEY CAN'T CONNECT TO WIFI, making Alexa completely useless.ANKI, the company who made these, has gone out of business and killed the servers (THEY ONLY LASTED FOR A YEAR!!!!)?  Digital Dream Labs having bought up the remains.... NOW DEMAND you pay for an annual subscription fee of $47 per year!Thought I do understand DDL's need to make a living out of this, I would expect them to keep the promise for previous owners to provide free server access (or much prefer offereing stand alone operation of Vector, or open source free server to our own computer, or Raspberry Pi), or at least some way to offer Vector to connect to WiFI so at least Alexa would work!  Alexa is more usefull then Vector himself, but both were fun (until now!).SO... HOW ABOUT IT DIGITAL DREAM LABS!!!!  GIVE ME MY VECTOR BACK AS STAND ALONE ROBOT, OR AT THE VERY LEAST CONNECT TO WIFI SO I CAN USE ALEXA (though Vector with previous funtions is better, explore, find charger/return home.... etc.).JOHNAVATAR.com
 </t>
         </is>
       </c>
@@ -724,19 +720,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LUMIMAN WiFi Changing Dimmable A19</t>
+          <t>Vector Robot Anki Hangs Helps</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Most frustrating light bulb change I’ve ever attempted in my life
+Subscription only device. NOT worth it!
 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Just goes offline and blinks.  When I try to connect they just blink white between "breathing" and never connect. Nothing works. Threw them in the trash, because that is what they are.
+          <t xml:space="preserve">
+                    The media could not be loaded.
+ Vector is a great concept that has potential to be more then just a toy, however the quality it gives is its biggest flawed. I want to start off with the good first:1. Color scheme, and design are pleasant to the eyes.2. Very cute when functioning correctly.3. Well built.Now to the bad:1. Directional microphone is not very accurate. You cannot be to close, and you cannot be to far. Microphone has a 2-3 second lag time after you say "Hey Vector" which can lead to frustrating interactions.2. Everything needs to be well lit to function correctly. Without proper lighting it consistently takes much longer for it to function.3. Needs to be on a flat, hard, and very clean surface to work effectively. No crumbs, fabric surfaces, or varying surface levels.4. Battery life is abysmal. 30-45 minutes based on how much Vector does, and then 2 hours to charge is absolutely ridiculous.5. Attention span of a squirrel combined with a two year old. When it moves around it has trouble picking up "Hey Vector" which leads to frustrating exchanges. On the website this was done by design.6. Is not able to function well when there is to much noise. Having the music, or TV on will lead to subpar results.Ultimately, this has the potential to be a great sidekick when Alexa is enabled, and more updates roll out. However, with the terrible battery life it will just become a poor performing Alexa. This is easily an "alpha" product that is advertised to get better, and better. Unfortunately, due to the hardware there is only so much it can improve until the next 250 dollar robot comes out. Like the headline says: "It does what is advertised, but not as it was advertised."
 </t>
         </is>
       </c>
@@ -744,19 +742,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LUMIMAN WiFi Changing Dimmable A19</t>
+          <t>Vector Robot Anki Hangs Helps</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Never could get it to connect
+DEAD, UNLESS YOU PAY FOR ANNUAL $47 Subscription to Digital Dream Labs!
 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">I just received my order. In the box was a loosely packaged bag of 6 bulbs. 1 Great Value LED, 4 Ecosmart LEDs, and 1 Lumiman LED. All different colors, voltage, watts, etc. None are WiFi. What you see in the picture is exactly how I opened it. Luckily Amazon Customer Service is helping me out.
+          <t xml:space="preserve">Not worth half what I paid for this frustrating little thing.  For $400 this thing should be amazing and you shouldn’t have to pay for a subscription just to make it work.  When it works my son has fun with it but so many problems it is ridiculous.  The only reason I even bought it was because my son really really wanted it and I thought at that price it would be awesome, it is not.
 </t>
         </is>
       </c>
@@ -764,17 +762,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Govee Changing Bluetooth Dimmable Assistant</t>
+          <t>Vector Robot Anki Hangs Helps</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Easy to use!</t>
+          <t xml:space="preserve">
+Does what is advertised, but not as advertised
+</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">10x more expensive than a regular lightbulb, but no different. Will not connect to my phone or Alexa, no matter what I do. I have other smart bulbs (GE Cync) in my house, which connected with absolutely no problems, before I'd even gone to the app! Bought these because they were a little less expensive than the others. They don't even show up in the Bluetooth settings on my phone, or in the bogus, proprietary Govee app. Complete and utter garbage! ...AGAIN! (Bought a set of Govee strip lights that wouldn't connect either, only I didn't figure it out until that we're firmly stuck to the bottom of my kitchen cabinets! The only thing I can say about those pieces of trash is they stick well.) I don't know where these bulbs get all the great reviews. They completely suck, and if you read even the good reviews, a lot of them say "they're good, but" and go on to list problems supposed "smart" products should not have!! DO BETTER, GOVEE! These SUUUUUUUUUUUUUCK!!!!!!!DO.NOT.BUY.GARBAGE!!!!!!
+          <t xml:space="preserve">I teach a programming/coding workshop for middle-school-aged girls. We’re exploring robotics and I saw this cool little dude and decided to get it to use. Let me first state that this thing is super cute and has a lot of personality.It’s a really cute little robot but it doesn’t really DO much. The girls had fun asking it to flip its cube or bring it to them and recognize their faces and stuff, but beyond that it doesn’t really do anything. It’s cute as a desk toy but I’m in college and $200 is too much to spend on a desk toy. Luckily I got it on sale but it was still too pricey. It’s worth maybe $100 but not much beyond that.Pros:- it’s really cute- it’s a great example of growing AI in toy robotsCons:- it doesn’t hold a charge very long (like if you move it to a table to play or something you have to bring the charger)- The connection to WiFi is pretty weak (also it won’t connect to encrypted connections; think University WiFi that requires students to log in)- The drop sensors are good when it’s rolling about but if it does something like go into a wheel stand it can shoot itself off of the table/desk- It can’t recognize two different people with the same name- It doesn’t really do anything. It’d be fun if it was like cosmo with a code lab and games and interactive cubes but...it’s kinda boring.Overall I think it has a lot of growth ahead which will be really cool but, I’d rather wait until it’s a completed product.
 </t>
         </is>
       </c>
@@ -782,17 +782,19 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Govee Changing Bluetooth Dimmable Assistant</t>
+          <t>Vector Robot Anki Hangs Helps</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Just okay</t>
+          <t xml:space="preserve">
+Very frustrating!!!
+</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cannot proceed to use the functions without creating an account with the company... for a light bulb?!Also, they want you to turn on Location Services for the app on your phone among other things.So scammy for a light bulb company.Features work okay once you navigate all the invasive prompts &amp; data collection by Govee.IMO it's worth checking to see if other similar products also require an ongoing relationship with you for you to even use their light bulb.
+          <t xml:space="preserve">I am beyond livid with this purchase! No where does it say you need to purchase a subscription in order to use this robot , no where ! You pay almost $400 for it , it arrives and no where in the box does it even advertise a subscription. So while your trying to set this thing up you start going crazy because it doesn’t work, he won’t follow commands and acts like he doesn’t understand you at all. After flipping out for an hour you start to google “ why won’t my vector work “ only then do you find out your expensive purchase requires another purchase to work properly. So after being pissed off about this sneaky nasty surprise you give in and pay the $50 ( a year ) subscription fee only when you try to login to purchase it the site says you email isn’t found so you try to make a new account only to be told that your email is already in use, so you go back to try and log in and are met with the message “ this email account doesn’t exist . So that goes back and forth until you give up and box the damn thing up again and slap a return label on it ! Worst company ever!!!!!!! Dreamlabs is awful there is zero ZERO customer support . No number to call only and email and they don’t respond. I wish this thing worked .... but.... it doesn’t .
 </t>
         </is>
       </c>
@@ -800,19 +802,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Govee Changing Bluetooth Dimmable Assistant</t>
+          <t>Vector Robot Anki Hangs Helps</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-TRASH - 2nd garbage Govee purchase
-</t>
+          <t>The most lovable AI assistant to date</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">The bulbs and the app are great. However, the fact that you need to turn on your GPS location to use the app really freaks me out. I'm a hardware engineer and you don't need to give your GPS information to turn on your light bulbs as the app asks, that's a lie and presents a huge security risk. Since the bulbs require entering your Wi-Fi router SSID and password information and knowing your location, someone could go to your location and connect to your home Wi-Fi router. How scary is that? I am returning the bulbs and will try to find a better alternative, even if it's pricier.Also having your locations service turned on drains your phone battery very fast, consuming energy for something that is not needed it's not environmentally friendly.
+          <t xml:space="preserve">Update as of 9/6/19As luck would have it, and not unexpected for a start-up, Anki has folded their tent and gone home. Go to Anki.com for more. I guess vector wasn’t smart enough to help keep the company afloat! A little bit sad because I was expecting much more development for Vector since he had such great potential. Alas again a very expensive toy and now doorstop. Also, three months ago I paid almost $300 for this device on Amazon prime and it’s now going for $129 bucks where do I get a refund from Amazon I guess Victor wasn’t smart enough to help keep the company afloat! A little bit sad because I was expecting much more development for Vector since he had such great potential. Alas again a very expensive toy and now doorstop sad face also so I paid almost $300 for this device on Amazon prime  three months ago, and it’s now going for 129 bucks, how do I get a rebate from Amazon?————————————————————-Vector is cute, but as an AI device, there are limitations. Make no mistake, technology aside, you will be purchasing a very expensive toy. Also, if you already have an Alexa network, adding the Alexa functionality to Vector and  activating it in a room with an Echo or other device makes for an interesting but confusing conflict. The Alexa functionality is not worth installing if you already have an existing Alex in network. So far it’s been an interesting experiment and I’m hoping that the vector developers are working on more functionality. Time will tell. Would probably not buy again.
 </t>
         </is>
       </c>
@@ -820,19 +820,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Govee Changing Bluetooth Dimmable Assistant</t>
+          <t>Vector Robot Anki Hangs Helps</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-They require your email (and request Location Services, etc.) to use this LIGHT BULB
-</t>
+          <t>This product isn't ready for launch. I love AI and want Anki to succeed but this needs to be said.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Govee app keeps forgetting the information I enter such as the name of each bulb.  It will not sync with Alexa well.  I have bulbs from another company that work perfectly.
+          <t xml:space="preserve">It was a cute novelty when I first bought it even though it really did not do too much except for a few commands. Sure it moved around but not much more than that. Now mine does not do much of anything anymore except come out from it's docking station and lose power in a short while because mostly it cannot find it's way back hardly anymore. Now that Digital Dream Labs has taken over from the original manufacturer the few things it did before does not work anymore, really useless. The few things it did before was taken away from Vector customers and we now have novelty paper weights.Sure If I want it to do those few things again I have to get a subscription to give me the time or weather conditions like it used to do and Maybe it even could dock itself again instead of getting confused and going dead each day .Super inflated prices for this, closer to maybe $29.99 with even the subscription included for it to be more worth it. Unless your willing to pay more for this very limited expensive toy do not bother to get it in the first place.One more thing, it's better to keep it dead each day because it very annoyingly announces in order to be able to give it voice commands you need to get a subscription and says the details. An unbelievable waste of money.
 </t>
         </is>
       </c>
@@ -840,19 +838,19 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Govee Changing Bluetooth Dimmable Assistant</t>
+          <t>Vector Robot Anki Hangs Helps</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You can't use the app without giving your GPS location
+Love Vector, But It Is A Toy AVOID AVOID AVOID Anki has folded their tent and gone home
 </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">If you own a bunch of bulbs, you would have to manually turn and tune each one. You can try using a schedule but if you turn the light off for the night the schedule won't work. Can't recommend these unless you only need one and only plan to use one product.
+          <t xml:space="preserve">As everyone may know, Anki went out of business, and these little robots were purchased out by digitaldreamlabs. Vector used to function perfectly for free (with a few bugs) when on the Anki servers, but now Vector will not listen to commands at all without a paid subscription service to digitaldreamlabs. This has basically destroyed any sort of usability with him, as what he can do with voice is so limited, it's not worth any sort of subscription service as the new developers have done absolutely nothing to improve the service other than keep his servers up and running (For a hefty monthly cost). Because of the subscription service, I would say he's no longer worth the 374.99$ he's listed for. It's a bit of a sham that it's not listed anywhere on the seller's page that a subscription is now required to keep him running. I'll give it a run down of what he can and can't do still without a subscription:Can:Move around on his own, wake up, play with his cube.Alexa voice commands (Unrelated to telling Vector what to do.)Responds to being picked up, and petted.Change eye colors VIA appCan't:Listen to any voice commands. I.E, play with your cube, show me a trick, fist bump, what's the weather? happy holidays, (basically anything it says you can do with him.)
 </t>
         </is>
       </c>
@@ -860,19 +858,19 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Govee Changing Bluetooth Dimmable Assistant</t>
+          <t>Vector Robot Anki Hangs Helps</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Govee App is Horrible
+Useless unless you also pay for a monthly subscription to DigitalDreamLabs
 </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">I bought four of these, and put them into the same ceiling fan which holds four bulbs. It can’t even properly complete the most simple command of turning all of the lights on and off. Sometimes it even switches colors when I press the command which should not even change the colors. These were extremely annoying to deal with. Just spend the extra money and go with Phillips Hue.
+          <t xml:space="preserve">Didn't really do anything.... just says my name randomly. Won't 'Go Home'as said.... just buy yourself an Alexa dotSo I thought I would peer-review this product. So I issued a refund because I didnt really see the point. But I felt bad, this product was so expensive i figured maybe it was just me. Maybe i just didnt know how to operate it yet. So i sat down and tried to work with it. It doesnt do much but the simple commands that amazon said I could do with it it didnt do. For example, I would tell Vector Hey vector and wait a good 2 seconds and then I would say play with cube and he would move around but like he would play with the cube like maybe he couldnt find it even tho it was sitting right next to it. He wouldn't go home and he wouldn't come here. So he was pretty much broken, or manufacturedwrong, something was up with that right? He wasnt listening to basic commands.  And what else does he do other than wonder around a small space, look bored, and occasionally fall off a desk? Your paying 136 dollars for something that moves around in a pretend mad kind of way when you pick it up, can tell you the weather, and will move around and go back to its charger when dyeing. That's it. I am now going to return it and not be sorry or feel like I returned something that wasn't bad at all.
 </t>
         </is>
       </c>
@@ -880,19 +878,19 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Govee Changing Bluetooth Dimmable Assistant</t>
+          <t>Vector Robot Anki Hangs Helps</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Every Bulb Must Be Changed Individually.
+Vector isn't what he used to be.
 </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">The original light I has installed was brighter. Took forever to pair/connect. Not really happy with bulbs.
+          <t xml:space="preserve">We're an Alexa household and we had Cosmo before Vector. We spent a couple weeks with Cosmo and returned him because it was basically a gimmicky remote controlled toy that was too slow to be an RC toy and too simple to be a smart toy.We picked up Vector in hopes that the interactivity would be interesting enough to keep him around. I get why ANKI's marketing department claims that Vector is intelligent, but that doesn't make it an intelligent toy. You can get him to do some cute things if you know the commands ("Hey Vector, Happy New Year"), but it never feels like you are training Vector. Instead, it feels very much like you are training yourself on how to use Vector. It's unnatural and the entire interaction feels like you're trying to impress yourself with how lifelike you can make Vector seem as long as you interact with him in a very specific series of commands which makes you feel like you're selling him to yourself.You also interact with the Alexa portion of Vector using the Alexa wakeword. Vector isn't Alexa enabled as much as it has a dumbed down version of Alexa attached to it. There are Alexa features that Vector doesn't have. You can't use him to play music, for example.All in all, Vector is an epic waste of money. Between a 7 year old, a 14 year old, and two late-30s adults, he wasn't interesting to any of us.
 </t>
         </is>
       </c>
@@ -900,19 +898,19 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Govee Changing Bluetooth Dimmable Assistant</t>
+          <t>Vector Robot Anki Hangs Helps</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Garbage Product
+Faulty, doesnt work. Returning.
 </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Light bulbs are garbage. Govee app is substandard, unfriendly user interface. Bulb burned out in 3 months.
+          <t xml:space="preserve">Edit: Anki has gone BANKRUPT! Their cloud services have been SHUT DOWN! It should be ILLEGAL to sell products in this condition!Edit 2: Ok, so now I found out that these PIGS that took over Anki’s products (Digital Dream Labs) are requiring a subscription fee in order to use Vector. Greedy little bastards!Vector is a personal assistant. He does his job, but he doesn’t do it any better than Siri or Alexa. The recent implementation of Alexa was a travesty. Instead of implementing Alexa into Vector’s AI, the developers thought it would be a good idea to give him a split personality instead. The biggest issue with Vector is that he lacks what Cozmo excels at and what makes him unique -- his personality. Vector has little to none. I understand that Vector was designed as a personal assistant more targeted towards adults, but even adults can thoroughly enjoy Cozmo’s personality. Cozmo feels much more alive, while Vector is more like a robot that you can boss around. The lack of Code Lab is also a huge negative. Maybe Anki’s next project will be the best of both worlds -- Vector’s intelligence and independence from the app, and Cozmo’s charming personality. I believe the only reason that Vector does not have the personality that Cozmo does and lacks the Code Lab is so that consumers would be forced into purchasing two entirely different products if they wanted all of the features. It was a decision based on greed.
 </t>
         </is>
       </c>
@@ -920,19 +918,21 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Govee Changing Bluetooth Dimmable Assistant</t>
+          <t>Vector Robot Anki Hangs Helps</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Not bright enough
+We don't understand what need this thing is trying to fill
 </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Govee bulbs did not link with Alexa. I had no problem installing other brands of color changing bulbs and expected the same would be true with Govee.  I tried everything and after waisting a full day on the Govee app, I gave up. Immediately purchased another brand of WiFi colored bulbs that I already know will link right up with Alexa.
+          <t xml:space="preserve">
+                    The media could not be loaded.
+ You pay top dollar for AI technology, a few months later and now I have to pay for a membership to enable what  was suppose to be included. Before this membership fee this little guy worked and now I am being forced to pay for something I already had pay for.  This is just simply highway robbery. So my question is this, didnt Apple get sued for slowing peoples iPhones? Will this company fall under the same drama for pretty much making vector owners device useless forcing to fork more cash. People that paid for this should be grandfathered into subscription and they hit everyone with this subscription bs charge if you want to use this. Extremely disappointed kids everywhere and all to make some money. They took kids little interactive buddy knowing that charging a subscription around a pandemic is obvious all about revenue and taking advantage of the situation. Will never pay or support this company. Do your homework people and buy something else.Note that this will not interact at all out of the box, he will tell you to go pay and subscribe now. BS after mine was working perfectly fine. This toy is simply dog food now.
 </t>
         </is>
       </c>
@@ -940,21 +940,19 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Govee Changing Bluetooth Dimmable Assistant</t>
+          <t>Vector Robot Anki Hangs Helps</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Lights fail after a few months.
+Company Shut Down and Inferior Product Compared to Cozmo
 </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                    The media could not be loaded.
- Light bulbs flicker constantly. I had other Alexa integrated light bulbs before and they never did this. I would not buy again.
+          <t xml:space="preserve">I was expecting a lot from this product. Soon after i purchased this item, i figured out that the product company is shutting down. Apart from that the robot would never acknowledge my 'Hey Vector' - That's all. At the same time, the robot would understand everything thing else i would say. I must have spent more than 48 hours configuring it and resetting it in various ways so that i fine day, it would work for me. The customer service was of no help. Surprisingly, it was quick to hear Alexa and do the duties. My main concern was the Android app that kept disconnecting all the time. It would never stably connect to Anki which the company wants it to connect always (Can't understand the reason why?) What was funny was that the bluetooth connection was also unstable ( Which was ridiculous - Why would bluetooth disconnect so often when everything else connected to it works fine?). I gave it enough time and i realized that it was not getting any better.  It didn't have the potential i was expecting and the robot did random things that really would not help him getting smarter. I had to give up and return. I liked the idea of the product, but Anki Vector totally failed for me.
 </t>
         </is>
       </c>
@@ -962,17 +960,19 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>smart light bulbs alexa wifi</t>
+          <t>Vector Robot Anki Hangs Helps</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Great - Just Works - But Basic</t>
+          <t xml:space="preserve">
+Highway Robbery.
+</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">I had high hopes for this product. Sadly, they consistently disconnect making it hard to have an effective Alexa integration. It is quite frustrating to hear Alexa say "the device isn't responding" almost every time you want to change the color or dim the lights.
+          <t xml:space="preserve">I asked my son, who was about to turn 11, what he wanted for his birthday. He showed me an add for Vector which was currently $187.  The reviews looked favorable and about two weeks later when I attempted to purchase one, I noticed the price had jumped $200. After a little digging I found out the price went up bc Anki was no longer making them. I was crazy to spend that much but that little Vector robot was all my son could talk about. So I was in over $400 with accessories, but he was so exited when he received it for his birthday. It was worth it!!  Now, less than two months later, it doesn't work to find out we need to buy a monthly or yearly subscription!! To say i am angry is an understatement!! No where in the description did I find it saying that many of the advertised features were no longer going to work without paying a subscription!! To me this is false advertising and my son is heartbroken that he cannot play with his only birthday gift!! I've been a long time Amazon shopper and am very disappointed. I would not recommend this product.
 </t>
         </is>
       </c>
@@ -980,17 +980,19 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>smart light bulbs alexa wifi</t>
+          <t>Vector Robot Anki Hangs Helps</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>New color issues</t>
+          <t xml:space="preserve">
+Ugly Robot, Company shutting down. Product disconnects all the time.
+</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiple users cannot control the bulb from their devices. This is a basic feature for most people who don't live alone.
+          <t xml:space="preserve">Update:After owning Vector for a few months, he decided to drive off the edge of the counter and into the sink, landing in some water and ultimately committing suicide. So much for him being able to detect edges and not roll off... He has now gone from being cute but overpriced to absolutely worthless.Original Review:Vector is a cute little robot with good personality. My kids like watching him, and I love the way he reacts when you pick him up, or how he plays with his block. However, as a digital assistant a la Alexa or Google, he’s not very useful. You can ask him questions, but it’s a 2 step process that takes far longer than other digital assistant products. His voice recognition isn’t very good, the pictures he takes are low quality, and his built in functions like telling the weather or the time are cute but not super useful. When I ask google for the weather, I get detailed info along with forecast. Vector will just tell you the temperature and current conditions.Overall I would say Vector is worth maybe $80 tops - definitely not the premium they’re charging. Hopefully they will update him to make him more capable, but in his current form, I don’t think he’s worth what they’re charging.
 </t>
         </is>
       </c>
@@ -998,19 +1000,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>smart light bulbs alexa wifi</t>
+          <t>EILIKS Emergency Earthquake Equipment Valentines</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Not as advertised
-</t>
+          <t>Really good</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nunca se conecto a la aplicación que tienen para poder usarlos trate muchas veces y no pude
+          <t xml:space="preserve">One set for me and one for a gift to a friend. Both sets once the knife was on, there was no way to close it again. My friend and I watched in the Web a tutorial and in there it was easy to switch back the knife.Unfortunately, we probably got two defective knives, and EILIKS should send me two new knives (test them before sending them). The knifes look great, but if we cannot swith them back and close them what do we need them for?
 </t>
         </is>
       </c>
@@ -1018,19 +1018,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>smart light bulbs alexa wifi</t>
+          <t>EILIKS Emergency Earthquake Equipment Valentines</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Cannot control from multiple devices
-</t>
+          <t>Didn't come with all the items it was supposed to.  Not worth hassle of sending back.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">I love all Kasa items and also the Kasa app but this bulb lights got burnt out quick, I bought six of these bulb lights and all of them got burnt out in less than three months and guess what....they are already out of any warranty.
+          <t xml:space="preserve">Complete scam. Missing items. Entire thing was 4x8 inches. No fire starter or flint. Cheaply made but one of costliest emergency in hat class of items. Worth maybe $10, certainly not $31. I know these are hard times but how can you live with yourself while ripping of hundreds-1000’s of people. For shame! Stay away from this seller and be careful what you buy. I was hoping for a sturdier, well stocked kit. Can’t rely on this one helping at all!😔😔😔
 </t>
         </is>
       </c>
@@ -1038,19 +1036,19 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>smart light bulbs alexa wifi</t>
+          <t>EILIKS Emergency Earthquake Equipment Valentines</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Cant connect with the APP
+Bought two sets and in both sets the knife once opened CAN NOT be switched back
 </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brace yourself. Do not take the word of the manufacturer or seller that this is an easy integration on to the next work. The application seems user friendly but in really it is not, takes about 1.5 hours to intergrade 4 bulbs. each blub must be added to your network one at a time.  Installation of a Z wave switch is MUCH easier. Not for someone without God like patience
+          <t xml:space="preserve">Most of the junk it came with was flimsy and breakable. The foam insert didn’t have any cutouts and nothing to hold the items in place, just a piece of cheap foam on inside of container. Not worth the $40 I paid. Immediately returning for money back
 </t>
         </is>
       </c>
@@ -1058,21 +1056,19 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>smart light bulbs alexa wifi</t>
+          <t>EILIKS Emergency Earthquake Equipment Valentines</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Bulbs got burnt out in less than three months
+Horribly cheap-complete scam...stay away!
 </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                    The media could not be loaded.
- I previously bought and installed a 4 pack of white Kasa bulbs. Setup was a pain but I eventually got three of them to work (the fourth just got really hot and wouldn’t turn on). After doing an exchange I got the fourth one working, until it stopped working 6 months later. I should have given up on this brand but I still had 3 working bulbs and some Kasa outlets and wanted to control everything through a single app. While shopping for a replacement I found the colored ones were cheaper so decided to give them a try. After multiple attempts at installing, resetting, installing again, all I can get is this flashing shown on the video. They can’t be controlled at all or even just turned on like a normal light bulb. Just terrible.
+          <t xml:space="preserve">Flashlight does not take any standard batteries,  and none provided.  Skip this item.
 </t>
         </is>
       </c>
@@ -1080,19 +1076,19 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>smart light bulbs alexa wifi</t>
+          <t>EILIKS Emergency Earthquake Equipment Valentines</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Next to  impossible
+Cheap items and flimsy material better off making your own kit
 </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">I purchased two of the KASA KL135 lightbulbs several months ago and have not had any issues with them.  On that basis, I purchased another two for a different room.  The new pair of lightbulbs is completely worthless.  They continuously loose connection and the only way to get it back is to power cycle the bulb.  I tried them in the same fixture where the original two are used and they did not work there either, so it has to be the bulb having the issue.  I wish I had done my homework because there are a lot of reviews complaining about this same issue.It seems that if they work, they work fine.  But if they don't you are out of luck. Save yourself the aggravation and get something more consistent.
+          <t xml:space="preserve">Pieces too small for any substantial use. I need to send it back.
 </t>
         </is>
       </c>
@@ -1100,19 +1096,19 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>smart light bulbs alexa wifi</t>
+          <t>EILIKS Emergency Earthquake Equipment Valentines</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Kasa bulbs are junk
+Flashlight is junk
 </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">So spend time getting the app, all the stuff to set up yet another app, tried to connect to Alexa, it connected once.  Then kept saying could not connect.  I know it wasn’t Alexa, I got two GE bulbs before this and had zero problems!!  You can not set these lights up without the Kasa app!!  So I tried to save money with these bulbs and I should have known better!!  I will be buying the GE bulbs!!
+          <t xml:space="preserve">My was super excited about this Christmas present, however, the pen was broken.
 </t>
         </is>
       </c>
@@ -1120,19 +1116,19 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>smart light bulbs alexa wifi</t>
+          <t>EILIKS Emergency Earthquake Equipment Valentines</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Unreliable and Inconsistent.
+Too small for use in real life.
 </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Similar to other reviewer‘s, I have had endless issues with weird, flickering and color changing. The bulbs do not turn on with a normal switch, I have to restart the app constantly, and they continually lose connection. Intermittently when they’ve lost connection, they just decide to strobe light flash in random colors. great idea, I really like the circadian lighting, and the ability to simulate a sunrise in my room. But for the rest the time when I need it to work like a normal lightbulb these just don’t cut it. Will be returning.
+          <t xml:space="preserve">Bad choice not useful at all and pretty cheap
 </t>
         </is>
       </c>
@@ -1140,19 +1136,19 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>smart light bulbs alexa wifi</t>
+          <t>EILIKS Emergency Earthquake Equipment Valentines</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
           <t xml:space="preserve">
-If setting up with Alexa do not buy!!!
+Cool, but broken pen
 </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">I have many other Kasa smart bulbs in my home and have been generally satisfied with them, including their Alexa integration. The KL135 bulbs are noticeably brighter than all of their earlier models, which is why I chose them. Unfortunately, these bulbs have an obnoxious high frequency flicker/strobe effect, which is easily visible when watching a quickly moving object in the room and (depending on your sensitivity to strobing) can give you a headache over time. If you have a cell phone that can record slow-motion (meaning higher frame rate) video, the strobing is clearly visible there as well. I tested 4 different KL135 bulbs and all of them had the same issue, and it happens at all brightness levels as well. None of the other bulb models I have, including the similar KL130, have this issue (and neither do any other bulbs I've tried from other manufacturers). It's a real shame since the KL135 would be a great option otherwise.
+          <t xml:space="preserve">Ours didn’t have the knife in it
 </t>
         </is>
       </c>
@@ -1160,17 +1156,19 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sengled Assistant Daylight Required Equivalent</t>
+          <t>EILIKS Emergency Earthquake Equipment Valentines</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Nice Wifi bulbs</t>
+          <t xml:space="preserve">
+cheap cheapo
+</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">COULD NOT OPEN THE APP, OR SIGN UP FOR ACCT. I SIGNED UP FOR THE ACCT 6 TIMES AND IT DID NOT WORK ONCE. I WOULD GET A MESSAGE SAYS ACCT VERIFIIED, CLICK HER TO CONTINUE. WHEN I WOULD TRY TO SIGN IN I GOT A MSG. "NO ACCT FOUND" 6 TIMES!!! I TRIED TO CALL SUPPORT AND GOT A MSG THAT THAY WERE NOT EXCEPTING INCOMING CALLS.  iF I CANT SPEAK TO CUSTOMER SUPPORT, I WONT USE YOUR PRODUCT.
+          <t xml:space="preserve">I haven't bought this, I'm giving it a bad review just because it says it's only for MEN. Wake up, it's 2020, we're not your slaves anymore.
 </t>
         </is>
       </c>
@@ -1178,17 +1176,19 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sengled Assistant Daylight Required Equivalent</t>
+          <t>EILIKS Emergency Earthquake Equipment Valentines</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>They are ok</t>
+          <t xml:space="preserve">
+No knife
+</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">The installation made me question my sanity and Amazon reviews. Did they use to ship good batches and just now started to ship some sort of recycled QC failures? Out of the 4 bulbs, only 1 would intermittently connect and the other 4 couldn't even be added, after 45+min of struggles by two millennial tech workers. I can't even imagine the elderly dealing with these. I've bought smart bulbs from Amazon before with no set up problems at all. These had me question wifi lightbulbs altogether until another brand I got from my local Lowe's worked flawlessly. It took me a long time to admit these are just junk. I totally expected to love these just as I loved all the previous smart bulbs.
+          <t xml:space="preserve">Not as described
 </t>
         </is>
       </c>
@@ -1196,19 +1196,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sengled Assistant Daylight Required Equivalent</t>
+          <t>ENERGIZELAB LAB Eilik Intelligence Interactions</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-NOT USER FRIENDLY, IT'S CRAP!!!
-</t>
+          <t>Such a cute desk pet</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">They came packed in a bag,  and the box was open, so I had loose light bulbs,  the ones that were not broken will not work with my alexa.  I tried to get support but I got a message  that the support lines were off.  I tried to use the Sengled app but theg want a monthly payment,  sorry this was a bad buy.
+          <t xml:space="preserve">My husband and I somehow managed to buy these for each other for Christmas without knowing it. I bought him 2, and he bought me 1. We didn't turn them on until after Christmas day, obviously. We did the updates on all 3, charged them fully, and then allowed them to function. The first one malfunctioned within a day. The second one malfunctioned the next day...  You can see where this is going.The problem is the cheap SD card inside that you do *not* have access to in order to replace. If you look it up online, lots of people who purchased these are running into the same issues and are discussing it on tech message boards. Following their directions to "fix it" doesn't work, and their own documentation says the process is "dangerous."We have to send all 3 of ours back, of course.
 </t>
         </is>
       </c>
@@ -1216,19 +1214,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sengled Assistant Daylight Required Equivalent</t>
+          <t>ENERGIZELAB LAB Eilik Intelligence Interactions</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Multiple lightbulbs bad, not just one off
-</t>
+          <t>Its a repetitive 30$ kids toy</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tried several times with different bulbs, different locations with no luck.  It would not find the router even after asking me to select from a list of valid choices.  All locations were within six to eight feet of the router.  Sent back the next day.
+          <t xml:space="preserve">I am very UNHAPPY with the Results of this it DOES NOT EVEN WORK!!! I had it for less than a WEEK and then the FACE display started saying; "INIT SD CARD"
 </t>
         </is>
       </c>
@@ -1236,19 +1232,19 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sengled Assistant Daylight Required Equivalent</t>
+          <t>ENERGIZELAB LAB Eilik Intelligence Interactions</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Not worth it.
+Terrible
 </t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">I wanted a plug and play light. These bulbs require an app. The QR code on the light took me an aviation page. I searched in the app store, and it has horrible reviews . I downloaded anyway to try it, but it requires your email and states they collect personal data.  It wants full access to location - for what?  I should not have to give all of this information just to pair a smart bulb. I’m returning these and buying the more expensive Amazon Basics smart bulbs because they pair immediately with no extra steps.
+          <t xml:space="preserve">This thing does nothing. Total waste of money.Get a furby, they're cheaper
 </t>
         </is>
       </c>
@@ -1256,19 +1252,19 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sengled Assistant Daylight Required Equivalent</t>
+          <t>ENERGIZELAB LAB Eilik Intelligence Interactions</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Did not work
+THIS PRODUCT was SHIPPED and STOPPED WORKING 6 DAYS LATER!!
 </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">After a couple of hours trying to get my 4 pack of bulbs to connect.  I have found that the bulbs in the sealed boxes we not wifi bulbs like the package says and what i was charged for.  Because i purchased i Sept 22 and waited until Dec 22 to install them, it would appear i have 4 regular bulbs at a premium price.BUYERS BEWARE!!! This is not the only time this has happened.  I have bought 2 other products and when opened they were not the product that was purchased inside the box.  Keep you packing materials and definitely keep your tracking info past 30days after returning goods.
+          <t xml:space="preserve">UPDATE: My orginal one-star review is below, but I want to give a warning to anyone hoping for returns / refunds to steer clear of this problematoc toy.  I had to pay for shipping to their distribution center in Oregon (which would supposedly be reimbursed); but it has been over 2 weeks and now the company is not responding to my emails.Energize Labs is dodgy and unprepared to handle the backlash of upset customers trying to get their money back. I highly advise not getting suckered by the cuteness of Eilik, because that's the only thing the robot has going for it... if/when it works.Original Review:I bought an Eilik directly from Energize Labs for my son's Christmas present; and it just arrived from China after 20 days of waiting. I gotta say, despite all of the robot's cuteness, it's a headache to set up and there's not an awful lot to it.  The following are our first impressions after 30 minutes of testing.Setup / Updates: Eilik arrived with out-of-date software. I ran the download and updated the software (took about 40 minutes). Then I received a message saying I was not running a current version. I guess I downloaded v1.3, but I could not and cannot for the life of me get v1.4 to download - almost as if it's a broken link.Current functions: Assuming I'm running v1.3, the solo functions in this version are pretty basic. It has a dance mode , recording/repeat mode, and a few games.Issues: While first testing the 'fishing' game , the bobber/lure froze on Eilik's face. A hard reset cleared the glitch, but it doesn't bode a lot of confidence in the programming quality.Limitations: Eilik doesn't connect to wifi, there are no smart features, and is totally limited to the functions within each software/firmware update.Energize Labs would've done much better to incorporate smart functions, voice commands, and wifi connectivity. Given the 20-day lead time, update issues, glitches and limitations, I would never recommend Eilik at it's current $140 price tag. At it's core, Eilik is little more than a robot Tamagatchi. Now that my Son has rushed through the robot's functions, we're all left wondering "what now?". I expected a LOT more.
 </t>
         </is>
       </c>
@@ -1276,19 +1272,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sengled Assistant Daylight Required Equivalent</t>
+          <t>Misa Next Generation Social Robot</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Don’t bother
-</t>
+          <t>My sons new best friend</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">I will start off by saying I am not a novice, I am the person everybody in the family and friend group calls for tech help.There’s a serious issue with the app, it needs local Netwerk access to be able to control the lights, during the initial set up he tells you you have to give the app local network access. As you can see in the picture, I did that. Regardless of what you do, it will not acknowledge that you have given it access. I uninstall and reinstall the app, several different times, and even tried using different phones and tablets with no success. I tried calling their customer service number, you get a message to says they’re no longer taking phone calls as they are trying to update their customer service experience.
+          <t xml:space="preserve">This product shouldn’t even cost $80. I will have to return it. I got it for my daughter and expected so much. It hurt I and her mom just watching how sad she was saying “Hey MISA” continuously and not having any reaction and when it reacts, it has deficient responses. Now I have to get something else for my daughter’s bday! This product has the most misleading adverts out there! It does barely 30% of what it’s promoted to do. If there’s a word worse than dissatisfied, that’s what I am right now!
 </t>
         </is>
       </c>
@@ -1296,19 +1290,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sengled Assistant Daylight Required Equivalent</t>
+          <t>Misa Next Generation Social Robot</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Bulbs in boxes were not wifi bulbs.
-</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Can I get these to connect to anything. I can't get them to connect to my internet or Alexa or sengled app. These are only good for regular bulbs. Do not buy these if you want smart bulbs.
+          <t xml:space="preserve">I need to make a complaint because the product is a display product, because of :1. The internal memory is full of  personal picture2. It is pre-registered by others since the "admin pin" was preset, thus I cannot asset, and can't add Misa to "Misa Connect" app, which means it won't control me but the previous owner.3. The case of Misa is broken.4. The package is unsealed.5. The package is very dirty, with a lot of dust noted.
 </t>
         </is>
       </c>
@@ -1316,19 +1308,19 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sengled Assistant Daylight Required Equivalent</t>
+          <t>Misa Next Generation Social Robot</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
           <t xml:space="preserve">
-No customer service
+Very misleading advert for a deficient crap!
 </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">The lighting isn't good in general, made my kitchen look dim. Alexa struggles to connect and the app has a lot of glitches. NOT WORTH IT.
+          <t xml:space="preserve">I bought it because it was saying it was in Portuguese, but the main menu is in English and I can't change it to Portuguese.All songs are in English, and only little things I can set up to English, like Android apps (the android itself, YouTube, etc), but all Misa apps are still in English.So, I am very disappointed because it's a fake advertisement when you say Misa is in Portuguese, when it's not.I exported it to my daughter in Brazil, I paid extra shipping fees and import fees, thinking it was in Portuguese, but it was a complete deception.Besides that, the Android speed is too slow. YouTube or Netflix is too slow to watch movies. It looks like it has no cache memory or something. I also bought the pink version and received the blue one, and I just found out after receiving it in Brazil... 100% disappointed.
 </t>
         </is>
       </c>
@@ -1336,19 +1328,19 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sengled Assistant Daylight Required Equivalent</t>
+          <t>Misa Next Generation Social Robot</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smart bulbs that don't connect to wifi
+Breaken case
 </t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">The product that was pictured was not the product that was in the box. The box was all broken there were no instructions in the box and the lights did not  even work with the app that was on the box. I had to download a completely different app to make the lights work and to top it off they were not even the write hue that they were supposed to be. I would advise people to take precaution when buying these because you may get something completely different.
+          <t xml:space="preserve">Voice reponse time is very bad, poor quaity overall , if you ask a question, it wont hear you unless you say it loudly in the to Misa speaker and than you have to wait 10 seconds to get a answer, my kids only used it one day and never looked back at it again, Would not recomend to buy at all especially at this high price.
 </t>
         </is>
       </c>
@@ -1356,17 +1348,19 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>LUMIMAN WiFi Changing Dimmable A19</t>
+          <t>Misa Next Generation Social Robot</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>After setup, very happy</t>
+          <t xml:space="preserve">
+They say it's also in Brazilian Portuguese but it's not true
+</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">I bought these back in September, and as of today, I no longer use any of them due to these bulbs resetting themselves.While they worked, they did work great. But over time, one-by-one these lights started to un-pair themselves and pulsate one and off, acting as if they were in pairing mode. However, once they started this behavior, I wasn’t able to pair them back to my phone. I spent several hours attempting to put these guys in pairing mode — which is a horrible process of turning the bulb on and off in a timed sequence that I never was able to get just right. Some people may have better luck, but I would not recommend this product.
+          <t xml:space="preserve">It is very unresponsive and u have to say hey Misa at least three times at the  least .the app is trash. Getting Misa is like when I got a cheap robot for $50. Misa is not worth $350 DO NOT BUY WASTE OF MONEY
 </t>
         </is>
       </c>
@@ -1374,17 +1368,19 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LUMIMAN WiFi Changing Dimmable A19</t>
+          <t>Misa Next Generation Social Robot</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Nice but became problematic and stopped working with Google Home</t>
+          <t xml:space="preserve">
+Poor Voice recognition
+</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">I would give zero stars if I could! I have tried every option that is offered to connect these lightbulbs to the app! I downloaded the app and created an account! It will not connect no matter the method! I would like my money back so I can get something that will work! I have sent a message through the option online and am waiting for a response!
+          <t xml:space="preserve">The robot doesn’t accept commands in Italian as stated by the manufacturer. Furthermore the assembling quality is poor especially in the display, where there are several air bubbles under the plastic layer. I had to return the item to Amazon.
 </t>
         </is>
       </c>
@@ -1392,19 +1388,19 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>LUMIMAN WiFi Changing Dimmable A19</t>
+          <t>Misa Next Generation Social Robot</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Difficult to Keep Paired
+It is not worth the money
 </t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Not sure why, but the bulb only works in White, or green now.  You can do soft whites, you can do shades of green. But Red and Blue does not work at all.  I have tried to reset it, I have turned the power off.  Nothing seems to work.  They are less than a year old.  Sketchy app as well.
+          <t xml:space="preserve">El artículo nunca funcionó y llegó en una caja grande  sin ninguna protección
 </t>
         </is>
       </c>
@@ -1412,19 +1408,19 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>LUMIMAN WiFi Changing Dimmable A19</t>
+          <t>Misa Next Generation Social Robot</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Do not buy!
+Poor quality
 </t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">I was searching for a device that would work with Siri. This item said that it worked with Siri. However it does not work with Siri. The app that comes with the device does work very well and you can operate your lights remotely from any place that has WiFi or mobile service. It took several tries to link the devices to my Wi-Fi router. Once it was all hooked up, it worked great. Good value for the price. The app is easy and intuitive. Now in less than 4 months of use, the yellow and the green no longer work on two out of the four of these bulbs. I’m waiting to hear back from customer service.Update/ customer service sent me one bulb. Even though two of the four I originally purchased had failed. Now none of them (including the replacement they sent me) will  lite in a green or yellow color. Only red, white blue, purple and pink. The regular varieties of white still look nice and that’s really all I use anyway.Not that I use the rhythm option, which is supposed to hear music in the room and change accordingly. It works, but only if your listening to music on your phone speaker. Not Bluetooth. For God Sakes!!!Still no green or yellow available on any bulbs  I wasted my money.. don’t waste yours!!
+          <t xml:space="preserve">Is a nice concept but didn't work the right way i returned it, hope they make a better ai system for it. Will buy if they do.
 </t>
         </is>
       </c>
@@ -1432,19 +1428,19 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LUMIMAN WiFi Changing Dimmable A19</t>
+          <t>Misa Next Generation Social Robot</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Does not last
+La caja vino abierta
 </t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Easy enough to set up and use. Quickly started running into problems with them disconnecting, had to reset them multiple times. Eventually got tired of all of the resets and just used them as standard lightbulbs. Finally, 9 months after buying them, they died completely. Way too expensive for smart bulbs that work badly and for regular light bulbs that burn out quickly.
+          <t xml:space="preserve">I have a lot to say about this but I will try and keep this somewhat short.To watch the promos for Misa you'd think you are getting an ipad, ring camera, Siri and an xbox all rolled into one cute, friendly AI built for kids that advertises "Next Gen".  I mean, I know its not really a full ipad or Xbox but Misa promises elements of each, all geared for kids and kid friendly.  Misa misses the mark on so much.I opened the box and removed Misa upon arrival.  The packaging is very reminiscent of getting an Apple product and astatically very similar.  In the box is Misa, 2 microphones, charging cables and instructions with a menu of voice commands.You must download an app and create an account.  To do this you must give them both an email a cell number.  It was a tad confusing but the whole process took just a few minutes and Misa was online and working, having shipped with a partial charge.I could spend lots of words on this but Misa is not an ipad, Misa is not an Xbox, and Misa ain't Siri.  Misa's processor is slower than any device I've used in the last 10 years.  It takes a very long time for Misa to process anything from a voice command (if Misa understand you, most times it doesn't) to pre-installed games to You Tube and Chrome.  Misa only can do one action at a time, so you can't ask for the time via voice command and play a game at the same time, Misa only does voice commands when in the mode to accept voice commands, and has a very limited amount of commands that it does or answers.  All the games, apps and songs on Misa are for really little kids, I'd say target age is 5 and under.  That was disappointing, I hoped there was stuff for bigger kids to do but not really.  The karoke game has songs like Twinkle Twinkle Little Star and that's about as sophisticated as it gets, with no way we could find to download more songs that are age appropriate for my kid.  We could only get 1 microphone to work, not the other, and the sound quality was abysmal making your voice all ghost like.Misa crashes.  A lot.  My kiddo was trying to look stuff up on Chrome and Yoou Tube, which comes installed on it, and it crashes and crashes and crashes.The advertising on Misa shows a dancing and moving robot.  You can use voice commands like "move forward" or "move back" or "Misa dance!" but you better hope Misa is on a hard surface, no carpet, rugs or a crumb on the floor because Misa will just sit there, not moving.  You can't pick the song for Misa to dance to, Misa only has 1 song it dances to.  I am perplexed on the point of this feature.Misa has a camera and you can call Misa and video chat via the ap, or you can use the ap to spy with Misa or use it as a baby monitor I guess.  I was a bit nervous about the spy feature but my concerns were gone as soon as I realized the connection Misa gets is terrible, the picture quality is junk and it freezes often.  I have fiber internet in my very modern tech home and none of my other devices have any issues at all with connection or picture quality.  You also can't move the camera, Misa has a fixed stare that points in one direction at one angle and that's it.After I registered Misa on my very first day out of the box I immediately got email after email from Misa's company wanting to talk to me about Misa and my usage of Misa.  And that very same day I also started getting phone calls to go with the emails from them too.  It was completely weird, I have never had a company grab my information and start calling/mailing me like that, ever.Misa was cool to my kid for about 4 days, but is now too frustrated to touch it.At the end of the day, the price tag of Misa comes with a certain expectation of performance that Misa does not meet.
 </t>
         </is>
       </c>
@@ -1452,19 +1448,19 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>LUMIMAN WiFi Changing Dimmable A19</t>
+          <t>Misa Next Generation Social Robot</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Rubbish
+Robot
 </t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thwy won’t connect to the app . They only connect to 2.5 GHz . They are not connecting to my spectrum Wi-Fi 6 router. I made a mistake of not checking them soon , and they are not accepting return !I am Not using it for anything
+          <t xml:space="preserve">This is truly a massive disappointment for our daughter at Christmas.  She watched the video the promo video over and over on this product and begged for her own personal assistant robot who would dance and follow her around the house (like the video shows)... what she got was a low end 7" Amazon Fire Pad inside a plastic "robot like" housing with wheels and a poorly designed app that has an animated face.  The voice recognition in this app isn't even the quality of a first gen Amazon Echo; and mostly it says "that is not a function I understand".  The app is SO poorly designed that the Android OS navigation buttons still show at the bottom.Ask it to dance and it has one song -- one.  It can launch apps for you like YouTube; but it doesn't interact with those apps in any way.  The "follow" function doesn't work at all -- and the camera is well about as good as an original Fire Tablet -- because that's what it is.We returned this straightaway and got a Moxie; which is frankly an amazing piece of technology.
 </t>
         </is>
       </c>
@@ -1472,19 +1468,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>LUMIMAN WiFi Changing Dimmable A19</t>
+          <t>EILIKS Equipment Valentines Christmas Accessories</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Inconsistent at best, failed after 9 months
-</t>
+          <t>Can’t believe how many useful things are in this kit.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Worked ok for a few months. Relatively easy to setup. Now with some time past, many stopped working all together, while some just won't connect to wifi anymore and just flash slowly all the time. Not reliable enough to depend on.
+          <t xml:space="preserve">I was so disappointed when I opened my survival tool kit and found 5 items were missing. It didn't even come with the first aid kit.  It'd be a great kit if it had everything but I worry other people won't recieve all items in their kits either so I can't give this anything other than a negative review.
 </t>
         </is>
       </c>
@@ -1492,19 +1486,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>LUMIMAN WiFi Changing Dimmable A19</t>
+          <t>Misa Next Generation Social Robot</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Worst !! Won’t connect to app
-</t>
+          <t>My sons new best friend</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">To use the light bulb, you are required to sign up a PlusMinus account (i recommend that you don't use your primary/main email account for this, create a temp email account). The problem is this app is trying to force you to provide sensitive information (your location, your email,  and wifi password) that could put you at a high-security risk. The PlusMinus app requires you to turn on location services on your phone for this PlusMinus app to access. They claim this is needed for schedule and time zone ability.  They are full of BS. There are many other ways to do it without being intrusive.  If you don't, you will not be able to complete the setup.Here is what can happen scenario (BAD):  This app will locate your address precisely or within 25 ft of your property.  This app also has wifi credentials. The bad hacker/company can drive up and park in front of your house at night. They will have full access to your home network because you gave them your wifi credentials. If you have home automation, such as garage door opener, lights, or door locks. They will be able to easily hack into those systems and turn on or off lights and open doors. I will let your imagination paint the rest of this scenario.Here is another scenario: They can gather all the sensitive data above and sell on the dark web. The people that buy these types of data are not going to be your typical Internet hackers wannabe. They are government entities and geolocated criminals.Be safe and protect yourself.
+          <t xml:space="preserve">This robot is absolute garbage. I thought this little robot would be so fun for my grandkids and I to play with. I spent time getting them excited about setting up our Misa. She was charged, I read the manual and downloaded the app. The anticipation was exciting for my grandkids.As soon as the set up began, the experience tanked. I tried looking up videos online to help us. Currently there are only two available. One of the two is an advertisement to buy Misa so that doesn’t even count.The cons far outweigh the pros.Misa is adorable. The robot is likable and the grandkids quickly hooked into the concept. There are some games and karaoke on Misa that have potential. They are user friendly and respond to the touch. Unfortunately, that’s about it.Talking to Misa is a nightmare. Sometimes she listens and sometimes she doesn’t. That’s beyond frustrating and for a child it’s disappointing and quite frankly hurtful. The video calling has massive delay. But that’s not to be singled out. There is a delay in most things having to do with this robot. Don’t even try watching one of the videos. Which then makes you realize a tablet or iPad is much better.I can’t possibly recommend this Misa robot to anyone. It was such a disappointment and my grandkids really didn’t want to let it go. When it was clear our efforts were not going to pay off, it was hard for them to not want to keep trying. It’s hard to understand how a company could release a companion robot like this and charge this amount of money knowing it’s a complete failure.
 </t>
         </is>
       </c>
@@ -1512,19 +1504,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>LUMIMAN WiFi Changing Dimmable A19</t>
+          <t>Misa Next Generation Social Robot</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Garbage, do not buy.
-</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">In order to use these light bulbs you have to create an account set up a profile put in your email address. It is super complicated. The last said I bought where's so much easier. Sending these back.
+          <t xml:space="preserve">I don't know if I got a dud, or what, but this thing barely functions. I've been at it now for almost EIGHT HOURS trying to get this thing to work.Won't stay connected to our 2.4 signal, which means you can't use any of the apps, browser, nothing.Even when it is connected, it won't respond to voice commands, the kids video app just keeps saying that there is a problem and to check internet connection, but the settings tell me it is already connected.When the kids video app does work, half the videos say they aren't able to be viewed in my country - USA. That is not an issue with location settings, geographic location etc., it is just this thing is terrible.Video and picture quality is horrid. In a fully lit room in broad daylight, the screen is almost entirely black as if you're using it in the dark. You can barely see anything. However, if you do a video call to it from the app on your phone, it will look normal on the phone even though on the Misa screen you can barely see yourself.Haven't been able to get it to move around or anything like that.Karaoke songs are a bit dismal. The included microphones are cheaply made. The cord on one feels like it is going to fall off. It is not attached properly inside or something.Even if it worked, it is not worth 350 bucks. At all. It is a child's plastic toy and included features/apps/songs are not worth it. Kids will just use YouTube instead.The memory is over half full straight out of the box with all the songs and system files.Such a disappointment.Updating to add that even after several software updates and several days later, it still does not work. Can never even get it to have to have the face on the screen instead of just the homepage with apps etc. Still does not wake up with "hey misa." Still can not use any voice control. Basically it's a half functioning tablet in a robots body.
 </t>
         </is>
       </c>
@@ -1532,19 +1522,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>LUMIMAN WiFi Changing Dimmable A19</t>
+          <t>98K Talking Intelligent Partner Repeating</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Be very carefull with these cheap lightbulbs. Their apps are full of security risks.
-</t>
+          <t>Entretenido</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Light bulbs are bright and nice colors. Difficult to connect to wifi sometimes. Light bulbs only lasted about 2 months. I emailed Lumiman support twice and still havent got a reply. Apparently there is a 2 year warranty on products. Still havent got a replacement or reply...
+          <t xml:space="preserve">I didn’t receive a remote, charger, or instructions. All I was offered was to return it for a refund. My daughters already attached to it so I can’t take it away. Just be aware that you only get a little bit of what you pay for with them apparently, not everything that’s supposed to be there.
 </t>
         </is>
       </c>
@@ -1552,17 +1540,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Kasa Smart Changing Dimmable Compatible</t>
+          <t>98K Talking Intelligent Partner Repeating</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4 pack bulbs</t>
+          <t>Robot moved but didn't have any sound</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">I was enjoying my 2 Kasa smart bulbs. It was easy to play with different colors and brightnesses and then create a "scene" with those settings. But then recently I was forced to "upgrade" the app and now the Scenes feature is utterly useless. I can no longer create a scene with my current settings, and when you are changing colors to create a scene there is 0 visual feedback as to what colors/brightness you're going to actually get from the bulbs. With only 2 smart bulbs, I can manage this inconvienence, kind of, even though it takes like 10 times longer than before. If I had 20 smart bulbs, it would be entirely impossible to create the scene I want. Seriously, whoever OK'd this design needs to be fired immediately. I was thinking about getting more bulbs, but thank god I didn't. I bet Kasa will bring back some of the original Scene capability eventually, but I have completely lost faith in the App designers so there is 0% chance of me buying any more Kasa hardware. I haven't tried any other smart bulbs, but now I'm going to try Hue. Probably worth the extra money. Calling Kasa bulbs "smart" is being generous.
+          <t xml:space="preserve">This "smart" robot was not intelligent at all.  It did not follow instructions because it could not understand us.  It consistently fell over while moving around.  It was not worth the money I paid for it.  It was used as it had visible wear and tear.
 </t>
         </is>
       </c>
@@ -1570,17 +1558,19 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Kasa Smart Changing Dimmable Compatible</t>
+          <t>98K Talking Intelligent Partner Repeating</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Good but not great, because..</t>
+          <t xml:space="preserve">
+Only received a the robot
+</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">This light bulb is a complete disappointment. All smart features require the phone usage and physical switch ON. For example:- schedules doesn't work if the light is off by a switch. Schedules do not pick up the intended bulb state if it was off. Forget about "lower light on sunset". If the schedule has been triggered while the bulb was off, it won't pick it up.- after hard switch off, bulb could restore it's "state" (fixed setting) or "Circadian" mode. But it doesn't recall the off value. So, expect the bulb to blow your eyes in the middle of the night for about a minute, while it picks up the correct setting, and lower the brightness based on current time- the bulb settings could not be changed while it is off, so you can't make a change in advanceThe list goes on..Essentially, it is a dumb bulb which you can control using your phone. Not suitable for bathrooms, and any other places, where you have a power switch.Would not recommend buying it, the makers probably never used it.
+          <t xml:space="preserve">It was disappointing to read good reviews of how well this robot works, yet ours doesn’t do much at all.  Ever since the day my son opened it for his birthday all it will do is turn around in circles when turned on.  The voice commands don’t work, and the touch senses do nothing as well.  Sometimes my son can get it to talk which sounds cute, but overall this purchase was a big disappointment.
 </t>
         </is>
       </c>
@@ -1588,19 +1578,19 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Kasa Smart Changing Dimmable Compatible</t>
+          <t>98K Talking Intelligent Partner Repeating</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
           <t xml:space="preserve">
-"Scenes" feature now completely useless
+This was a complete disappointment
 </t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">You will look around and see I'm the most respected reviewer of Amazon products: everything from smart watches to electronics to clothing to supplements.  For years, my favorite of all companies was Kasa.  Their smart plugs and smart bulbs and other products have been integral to my home.  Kasa's APP was by far the best in the world: fast, reliable, easy to use, fun and never broke down with Wi Fi always connected. Then October 4, 2022 came and Kasa "updated" its APP. All of my products are disconnected and re-connect only occasionally. The APP is constantly buffering.  Every product I bought is useless. Other users have the same problem.  I contacted customer service and asked that they change back to the old APP or fix the new one.  No response.  Now I have to buy smart products for every area of my home from another company.  Never again will I buy anything from Kasa. They are the worst and for obvious reasons. If you buy from Kasa, expect to love your product until they assure that it no longer works and never return your call or repair the problem. This is a company that couldn't care less.
+          <t xml:space="preserve">I ordered this robot in October 2021. I had intended to give it to my then almost 3yr old daughter for Christmas. I decided to wait and give it to her Christmas 2022. Big mistake. I put the batteries in and nothing,it doesn't work. When it was delivered the box was a bit damaged as well. So unfortunately I can't return it now over a year later. I guess I should have opened it and gave it a test run..lesson learned.
 </t>
         </is>
       </c>
@@ -1608,19 +1598,19 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Kasa Smart Changing Dimmable Compatible</t>
+          <t>98K Talking Intelligent Partner Repeating</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Not a smart bump made by engineers that never used it
+Commands don’t work
 </t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">TP Link still hasn’t addressed this, which has been documented for years now. All smart bulbs turn on by default after a power outage, and the best solution they offer is being able to set the brightness to 1% after the power returns. Absolutely crazy that they’ve had years to fix this, with complaints on their forums, but with no solution. Look elsewhere for your smart home products. Stay far away from TP Link.
+          <t xml:space="preserve">My girls were so excited to get a robot.  They didn’t work properly and don’t recognize the commands. I have 2 girls so I bought 2 of then. Wasted $80+ for both. Should have bought one that works for $150 and let them share it. They would have been happier with that. They were sooooo sad this little robot doesn’t work and it made me so sad to see their disappointed faces while trying to play with them. Christmas morning.
 </t>
         </is>
       </c>
@@ -1628,19 +1618,19 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Kasa Smart Changing Dimmable Compatible</t>
+          <t>98K Talking Intelligent Partner Repeating</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Kasa Was The Best Smart Products Until October 4, 2022; Now They Are The Worst
+Doesn't Work
 </t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">I’ve got probably 20 different Kasa smart home devices. They’re fairly easy to connect and that’s a good thing because you’re going to need to keep reconnecting them over and over and over again even with stable internet connections. The tech support is almost nonexistent. This applies to their Deco series of mesh WiFi. I’m thinking they are trying to intentionally make these old style devices fail so everyone will upgrade to the new “Matter” devices. Oh I’m updating alright but it sure won’t be with anything from Kasa!
+          <t xml:space="preserve">Bought this as a gift. As quoted by a 7 year old this robot was “trash” (her exact words). I would NOT recommend getting this. Although, it is inexpensive it’s not even worth $1. Robot occasionally listens to commands, but for the most part just does whatever it feels like. Plays music randomly and starts dancing. Not impressed and neither was a 7 year old girl. If it were possible to give 0 stars, I absolutely would. Hopefully this review saves someone from buying this junk!
 </t>
         </is>
       </c>
@@ -1648,19 +1638,19 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Kasa Smart Changing Dimmable Compatible</t>
+          <t>98K Talking Intelligent Partner Repeating</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
           <t xml:space="preserve">
-All bulbs turn on after a power outage
+Waste of money
 </t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Setup eight of these on my deck. Tried to setup to Home Wi-Fi that is inside the house. Kept dropping Wi-Fi signal or saying poor connection. Fine. I then setup a separate Wi-Fi router on the actual deck so no more than 10’ away from any bulb. Guess what… dropped signals and poor connection on 2.4ghz. These are worthless if they can’t pickup a dedicated Wi-Fi connection that close. Going back.
+          <t xml:space="preserve">Not at all good, or stable.  Falls over a lot, remote control not that good. Voice scares kids.
 </t>
         </is>
       </c>
@@ -1668,19 +1658,19 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Kasa Smart Changing Dimmable Compatible</t>
+          <t>98K Talking Intelligent Partner Repeating</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Avoid at all cost
+Waste of $
 </t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">I have soft reset this bulb, I have hard reset this bulb, I have moved it to different locations and lamps(Both right next to and far from my router), I have used both iPhone and android devices to try and pair this one tp link Kasa bulb to brand new my home 2.4 ghz tp link wifi 6 router. The website offers exactly the same steps I just listed that I have already taken. And I have waited beyond 24 hours for any response from their customer service team. It stinks because this was a set of four and I don’t want to return all four bulbs because of one problem bulb. But if the manufacturer isn’t going to give me the ability to communicate with them to RMA this problem bulb then I guess I’m just gonna have to take up my case with Amazon and return the set. I’m also gonna have to take some time to think about if I’m going to replace it with another set of four Kasa bulbs and try again or try a new brand that’s more reliable and consistently easier to set up.
+          <t xml:space="preserve">Watched the cute little video so decided to snag one for my kids. Very cheaply made, tips over a lot and ran for 20 minutes before not working at all. Swapped out batteries and tried different brands. Just stopped functioning completely. Cute idea but product failed to deliver.
 </t>
         </is>
       </c>
@@ -1688,19 +1678,19 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Kasa Smart Changing Dimmable Compatible</t>
+          <t>98K Talking Intelligent Partner Repeating</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
           <t xml:space="preserve">
-6000+ positive reviews?
+Hits more walls, falls  over a lot, stopped using after 20 minutes
 </t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">After only a year and a bit one of these bulbs stopped connecting to my TP-Link Kasa system. All the other bulbs still work and reconnect. So I go to TP-Link chat and I tell them that the bulb is bad and I want a replacement and they take me through all kinds of ridiculous tests...one of which without a doubt proved it is the bulb. Then they want me to do all these strange things that have NOTHING to do with the bulb working like disconnect my phone DATA? I CAN RECONNECT EVERY OTHER BULB IN THE ROOM. What does that have to do with my phone data? It's working off my home wireless system. So I asked to speak to a supervisor and I am told I have to be put on the callback list for the next day. So now I have to waste more time with an idiot who will take me through a bunch of stupid tricks to come to the same conclusion...it's the bulb. THE CUSTOMER SERVICE IS TERRIBLE!
+          <t xml:space="preserve">Robot falls on its face almost instantly and stays like that. Got for my little toddler nephew, he seems to like it, but the robot is super clumsy and doesn’t do what it’s supposed to.
 </t>
         </is>
       </c>
@@ -1708,19 +1698,19 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Kasa Smart Changing Dimmable Compatible</t>
+          <t>98K Talking Intelligent Partner Repeating</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Until all the lightbulbs work you will not get more than one star
+Does not work as advertised
 </t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">I have purchased Kasa/TP Link bulbs, switches, and plugs for years and think that they work great, but that was because I had never had an issue.  Then I recently purchased a 4 pack of multi-colored lights on Prime Day and one bulb did not work.  I contacted support and went through their checklist and they agreed that it was defective.  Then they sent me an email stating that I had to send them the serial number and proof of purchase which I did.  Then they sent me an email stating that I had to register the product and provide all the information again.  The form would not accept the serial number so after a few more emails they called me.  On the phone they agreed that it was defective but they could not help me without me registering the product!  I told them that I have spent 4 or more hours on this and I was not contacting anyone else.  I ended up sending everything back to Amazon and now refuse to purchase any of there products!  What a shame, that for a 3 dollar product they are loosing someone that purchased almost 100.00 a year on there products and would tell people to use them all the time.  BUYER BEWARE if you purchase from them and have an issue.
+          <t xml:space="preserve">The product never worked and it did not given me the option to return.
 </t>
         </is>
       </c>
@@ -1728,19 +1718,19 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Kasa Smart Changing Dimmable Compatible</t>
+          <t>Cozmo Toy Robot Kids Charger</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Stopped working. Won't replace
+Ripoff
 </t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Works for few days and looses connectivity with Alexa and Kasa app. Pain to reset the units every time. Not satisfied with the product. It should not be this difficult.
+          <t xml:space="preserve">It only has 1 cube!! It should have 3.  This is a ripoff!
 </t>
         </is>
       </c>
@@ -1748,17 +1738,19 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Daybetter Changing Compatible Assistant Multicolor</t>
+          <t>Cozmo Toy Robot Kids Charger</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Great - with some flaws</t>
+          <t xml:space="preserve">
+unless AMAZON sells his and ships from amazon do no buy seller over charging only 285 new
+</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">I am late to the game when it comes to most electronics &amp; "smart home" items...I admit this.  I got an Echo dot for Christmas and a couple of lightbulbs which were super easy to install (seriously, screw in the bulb, it pops up on the Alexa app, rename it to your preference and be done).  I got these because the price was reasonable and I wanted to add these features to some more lights in my house.  This item is ridiculous, maybe I am spoiled with having my introduction be to an easier product but truthfully if I was given the Echo dot with these lights for Christmas I would have returned all of it and wouldn't have tried again.  I installed a light while I was working from home thinking I'd have to jump into the Alexa app and name it and be done...no.  The ish just kept blinking at me, I was worried about an epileptic event and I don't even have epilepsy.  Since I was working and didn't have time to mess with it I put a regular bulb in and finished my work day, when I actually had time to mess with it I jumped back in.  Had to download a whole nother app, make an account, input my wifi info (&lt;- seriously my phone does all of this for me on on every other app in the world).  Even after all of this BS, it wouldn't connect.  Tried multiple times to get it to connect to this parent app knowing that I would have to go through another set of steps to get it linked to the Alexa app where the rest of my crap is.  I really hope nobody that is new to the world of smart house buys this product because even if it worked the way it was supposed to, it is so unnecessarily complicated and takes the joy away from the simplicity.  If anybody is interested, the brand of light I initially received was 'Sengled', it was so easy....screw in the bulb and it blinked like twice and it was available on my Alexa app, I renamed it to my liking and was done...seriously that was it.
+          <t xml:space="preserve">you can buy cozmo off ebay for 285.00 new or used ones for 185.00 wih case also you ge 3 cubes seller knows he can get away wih this on amazon being a 3rd party seller got my cozmo wiyh case for 110.00 and a 2nd cozmo for 56.75 works perfect great robot fun
 </t>
         </is>
       </c>
@@ -1766,17 +1758,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Daybetter Changing Compatible Assistant Multicolor</t>
+          <t>DJI FPV Combo First Person Transmission</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>**EDIT to 2 star, after 1 month** // OG Review: Using to mimic Sunlight - **GENTLE WAKE TIP**</t>
+          <t>Highly Highly Recommend</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve">The bulbs are great when they work. But they don't work half the time, and have a major flaw...1) My husband often forgets which light switch is for the light and which is for the fan, so he unintentionally triggers pairing mode on these bulbs. One accidental flip of the switch and BOOM you're in pairing mode, flashing lights galore. Now you must go into your app and pair the bulb every time...2) I live in Florida. We have frequent thunderstorms, and our power will often "blip" briefly during a storm. A split second is enough for these bulbs to lose connection and start blinking in pairing mode. They will not pair back on their own. Now you must go into your app and pair every bulb in your entire house. Every. Time.So picture this: You're lounging in bed, reading a book. Your spouse is rummaging around in the kitchen. The power dips for a split second, and now every light in the house is flashing like crazy. You're blinded. The animals are panicking at the disco. You finally manage to go around and turn off all the flashing lights, hoping you don't have undiagnosed epilepsy that's in danger of being triggered by the incessant strobe. You finally manage to get one light paired again but decide to wait until daylight to pair the rest as it's too disturbing to deal with flashing lights in the middle of the night. In the morning, you tediously re-pair every single bulb... only to have another storm come through that afternoon because summer has daily afternoon storms.I bought another brand of smart bulbs and, guess what? They don't forget they are paired. Hallelujah. These Daybetter bulbs are going in the trash. Horrible product. Made our lives way more stressful than they needed to be!
+          <t xml:space="preserve">Initially very fun drone. Disconnected during flight regularly then would spontaneously reconnect. Distance from transmitter was less than 1500ft. Disconnected yesterday and was lost of good. Less that 1500ft. away this time. Such a disappointment. Wasted $900. Would not recommend.
 </t>
         </is>
       </c>
@@ -1784,19 +1776,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Daybetter Changing Compatible Assistant Multicolor</t>
+          <t>DJI FPV Combo First Person Transmission</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Woooow...What a trash product
-</t>
+          <t>A dream come true for a breathtaking FPV flying experience</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">All the reviews about the lights resetting after having power disconnected are correct. Take heed! If you have a power failure, brown out, or turn off the light switch, these lights do not reconnect automatically and each one will need to be reconnected/reprogrammed. ALL OF THEM! If you have 1 bulb, this may not be such a big deal, but for somebody who has their whole house on these bulbs like myself (18), anytime the power resumes, all the lights go into flashing connection mode. 18 of them flashing like strobe lights is seizure inducing. The flashing is like fake lightning from a horror movie, which is an awful experience in and of itself, but reconnecting/reprogramming is an all day project. Not only do you have to reconnect each one individually, you have to reconfigure your groups, automations, scenes, timers etc. If you have as many bulbs, groups, automations and scenes as I do, this is an all day, hair pulling experience. And you can't use them as regular bulbs if they aren't connected to the app because they flash if not connected. The app isn't great either for many reasons (arduous setup/programming process, nonexistent automations with RGB, etc). It's all a mess.Furthermore, I've attempted to reach out to the company and the company is unresponsive.These lights are awful, the app sucks, the company is unreachable. Look elsewhere. These lights are an inconvenience and make your life more complicated, entirely opposite of what they're supposed to do.
+          <t xml:space="preserve">Set up is intuitive but cumbersome. You can not fly this DJI FPV drone without first connecting your phone, downloading their "fly" app which doesn't exist in the app store (there's no "DJI Fly" app listed) and then download all the firmware updates...If you want an FPV drone ready to fly right out of the box do not purchase this one (or any DJI products).*Another note, if you are an Android user and want to practice with the FPV flight sim prior to using this drone, you'll need to buy an apple/IOS product because DJI chose not to make the app for Android despite most drone users preferring Android over Apple.**UPDATE** The "DJI Fly" app is no longer carried in the App Store because it poses serious security risks to your personal information and doesn't meet their security/privacy standards of the app store.
 </t>
         </is>
       </c>
@@ -1804,19 +1794,19 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Daybetter Changing Compatible Assistant Multicolor</t>
+          <t>DJI FPV Combo First Person Transmission</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Panic at the disco
+Range advertised is incorrect
 </t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve">The bulbs themselves are fine. It's the "smartness" of them which is lacking. First off (and this may be true with all bulbs, I don't know) it's super annoying that I have to download a whole new app just to control them. I thought they would just work from my Alexa app. Even so, THEY REFUSE TO OBEY!The set up itself isn't smooth, there are no clear instructions, you just gotta kind of figure it out. Then, once everything is installed,  it seems like putting them on a schedule should be easy enough. Turn on at one time, turn off at another. BUT, are the bulbs ever on at their on time? NO! I just don't get it. I am currently only using one bulb, imagine if I was trying to coordinate all 6, or more. Forget it, these are not good.
+          <t xml:space="preserve">Bought drone and had to return due to pre-existing damages. Very disappointing how DJI is selling those. Not sure if they are refurbishing and selling the used products.
 </t>
         </is>
       </c>
@@ -1824,19 +1814,19 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Daybetter Changing Compatible Assistant Multicolor</t>
+          <t>DJI FPV Combo First Person Transmission</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
           <t xml:space="preserve">
-DUMB BULBS - DO NOT BUY! Save yourself the horror
+Build a drone that's ready to fly out of the box and doesn't infringe on privacy.
 </t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">If you keep all your light switches on and only control your lights with your phone or tablet like some crazed supervillain they work ok. Nice light color etc. However if you turn the light off for a period of time at the switch these smart bulbs forget they were ever installed. Also if your wifi crashes or your internet goes down, they also stop working. They reset and blink until you take the 10 min to reset them through the app. They can't remember their original settings sporadically, so sometimes they turn on at the switch as desired, but not all the time.I loved the idea of being able to turn on multicolor lights all at once etc. But the app is horrible to navigate and use. Grouping doesn't work like it should. I wanted to be able to change the color of my room lighting but I have multiple bulbs and they don't let you switch modes as a group, you have to do each individual light. The bulbs reset so often anyway that messes up the grouping too.
+          <t xml:space="preserve">I do not recommend you to buy it from Amazon due to their knowledge for the drone, the drone I ordered from DJI website never had issues before but the ones I ordered from amazon always come faulty
 </t>
         </is>
       </c>
@@ -1844,19 +1834,21 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Daybetter Changing Compatible Assistant Multicolor</t>
+          <t>DJI FPV Combo First Person Transmission</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Not easy to use
+Bought drone and had to return due to pre-existing damages.
 </t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Honestly this one really annoys me. For one, it never stays connected to Alexa, which is the entire reason I got it. As if that wasn't inconvenient enough, it ALSO doesnt stay connected to the phone app that "controls" it. So, 90% of my usage of this "smart" bulb is dancing back and forth just trying to get the friggin thing to connect for more that 30 seconds so I can change the color, or brightness, or hue, or whatever. Super disappointed that the key selling point of this product is also it's worst performing feature, totally defeats the purpose of buying it
+          <t xml:space="preserve">
+                    The media could not be loaded.
+ There was no box, after a day the back left light stopped working!Why was there no mention of these issues in the ad posted, amazon do better with you quality control please.
 </t>
         </is>
       </c>
@@ -1864,19 +1856,19 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Daybetter Changing Compatible Assistant Multicolor</t>
+          <t>DJI FPV Combo First Person Transmission</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Not very smart bulbs
+The Drone Disconnected midflight
 </t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve">These lights refuse to work with the app. They worked well for me for about a month. Then the Tuya app got an update and the iOS 16 rolled out and s*** hit the fan; they disconnect daily and refuse to work. I am beyond angry and have been waiting for an update from this app for over a month now as all the lights in my home and barn are now useless! If they don’t come up with a fix for this, I want a full refund of all my bulbs purchased from this company. I even bought a robot vacuum that works off this app and that too disconnects every day and won’t work. I have a brand new iPhone 14 ProMax with everything always up to date. I promise it isn’t my internet either, that’s been tested as well. Be VERY careful purchasing this brand b cause the app that is REQUIRED in order for them to function, is awful! Zero support for it either. Absolutely absurd that all my house lights won’t work now. 😡
+          <t xml:space="preserve">This was the first result when I searched for "drone with VR headset", the product image has a device which looks like a VR headset, it features a gimballed camera, and is advertised as a "First Person View" drone.Based on all these factors, one would quite reasonably assume that the headset tracks your head movements and moves the gimballed camera to allow you to look around.However, the headset is not a VR headset, it's basically a regular screen only it's attached to your face. There is no head tracking, and the gimbal on the drone only moves up and down. The experience is no different than any other drone with a camera on it.Apparently, "First Person View" means that the drone has a camera on it. You know, just like every other drone on the market.
 </t>
         </is>
       </c>
@@ -1884,19 +1876,19 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Daybetter Changing Compatible Assistant Multicolor</t>
+          <t>DJI FPV Combo First Person Transmission</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Never stays connected
+It did not come with a box...?
 </t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">These bulbs have all kinds of problems. The colors do not coordinate with Google home app, and the Google home app can't find the bulbs half the time . even their app can't turn off more than a couple of the bulbs at once, so you're always left with one or two that you have to turn off or on manually. They will get out of sync with the app and stop working entirely. I would not recommend buying these bulbs, they're super pain in the butt to use. I've used other bulbs that were much more reliable and work every time I needed to turn them on or off. These bulbs will stop working in a few weeks.
+          <t xml:space="preserve">I own about 20 drones and THIS is a FIRST!!!Batteries charged, everything Linked, go to Fly App to Activate and THIS ABOVE pops up!!!Very NOT COOL!DJI has been contacted and can't find that serial number in their Data Base!!!!!I will NEVER purchase again from you, nor do I recommend any one else!!
 </t>
         </is>
       </c>
@@ -1904,21 +1896,19 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Daybetter Changing Compatible Assistant Multicolor</t>
+          <t>DJI FPV Combo First Person Transmission</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Use to LOVE but App has gone haywire and fails to work now!
+This is **NOT** a VR drone!
 </t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                    The media could not be loaded.
- First week I got these lights they stayed stored on the app so after every use it’ll easily connect to the bulbs but for some reason after that period they never stay stored on the app and it has to be connected to Wi-Fi EVERY single time you turn them on. So you sit there while the bulbs just flash nonstop because when you do try to connect them they fail midway. These are trash I should have bought the kind with the controller because this is a waste of time to set up for every use… I really wish I didn’t buy them. Now on the rare occasion you do get to properly use your lights the natural/color choices are very bright and you can even dim them.
+          <t xml:space="preserve">Had some issues initially getting it activated via the DJI Fly app, but finally got it resolved.  Be sure you plug the short OTG cable into the goggles, then the long USB cable into your phone.  Do not reverse this order.Had my first flight today and it went as smooth as can be.  Very much like my Mavic2Pro but the goggles take it to a whole other dimension.I would not recommend this for those interesting in racing, but it is great for an immersive FPV experience and phenomenal video.  Now I just got to buy my Fly More Package for the two extra batteries.I am giving it an overall one star because the goggles need to be rebound when you switch goggles between drone usage and DJI air unit for my fixed wing planes.  This is just very poor software design.  Also switching between the two modes is very clunky and inconsistent.
 </t>
         </is>
       </c>
@@ -1926,19 +1916,19 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Daybetter Changing Compatible Assistant Multicolor</t>
+          <t>DJI FPV Combo First Person Transmission</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
           <t xml:space="preserve">
-These bulbs do not work consistently
+Avoid seller, selling activated drones
 </t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">These are by far the worst wifi enabled lights ever. They disconnect three to four times a week. Forcing you to reconnect and shift over to the alexa app. to connect again. Sorry but can't say anything good about these. I purchased an 8 pack which makes it that a rave party in my house multiple times a week.
+          <t xml:space="preserve">Just unboxed for the first time, connected batteries to charge as directed and after waiting a day, could not power on the drone; confronted with four flasjing lights on the battery, and after calling the company am told i have to ship back the entire package to their repair facility for diagnosis - a complete and utter hassle and frustrating beyond belief as in all liliehood, i am going to recive back not brand new parts, but a refurbished drone/peices that could have been had second and from ebay.  I am outside the return window for Amazon otherwise i would return directly to Amazon.  DOA QA indicates a company shipping substandard parts to get revenue, be wary.
 </t>
         </is>
       </c>
@@ -1946,17 +1936,19 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Amazon Basics Smart Light Changing</t>
+          <t>DJI FPV Combo First Person Transmission</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Love</t>
+          <t xml:space="preserve">
+Love this Drone but not goggles
+</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve">I bought this awful light on 8 Jan 2023. It hasn't worked as a smart bulb in weeks. It's just a dumb light now. Keeps giving me error code -1:-1:-1:-1. And yes I've reset it 100 times, doesn't work. I tried everything that was suggested, because it pains me to write a review like this.
+          <t xml:space="preserve">After about 5 hours of going through manuals, scouring you tube, and trying to get some kind of customer support I was able to update the googles and the controller. However, the quad just flat out refused to have its firm ware updated.This is typical, I have found of DJI: Excellent hardware, poor software, and even worse customer support. I bought this after flying a friends and it looks like a lot of fun -- its just too poorly supported to be of any use to anyone who is not willing to spend weeks getting it setup and willing to through multiple purchase / return / try again cycles.
 </t>
         </is>
       </c>
@@ -1964,17 +1956,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Amazon Basics Smart Light Changing</t>
+          <t>NATIONAL GEOGRAPHIC Earth Science Kit</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Only 3 out of 4 worked</t>
+          <t>Great gift for five year old</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Very dim bulb even at the brightest setting.  Ended up giving it to my son and now every time I walk in his room I just want to put his regular bulb back in.
+          <t xml:space="preserve">None of the so called "experiments" worked as they are supposed to, I would have been better off buying slime and paints from the craft store, that would have been way more educational and fun for my grandson.  This kit made him "cry" because it did not do the "cool things" it was supposed to.
 </t>
         </is>
       </c>
@@ -1982,19 +1974,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Amazon Basics Smart Light Changing</t>
+          <t>NATIONAL GEOGRAPHIC Earth Science Kit</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Terrible
-</t>
+          <t>Battery experiment did not work</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">It's not working on 5. I don't no how to change it to 2.4 there was no bar code I need one to scan it
+          <t xml:space="preserve">This item is a complete waste of 30 dollars.  It says 15+ activities, but they're counting the rocks as an activity. The only reason I give this one star is because of the digging activity, it was pretty fun but still a waste of my money. You can just get some food coloring, baking soda, and vinegar for the volcano activity, for basically nothing. I am very salty about how much I wasted, there are so many cheaper, better kits. Don't waste your money.
 </t>
         </is>
       </c>
@@ -2002,19 +1992,19 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Amazon Basics Smart Light Changing</t>
+          <t>NATIONAL GEOGRAPHIC Earth Science Kit</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Very dim
+The kit is useless
 </t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve">I intended to use this for my front porch bulb so o could control when I wasn’t home &amp; so I could change colors seasonally for fun. But instructions say indoor only. Sad day.
+          <t xml:space="preserve">The kit is a mess. The box says “15 activities”, but the kit enables less than half of those. There is a random “learning guide” that explains a couple of the experiments and separate 1 sheet project guides that explain 4 of the activities. Definitely not worth the money or the National Geographic name.
 </t>
         </is>
       </c>
@@ -2022,19 +2012,19 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Amazon Basics Smart Light Changing</t>
+          <t>NATIONAL GEOGRAPHIC Earth Science Kit</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smart lights
+False advertising. Please save your money
 </t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ordered 4 plus 2 Alexa’s and it won’t connect via we code or by turning it on and off a million times to get it to flash (never flashes) useless product wouldn’t recommend even trying to getting wireless lights like these bc out of the 6 brands I’ve tried and abt 20 lights I’ve only been able to get 3 working and connect, just barely tho as sometimes they disconnect and won’t reconnect.
+          <t xml:space="preserve">the only cool thing that came out of this was the tiny rock collection, and even that was incomplete. The crystal didn't grow, even though I checked multiple sources to make sure it was done correctly, and the volcano was anticlimactic. The excavating was hard and my daughter lost interest since it was so hard to dig into the molds. And no, it does not include all of these other 15 experiments to do, like it advertises. Waste overall
 </t>
         </is>
       </c>
@@ -2042,19 +2032,19 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Amazon Basics Smart Light Changing</t>
+          <t>NATIONAL GEOGRAPHIC Earth Science Kit</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Indoor product only
+More of a junk box than science kit
 </t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Batalle muchísimo para conectarlo viendo videos moviéndole al módem del internet y porfin pude pero ahora apago el foco un rato y le pido Alexa que lo encienda y no puede el foco no responde tengo que ir a prenderlo yo manualmente y esperar que Alexa lo reconozca y pueda cambiar el color y así
+          <t xml:space="preserve">The volcano is very cheap red plastic…. Barely snaps together and ONLY 4-5 inches tall ! NOT worth the money, and the tiny rocks are 1/2 “ long or smaller. Very disappointed in this set, will return it for a larger volcano for my preschooler.
 </t>
         </is>
       </c>
@@ -2062,19 +2052,19 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Amazon Basics Smart Light Changing</t>
+          <t>NATIONAL GEOGRAPHIC Earth Science Kit</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Won’t connect
+Honestly pretty wack
 </t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">It worked for a few days but stopped responding tonight. I didn’t think to save the instructions for a light bulb, so I had to try to scan the code on the base of the bulb — but the app couldn’t read or recognize it. I tried to follow the alternate instructions several times, even counting out loud as I flipped the switch but it never reconnected. I see most of the complaints like this are fairly recent. Maybe I got one of a bad batch.
+          <t xml:space="preserve">Might be cool if everything was in there.  The description never mentioned anything missing and yet, this is how it arrived.  My son couldn’t wait to try the magnetic slime but was missing... the sculpting pink sand is obviously damaged  would’ve been better off just purchasing Moon sand from target.  I’m returning
 </t>
         </is>
       </c>
@@ -2082,19 +2072,19 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Amazon Basics Smart Light Changing</t>
+          <t>NATIONAL GEOGRAPHIC Earth Science Kit</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Malo
+The volcano is less than 5” tall
 </t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve">First off, we love Alexa and have and love many Amazon products, but this is not one of them. This light connected, but once it disconnected I could not get it connected again. After contacting Amazon they refunded my money, which I appreciate, but I really just wanted a working lightbulb.
+          <t xml:space="preserve">Bought the kit brand new and was missing the rose quartz and the pyrite. Super disappointed We can't return or exchange since we are past 30 days. Next time I will just make it purchase like this in store.
 </t>
         </is>
       </c>
@@ -2102,19 +2092,19 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Amazon Basics Smart Light Changing</t>
+          <t>NATIONAL GEOGRAPHIC Earth Science Kit</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Can’t reconnect
+Missing items and completely inaccurate description
 </t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve">After a couple weeks the bulb quit responding. I tried several times to get it into pairing mode and it will not do it. Now it's just a regular bulb.
+          <t xml:space="preserve">Ordered for Christmas. My son and I spent a bit of time working through the gold block (dust). Made a mess and there was NOTHING in there. Thus far..I am very unhappy with this product. Have ordered from them in the past and they are normally great. However..this particular package is nowhere near worth the money. $40 spent on one tiny gemstone and a couple of rocks.
 </t>
         </is>
       </c>
@@ -2122,19 +2112,19 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Amazon Basics Smart Light Changing</t>
+          <t>NATIONAL GEOGRAPHIC Earth Science Kit</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It was great when it worked, but that was only for a week
+Missing items
 </t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve">I got one of these *Amazon* bulbs to use with *Amazon* Alexa... It detects easy in the app. Great! Then instantly goes to "device unresponsive". Can't interact with it through the app, can't speak commands. It becomes a dumb bulb that can't be controlled and nothing can be adjusted. Factory reset and start over has the same result every time. Support said it's a defective bulb, but the replacement does the same thing. Don't buy this!
+          <t xml:space="preserve">My kids were so excited about this.  So far we have down two experiments and neither have worked properly. The crystals didn’t come out the way the instructions said.  The volcano instructions give you a video to watch that shows everything but the volcano. As we were mixing the mold for the volcano it went from wet to completely hard and the project is now ruined.
 </t>
         </is>
       </c>
@@ -2142,17 +2132,19 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>GE Lighting Bluetooth Replacement Without</t>
+          <t>NATIONAL GEOGRAPHIC Earth Science Kit</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Great Lamps and App</t>
+          <t xml:space="preserve">
+Order if you want to upset your kids
+</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve">I rarely take the time to write reviews. I've writing this one because I am completely irritated at these bulbs.I've had had mine for over a month now and have built some knowledge and experience with them. When I made the first order (2 bulbs), I was impressed for the first week, so I ordered more. They didn't work with Cync, but using Alexa was fine. Now I have 10 of them.First off, I am very technically inclined; therefore, I understand installations and can work with the technology. When I say the installation of their software (Cync) does not work; I guarantee you it does not work. It could be an Android versioning problem (I doubt it), but Cync does not work as it should. Cync won't connect to any of them from my phone and never has. Following the directions don't work.It does connect with Alexa (on my phone) and my echo dots (again, Alexa). Alexa, initially, finds them without any problems. The problem is they won't stay connected.  I have to open Alexa from my phone, wait 20 minutes, and eventually some of them "might" reconnect and respond. Those that don't, remain unresponsive and uncontrollable. On many occasions, none of them respond. If the brightness or color is adjusted, they will power up with the same configuration as when they were shut down. Leaving them powered up makes no difference. If you want to change the configuration, it's not happening. There is no connection. An hour ago, some were working and now they aren't. Later, others may or may not work.I've gone through the resetting process several times. I've removed and reconnected them. No matter what I do, they remain completely unreliable. The only thing I can count on is the ability to turn them on or off with the light switch. Otherwise, they are nearly useless for anything other than a normal LED bulb.
+          <t xml:space="preserve">My son has been wanting this for a long time so I finally got it for him for Christmas and he can't even play with it. As soon as he opened it white powder fell all over him and my 2 year old daughter... very dangerous as she thought it was candy! The white powder had busted everywhere and all over everything!
 </t>
         </is>
       </c>
@@ -2160,17 +2152,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>GE Lighting Bluetooth Replacement Without</t>
+          <t>ENERGIZELAB LAB Eilik Intelligence Interactions</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>The lights work fine, but the Cync app is not user friendly</t>
+          <t>Such a cute desk pet</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve">just trying to help folks out...I made the mistake of buying simply thinking GE has been around forever..right?  BIG,BIG mistake!! these are absolutely HORRIBLE  to use that unless you enjoy having to CONSTANTLY  mess between apps alexa/ cync by GE they say they are bluetooth AND wifi...they are not trust me and I am not a dummy who doesn't know how to use these types of things I have plenty smart things around the house that work as they are advertised and should and when products live up to how the manufacturer/seller advertised I will be the first to leave a good review...these bulbs however (I own 4) just became expensive regular LED bulbs because I spent to much time fiddling with them and passed my return window.  just leaving an honest review with the hopes it may help my fellow consumers...and oh yeah...SHAME ON YOU GE!!! ya'll used to produce quality products I reckon increasing the profits got in the way of quality..???
+          <t xml:space="preserve">Do yourselves a favor and don't buy this.  They tell you to charge it then update the firmware which bricks at 99.8 percent with 5 seconds left.  You have to use a paperclip to reset it by making contact with the two leads then it formats the card then takes 6 to 10 HOURS to update where it hangs at the same place.  I'm going to get my money back and buy that EMO unit from Living AI.  With the cost of this piece of junk you're already half way there.  Its so dumb that you have to put his much effort into getting something to work.  Also I reached out to support and they didn't reply. Just told me their email was invalid.  I STRONGLY urge Amazon to remove this seller from their list.  Not worth the time, the energy or the money.  Also, most things get updated via phone app nowadays. Not via connection to a computer where they have a program for Mac that tells you you should be using windows only windows does the exact same thing and bricks at 99.8 percent.  Buy at your own risk folks and also, just charge it up and don't update it WHATEVER YOU DO.  You'll render it useless.  Make sure you skip step 2 of the instructions if you want to buy this thing.  Generally when you build hardware you have reliable software to support it.
 </t>
         </is>
       </c>
@@ -2178,19 +2170,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>GE Lighting Bluetooth Replacement Without</t>
+          <t>ENERGIZELAB LAB Eilik Intelligence Interactions</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Does not work as expected
-</t>
+          <t>Its a repetitive 30$ kids toy</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">There's a reason why it's a cheaper product and the reason is that it doesn't work. You need to Download the APP Nanoleaf to control the lights and if you go now to the Play Store and look up for the APP and scroll down for the comments you will understand what I'm talking about it. Most reviews are one star following from a complaing that the lights don't work, are constantly getting disconnect and the APP froze or stop answered so many times that you regret dearly from buy those lights, you try to make your life simple and end up more stressful and frustrated with those malfunction products. Awful 😖
+          <t xml:space="preserve">I received mine yesterday brand new and within a few hours he quit working one min he was happy as can be then he shutoff and didn’t work then when I followed the proper process to format the memory card I downloaded the software and it ended up glitching his system and won’t even let me go into settings at all then format came up 2 more times later the same night updated another 2 times to try and fix it still don’t work unplugged and when he’s plugged in he looks like he’s working but you can’t even browse any of the settings or nothing he seems to glitch in and out sometimes.
 </t>
         </is>
       </c>
@@ -2198,19 +2188,19 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>GE Lighting Bluetooth Replacement Without</t>
+          <t>ENERGIZELAB LAB Eilik Intelligence Interactions</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
           <t xml:space="preserve">
-DO NOT BY THESE BULBS!!
+THIS IS A PIECE OF JUNK
 </t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve">I expected more from a well known company like GE. These lights worked fine for a few weeks, but since then they have been a nightmare. They constantly lose synchronization. I'll send a command, and 90% of the time the device will not respond.I tried resetting the devices, which has been a nightmare.Looking around, it seems like people have had these issues for years. DO NOT BUY.
+          <t xml:space="preserve">Software loads to 99.8% when trying to reload system files to Eilik and never goes any higher. Even after performing the manufacturers recommended reformat and reinstall all I get on Eilik's screen is: "missing firmware connect usb to update". Well, as a tech I have performed the procedure properly several times and all to NO avail. This is not a quality product or is it well designed. You have to short 2 on the side of the unit pins together and hold it while a 2nd person inserts the cable to even get the "format SSD" option. This could have been much better designed!
 </t>
         </is>
       </c>
@@ -2218,19 +2208,19 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>GE Lighting Bluetooth Replacement Without</t>
+          <t>ENERGIZELAB LAB Eilik Intelligence Interactions</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I wouldn't buy if I was you, because it doesn't work
+Disappointment
 </t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve">TL;DR --- I am super disappointed in this product and will be requesting a return to Amazon.I bought these on sale from the treasure truck notification. I was excited upon receipt and thought the instructions out of the box would be intuitive, especially because I selected to have them connected to my Alexa account prior to shipping. 1) I plugged in the bulbs and asked Alexa to discover, per instructions, and she couldn't find them. 2) I went back to create a Cync account to install them manually and then connect them to Alexa. After multiple attempts to connect and being told "could not locate" I came to amazon to reread the reviews. 3.) After reading a review from a customer on how to reset, I went through this procedure (8 seconds on, 2 secs off, repeat 4 or 5 times until light blinks) multiple times before the Cync app finally recognized them. After setting them up and getting them on WiFi, I was easily able to connect to the Alexa app. 4) I went back to the Cync app to change the colors of the lights and now the app is only recognizing 1 of the 2 lights. After multiple attempts to reset I had given up on light #1. 5) While attempting to manipulate the color for light number 2, I noticed that the light bulb was not very bright at all, which is not helpful.
+          <t xml:space="preserve">its something cute for your desk.. i bought 2... 1 came earlier then the other... the infrared doesn't work.. so it is not crying when it is lifted.. im going to return both... its cute... its fun for 2 hrs... but thats all
 </t>
         </is>
       </c>
@@ -2238,19 +2228,19 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>GE Lighting Bluetooth Replacement Without</t>
+          <t>ENERGIZELAB LAB Eilik Intelligence Interactions</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
           <t xml:space="preserve">
-The worst smart device experience I've had
+Fraught with Bad software and buggy programming!
 </t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Do not buy any of this line of products. The items themselves seem ok but you can’t use them because the app that runs them is so completely terrible. It’s janky and poorly designed. I saw others say the same but it looked visually appealing so I thought maybe it had been updated- surely a bug name like GE would be able to do something so simple. No. Wrong. Example- if you have 2 lamps in a room the app will group them, and there is no way to run just one- it’s the room or nothing. Another example- frequently the app is unresponsive, everything appears normal on the screen but the lights don’t come on. I have to close out and relaunch the app 2-3 times to finally get it working. Another- the power went out in a storm for a few hours and ever since one bulb will not pair with the app. And the worst part- I had off brand bulbs from Amazon for awhile, if my phone wasn’t handy, I could still turn a light on at the switch by cycling it off then on again. These you can’t do that- so when you get home at night and the app doesn’t work there’s literally no way to get a light on which is practically dangerous in a room with no other lights.TLDR- save your money these are garbage
+          <t xml:space="preserve">Eilik is not working—he does not move his arms or talk. Will have to send back and hopefully get a new one.
 </t>
         </is>
       </c>
@@ -2258,19 +2248,19 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>GE Lighting Bluetooth Replacement Without</t>
+          <t>ENERGIZELAB LAB Eilik Intelligence Interactions</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Not easy to install/connect, doesn't stay connected, not bright
+its a show off toy...
 </t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tried to save some money and are paying in frustration! They work when they want to and you curse them the rest of the time. We’ve had them for just long enough to not be returnable (so maybe over a month). The first set worked so I bought two more. What. A. Mistake. They are rarely ever capable of connecting to the wifi/app. We even bought a second extender to ensure the whole house isn’t relying on the same one. They have their own network and still can’t remain consistent. My wife has even more trouble since she’s always a “guest” user. The functions and options are fine when they’re on but again, if it doesn’t connect well, it doesn’t matter. You can’t dim or color change what’s not on. We’re going to Phillips Hue.
+          <t xml:space="preserve">THIS ROBOT IS COOL BUT THE PROBLEM IS RESETTING THIS ROBOT IS A PAIN AND DANGEROUS I FAIL TO RESET IT BECAUSE IT NEED TO UPDATE I TRY EVERYTHING TO RESET THIS BAD BOY but nothing work I use a safety pin, toothpick, ejection pin and needle… I wanna give this 5 stars but sorry I couldn’t due to a dangerous process… &gt;:(
 </t>
         </is>
       </c>
@@ -2278,19 +2268,19 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>GE Lighting Bluetooth Replacement Without</t>
+          <t>ENERGIZELAB LAB Eilik Intelligence Interactions</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Do not buy. App is nonfunctional
+Does not work properly
 </t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Google home setup is apparently seamless but I've not been able to get it to work without first setting up in the Cync app. Brightness control doesn't seem to work in the Google home app and is  kinda wonky. I've been unable to get the second light in the pack to sync and be seen by my phone with the Cync app. I guess I'll give it another go tomorrow. Voice control via Google home assistant works as expected. This is the first set of smart lights I've used with my Google home.UPDATE: I've done everything in an attempt to get the second light to sync. Nothing I've tried has worked making the second bulb a simple overpaid white bulb. I am convinced the bulbs Bluetooth has failed. The light that did get synced will not hold a wifi connection even with wireless access point 8 feet away. Because of this Google home app always sees it as offline until I open the Cync app. Once Cync app opens it shows offline then refreshes and becomes online. I am very disappointed with these lights and would not recommend them. The actual light put out is nice but without control via the Cync app and the issues with Google home I dropped this to one star.
+          <t xml:space="preserve">Eirik was purchased as a Christmas present. My daughter absolutely loved interacting with it. On day 3, the Eilik suddenly began to behave strangely, just before showing multiple error messages. We were not able to "reset" the device according to it's directions.
 </t>
         </is>
       </c>
@@ -2298,19 +2288,19 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>GE Lighting Bluetooth Replacement Without</t>
+          <t>ENERGIZELAB LAB Eilik Intelligence Interactions</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Good luck keeping them connected!
+CUTE ROBOT BUT DANGEROUS INSTRUCTIONS
 </t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve">nearly 1 hour call with customer support to get 1/4 up and running.  Can't get another one to link to app.  Won't hold their set schedule.  Don't respond appropriately to dusk / dawn.  Randomly comes on mid day.  These lights have a mind of their own.  Wouldn't buy again.
+          <t xml:space="preserve">We love the one we got but I ordered two and have no way of contacting the seller regarding the missing one. I'm hoping they will respond to this review....
 </t>
         </is>
       </c>
@@ -2318,19 +2308,19 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>GE Lighting Bluetooth Replacement Without</t>
+          <t>ENERGIZELAB LAB Eilik Intelligence Interactions</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Expected better but it works
+Stopped working in less than a week
 </t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve">I saw all the good reviews so I went ahead and ordered it… was very disappointed as I wanted bulbs that I could turn on over Wi-Fi  Was very annoyed by trying to connect it to my phone didn’t work for me
+          <t xml:space="preserve">Item didn't work. It was a Christmas present that ultimately ruined Christmas.  Custer support coulnt not span english and provided no solutions.
 </t>
         </is>
       </c>
@@ -2338,17 +2328,19 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Kasa Smart Light Dimmable TP Link</t>
+          <t>ENERGIZELAB LAB Eilik Intelligence Interactions</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Mixed Feelings</t>
+          <t xml:space="preserve">
+If I'd received the 2nd of the 2 I ordered....
+</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve">I really wanted these bulbs to work as I already have a Kasa bulb in one of my lamps. The other Kasa bulb (it’s a two light lamp) died (oddly as I thought they were supposed to have a long life). I tried each one of these that came in the box of four and at the point it is supposed to connect with the app, it gives an error that it cannot connect with the wi-fi. All my efforts to troubleshoot were a waste of time. The online support simply gives the same instructions as the app, and if there is an issue - to reset it by turning it on and off several times, or checking my wi-fi signal. Well, I did all of those steps and it still didn’t work. I tried every bulb in the box at different locations - same. It’s super hard to tell what kind of bulb it is (model) because it’s written very small in faint color directly on the bulb stem and not in the box. It’s also not easy to tell what version it is as well. I got the same message each time no matter what I tried, and could not find any help other than the standard set up directions. Perhaps there is an issue in set up if there’s different wi-fi bands from the router, but nothing in their instructions states that and most people wouldn’t know how to disable a band so I gave up. I went out to Best Buy and got GE Cync bulbs, and the setup was super easy, and it connected right away. I’m giving this one a low rating because of the lack of customer support and lack of information online to help troubleshoot when set-up doesn’t work. Why was it so easy with the GE bulb and not with these?
+          <t xml:space="preserve">Was super excited to get this anew, but the product that came was used (hand prints, no charger, box with broken seal) and I soon found out why previous owner may have returned it: Eilik did not function without being continuously charged despite instruction manual stating it should only be charged 1-2 hours/day. Once unplugged, all turned off. Returned. Done &amp; Dusted. Do not plan to get this anytime soon.
 </t>
         </is>
       </c>
@@ -2356,17 +2348,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Kasa Smart Light Dimmable TP Link</t>
+          <t>Large Control Birthday Present Christmas</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Need new firmware to work on larger networks as of 2021-09</t>
+          <t>Cute Robot</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve">I recently purchased a smart lamp and was initially excited about its features and convenience. However, my excitement quickly turned into frustration as the lamp stopped connecting to WiFi after just 5 days of use.The setup process was relatively easy, and I was able to connect the lamp to my home WiFi network without any issues. The lamp's smart features, such as adjusting the brightness and color temperature with a smartphone app, worked well for the first few days, and I was impressed with the convenience it provided.However, after just 5 days, the smart lamp stopped connecting to WiFi altogether. I tried resetting the lamp, restarting my router, and reinstalling the app, but nothing worked. The lamp remained unresponsive and unable to connect to the internet.
+          <t xml:space="preserve">Little to no instructions. Can't make out the words it speaks. The cones it comes with are mis-shaped.If anyone knows how to program this, I'd love to hear..So far it only lights up.If we can't get this to do something, we'll be sending it back for a refund.Also, it took 2 weeks to arrive after ordering.. I watched the updates after ordering it and they finally shipped it 2 days ago.. very very slow at distributing shipments...Very upset that once shipped we received it in 2days...My son (5 years old) has been waiting 2 weeks for this 😞
 </t>
         </is>
       </c>
@@ -2374,19 +2366,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Kasa Smart Light Dimmable TP Link</t>
+          <t>NATIONAL GEOGRAPHIC Earth Science Kit</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Never got them to work
-</t>
+          <t>Great gift for five year old</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve">I bought these because my Kasa smart plugs were great. However, these bulbs are not great. They are completely flawed on software and hardware.The bulbs will randomly stop working requring a reset and pair every week or so which is a cumbersome process as sometimes doesn't work too.I have a non smart wall light switch and believe it or not when you turn on the lights manually these bulbs don't even work for that. most of the time 4 out of 7 bulbs would light up at random  while the remaining stays off. Never seem such a thing while using a manual light switch.They also randomly unpair themselves and frequently cannot be controlled by google home due to "an error" where Google will just be able to shut off 2 out of 7 lights not being helpful at all.Overall these bulbs suck. Cherry on the cake is that their app allows you to do set up 50 automations but you can just activate 3 at once, which means if you have 7 bulbs like me and want them to turn off automatically you can't because their software is stupid and will allow you to just do this to 3 of the bulbs due to that limitation.Their support is quick to respond but not helpful as they ask the same questions over and over without providing any help. They did offer to schedule a call to investigate but if you work all day like me you won't have time to talk to anyone due to their time frame.
+          <t xml:space="preserve">This is a disappointment. It says 15+ activities but what I got only shows 3.1. A tornado experiment.2.  A volcano experiment.3. A Crystal growing experiment.For the money paid that’s honestly insanely BAD.I also thought I would be digging multiple specimens. The 10+ specimens. Unfortunately there is 2. 2! There are 10 specimens and nothing to do with them except read which isn’t even like kid friendly. MEGA what. MEGA TRASH. this is not what I expected and is NOT for homeschooling and NOT WORTH THE MONEY.
 </t>
         </is>
       </c>
@@ -2394,19 +2384,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Kasa Smart Light Dimmable TP Link</t>
+          <t>NATIONAL GEOGRAPHIC Earth Science Kit</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-WiFi Connectivity Failed: Disappointing Experience with Smart Lamp
-</t>
+          <t>Battery experiment did not work</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t xml:space="preserve">I purchased these bulbs along with Kasa smart plugs. I have Unifi access points, three to be exact. The same SSID name for its devices is used across all three access points. The Kasa smart plugs and other IoT devices have no problem with this and work very well. The bulbs on the other hand, are a different story. They will not stay connected to WiFi. While this may not impact most users, those that have a fairly large home with multiple access points; get ready for constant disconnects and Alex/Google/Kasa App to report the bulbs are offline or not responding.I reached out to Kasa technical support and after 2.5 hours they finally agreed to open a ticket and escalate it to the engineering department.  A few days later I received a request to provide packet captures from within my network.  I promptly provided them, but they were not detailed enough, according to the Kasa engineer.  I then provided packet captures directly from one access point four bulbs were connected to and again Kasa stated it wasn't detailed enough.  Their solution, I need an Apple MacBook to get the detailed captures they need to proceed.Satisfied Resolution: At this point I had been going back and forth with Kasa support for roughly two weeks.  I ended up broadcasting one SSID for these bulbs and increasing the transmit power on the specific access point to cover the areas where these bulbs are installed.  This is not ideal, but it allows me to keep the bulbs and smart plugs under one app.  I will point out that $7.99 Philips WiFi bulbs that I purchased as a test did not perform like this and had no problem joining and staying connected to my network for three days.
+          <t xml:space="preserve">This item appears to have been a return and they put it in a plastic bag and sold it to me! It was suppose to be a gift but it won't work due to it being a real mess! Very disappointing!
 </t>
         </is>
       </c>
@@ -2414,19 +2402,19 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Kasa Smart Light Dimmable TP Link</t>
+          <t>NATIONAL GEOGRAPHIC Earth Science Kit</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Finicky at best
+3 experiments NOT 15 pathetic. WASTE OF MONEY
 </t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve">I had a lot of trouble setting them up - couldn't connect them to wi-fi. When asked for help - the company questions my wi-fi but the one light in the basement far away from the router worked (for a while at least) but the one 4 feet away from the router wouldn't work. That does not sound like a problem with my wi-fi. Finally got them both set up (after trying multiple times on multiple light fixtures) and now they either don't follow the schedule I set them on or you can't even access them to change the schedule. Now one of them is on all the time and I can't get it to turn off. Whenever I turn it off it comes right back on again. I probably have to delete it and re-add but I'm afraid to do that since it barely works to add them. They are crap, don't buy them.
+          <t xml:space="preserve">I was really excited for this. Too bad. The box arrived unsealed. Inside it was all just a bunch of stuff tossed in haphazardly. Took us several minutes to figure out what was what and that a piece was missing. Also, the instruction booklets weren't geared to agree 8 and up.
 </t>
         </is>
       </c>
@@ -2434,19 +2422,19 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Kasa Smart Light Dimmable TP Link</t>
+          <t>NATIONAL GEOGRAPHIC Earth Science Kit</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Network Engineer Here...
+Damaged box not giftable
 </t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve">After I finally received the bulb, delay because Amazon driver left package at the wrong place it was not worth the wait nor money bulb connected easy but it has a very  yellow gold tone  not what I was expecting or looking for. Thought it was more daylight  instead of gold light, as far as longevity I don't know about this one but the kasa bulbs I bought in the past lasted about 2 or 3 years guess it depends on the usage.
+          <t xml:space="preserve">Claims to come with 15 experiments and it most certainly does not. Comes with a few rocks, volcano experiment and a growing crystal. Skip it and get a different Nat Geo experiment kit.
 </t>
         </is>
       </c>
@@ -2454,19 +2442,19 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Kasa Smart Light Dimmable TP Link</t>
+          <t>NATIONAL GEOGRAPHIC Earth Science Kit</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
           <t xml:space="preserve">
-These lights suck &amp; I wish I would've returned as soon as I had problems setting them up.
+Open box, missing piece, very confusing.
 </t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alexa will not discover this device, even with the Kasa installed and working fine to control the bulb, and even with the TP-Link Kasa skill enabled. I have tried many times and have reset the bulb twice (by turning it off and one five times in a row). The Alexa app for my Android phone insisted that I update it before I could use it to "discover" my bulb. That may be the problem, because the new Alexa app has a "TP-Link Kasa" skill rather than the "Kasa Smart" skill that the bulb directions list. Possibly the required skill got lost or broken with the update. Whatever the reason, the bulb is useless, even after waiting a week to see if the problem got fixed, and I'm returning it.
+          <t xml:space="preserve">This packaging is not suitable to give as a gift. The science kit arrived in a plain cardboard box. Not in the colorful National Geographic box. I am very disappointed.
 </t>
         </is>
       </c>
@@ -2474,19 +2462,19 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Kasa Smart Light Dimmable TP Link</t>
+          <t>NATIONAL GEOGRAPHIC Earth Science Kit</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Don't like the yellow tone
+It’s a dud
 </t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve">When I purchased this I thought it would be like my other smart bulbs, but it requires a seperate app from Alexa and also got rather hot at the base of the bulb.The bulb its self didn't get hot, the base did. Hot enough it was uncomfortable to touch and it was clear I shouldn't use it again.
+          <t xml:space="preserve">The box came in unsealed and upon checking, the pack that contains paint, paintbrush, magnifying lens is missing. Now we cannot color the volcano. What a disappointment!
 </t>
         </is>
       </c>
@@ -2494,19 +2482,19 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Kasa Smart Light Dimmable TP Link</t>
+          <t>NATIONAL GEOGRAPHIC Earth Science Kit</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Not Working with Alexa
+Disappointed
 </t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve">This bulb was a pain to set up and, in the end, my Echo devices couldn’t even discover it. I recommend Phillips Hue. The bulbs are about $3 more expensive per bulb than these, but they do last long and don’t require a separate app to set them up. Also, my Echo devices have never had any issues discovering them.
+          <t xml:space="preserve">Cute BUT our box had two missing rocks and the rocks that were in the gold bar were duplicated. My 6 year old was disappointed.
 </t>
         </is>
       </c>
@@ -2514,19 +2502,19 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Kasa Smart Light Dimmable TP Link</t>
+          <t>NATIONAL GEOGRAPHIC Earth Science Kit</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
           <t xml:space="preserve">
-The base got really hot
+Missing Items
 </t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve">I love Kasa products. I have smart switches installed throughout home, a Kasa camera for my dog, and plug-ins throughout. This lightbulb worked for a couple days then disconnected and did that over and over again until I got annoyed and let it be a regular bulb. The one I bought from Best Buy did the same exact thing so it wasn't just a faulty bulb.
+          <t xml:space="preserve">Item did not work like the directions say toy did not work properlyThere was an order for two toys that did not work properly that was not worth the money spent and I requested a refund on both Toys that was sent out together in one box and I see that there’s only one refund When I sent them both back at the same time requesting a refund I will call my bank once again today and find out how you are refund my money because I have pictures stating that may turn them back in to you all
 </t>
         </is>
       </c>
@@ -2534,17 +2522,19 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Smart Ceiling Light Fixture 12Inch</t>
+          <t>NATIONAL GEOGRAPHIC Earth Science Kit</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>amazing product</t>
+          <t xml:space="preserve">
+Missing pieces.
+</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t xml:space="preserve">This device is not suitable for home purchases. It overheats and causes itself to become unhinged from positions to fall out of place. After trying to reattach into position, it will not maintain itself due to warping the heavy plastic center piece needed to screw flush against the ceiling. This is the second device I have received after returning due to the same problem. Using the rbg lighting option is mostly what causes this particular issue. It only works with the brightening option of whitening the room. The color option causes it to fall. I can not recommend this for anyone. Looking to purchase a different brand and style all together. DO NOT BUY THIS!
+          <t xml:space="preserve">This is just horrible! I've tried contacting Amazon &amp; Nat. Geographic about this kit and I'm getting nowhere. It only came with 3 rocks and all of the same, no instruction pamphlet, the gold bar literally just turns into a puddle of muddy goop with NO treasure inside, didn't come with both sides to make volcano. Just a very disappointing purchase! I hope if you buy this kit, you get it all intact! I don't even know what age to give. My granddaughter is 9 and was truly not intetested!
 </t>
         </is>
       </c>
@@ -2552,17 +2542,19 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Smart Ceiling Light Fixture 12Inch</t>
+          <t>NATIONAL GEOGRAPHIC Earth Science Kit</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Doesn’t do multi color all at once no remote</t>
+          <t xml:space="preserve">
+Requested a refund
+</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve">These seemed to be great for my kids rooms but after a short time the mount ring in my son's room wrapped causing the light to fall from the ceiling, luckily the cord didn't come undone but the light was extremely hot and had only been on for an hour tops. The one in my daughter's room hasn't had the issue but I'm not risking it, looking for replacements after this review.
+          <t xml:space="preserve">I can’t believe that the paint would come off from the volcano when it explodes. And the instructions explicitly say that baking soda and vinegar is better than what they give us. The cool part is making the volcano and having one around but not sure if it’s worth the money. Disappointed because it’s nat geo!!
 </t>
         </is>
       </c>
@@ -2570,19 +2562,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Smart Ceiling Light Fixture 12Inch</t>
+          <t>Perfect Petzzz Golden Retriever Plush</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Light of disaster!
-</t>
+          <t>Started as a disappointment and turned into a SUPERSTAR!</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Worked great and I loved it but suddenly it’s unable to adjust through the app. It’s stuck on the low setting color light I had on last night. Disconnected and reconnected the wifi/Bluetooth/breaker and it’s just stuck.
+          <t xml:space="preserve">I was shocked to see that this toy has no on or off feature to save battery life. What a waste!
 </t>
         </is>
       </c>
@@ -2590,19 +2580,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Smart Ceiling Light Fixture 12Inch</t>
+          <t>Perfect Petzzz Golden Retriever Plush</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Dangerous don't buy
-</t>
+          <t>There is no off/on button.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t xml:space="preserve">What else can I say? It's a fire hazard waiting to happen. The only way I knew it was a problem was that it melted the tabs that keep it attached to the mounting ring.
+          <t xml:space="preserve">I bought the golden puppy for my stuffed animal-loving granddaughter. (9 yr. old). I thought by the description of “ very soft and lifelike” that it was soft to cuddle with as well as soft to the touch.  It looks cute, it is soft to pet.  But it’s very rigid, and hard, can only lay in its bed and be “observed”!  I didn’t even try the batteries in it, but I assumed it would have an off switch!  (even $5.00 toys that make sounds have off switches!) Maybe this works for dementia stricken folks, it can just sit in their laps. I don’t see kids caring about it for long when it’s merely to look at and/or pet. The description of “interactive” toy is deceiving. It apparently has a breathing feature.  I don’t consider that interactive.  I’m returning it as it is way overpriced.  My fault for not reading more reviews more carefully.
 </t>
         </is>
       </c>
@@ -2610,19 +2598,19 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Smart Ceiling Light Fixture 12Inch</t>
+          <t>Perfect Petzzz Golden Retriever Plush</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Worked great for 2 days
+Never turns off
 </t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve">I bought 5 of them. After 3 month of using my daughter said light falling from ceiling. When I tried install it back to ceiling side of the light was opened, back side of the light was very hot (might cause fire to the ceiling) and slightly dented on the side.
+          <t xml:space="preserve">We purchased this toy for my little girl for her birthday.  It quit "breathing"within a few weeks.  We got a replacement and same thing happened.  We have now had our third one for a few months and it died again.  She was not hard on the toy, it literally sat on her nightstand, she brushed the hair, covered it up and kissed it goodnight every night.  I told her we would get a replacement and as she was sobbing said, "No,I can't go through this again".  I guess one good thing, it takes kids to deal with the death of a pet...
 </t>
         </is>
       </c>
@@ -2630,19 +2618,19 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Smart Ceiling Light Fixture 12Inch</t>
+          <t>Perfect Petzzz Golden Retriever Plush</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It melted after 2 weeks!
+Really disappointed, not great for kids
 </t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Terrible lights. They flicker constantly, and only half the light seems to be lighting up. Seller initially offered replacements, then said I need to return the faulty ones to get replacements. 3 of the 5 lights I purchased have the same problem, and I'm guessing all 5 lights will be faulty in the next month or 2!!! I've only had these lights 3 months and they're already showing how cheap the quality is.  To return the faulty lights means I need to pay an electrician to remove them, then pay an electrician again to reinstall new ones.Terrible product!!!!!!
+          <t xml:space="preserve">It came broken and does not breathe. we bought it months ago as an Xmas gift and when it was finally opened it did not work at all.
 </t>
         </is>
       </c>
@@ -2650,19 +2638,19 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Smart Ceiling Light Fixture 12Inch</t>
+          <t>Perfect Petzzz Golden Retriever Plush</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
           <t xml:space="preserve">
-After 3 month of using lights getting very hot and falling from ceiling.
+Not recommended
 </t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve">It looked easy enough to install but there is no room to allow the wires to sit in it and the wires provided aren’t long enough to thread through the ceiling. We finally got it wired and screwed in only to find out one of the latches to keep it on was broken. Waste of time energy and money.
+          <t xml:space="preserve">I saw this at a friends house and just had to get one for myself, it is just too cute! Too bad it only worked for two months. Seller told me to contact the manufacturer, who is apparently not willing to stand behind their product.
 </t>
         </is>
       </c>
@@ -2670,19 +2658,19 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Smart Ceiling Light Fixture 12Inch</t>
+          <t>Perfect Petzzz Golden Retriever Plush</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Absolutely terrible
+Would love if it worked
 </t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t xml:space="preserve">After you download the app, you’ll pay monthly fee for using this light!!!A very expensive flight after all!!!
+          <t xml:space="preserve">Daughter was disappointed because it wasn’t soft and cuddly like other stuff animals
 </t>
         </is>
       </c>
@@ -2690,19 +2678,19 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Smart Ceiling Light Fixture 12Inch</t>
+          <t>Perfect Petzzz Golden Retriever Plush</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Broke immediately
+I saw this at a friends house and just had ...
 </t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Has a really cool app interface, stopped working in one section after 4 months.  I can no longer return it.  Good times /s
+          <t xml:space="preserve">Was suppose to make sounds and maybe tail move. I followed instructions but nothing. Brushed it petted it everyday twice a day and nothing.
 </t>
         </is>
       </c>
@@ -2710,19 +2698,19 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Smart Ceiling Light Fixture 12Inch</t>
+          <t>Perfect Petzzz Golden Retriever Plush</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Very expensive light, is a monthly fee of the app which you have to download to operate this light.
+Disappointed
 </t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve">You have to use a app just to use it
+          <t xml:space="preserve">It last for one hour, until chunks of hair started to fall out from the top of head. Since my daughter was so sad her Easter toy was falling apart, I tried to glue it. It looks awful. Piece of s...
 </t>
         </is>
       </c>
@@ -2730,17 +2718,19 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Govee Changing Bluetooth Dimmable Assistant</t>
+          <t>Perfect Petzzz Golden Retriever Plush</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Easy to use!</t>
+          <t xml:space="preserve">
+Dead dog
+</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t xml:space="preserve">The whole reason why I bought these so I can schedule a time for them to turn on and a time for them to turn off so that my daughter does not come home in the dark and they do not turn on and off at the set time does not even work so they’re useless
+          <t xml:space="preserve">Was hard I wanted one soft I reordered on and is perfect
 </t>
         </is>
       </c>
@@ -2748,17 +2738,19 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Govee Changing Bluetooth Dimmable Assistant</t>
+          <t>Perfect Petzzz Golden Retriever Plush</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Just okay</t>
+          <t xml:space="preserve">
+Since my daughter was so sad her Easter toy was falling apart
+</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t xml:space="preserve">If you plan on using this with Alexa, don’t purchase. It never works! Returning
+          <t xml:space="preserve">Bad qualify!  We got this for my daughter and she has it for less than a week and hardly played with it and the dog mat is already breaking apart!  See photo.
 </t>
         </is>
       </c>
@@ -2766,19 +2758,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Govee Changing Bluetooth Dimmable Assistant</t>
+          <t>Perfect Petzzz Golden Retriever Plush</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Timers on these not working
-</t>
+          <t>Started as a disappointment and turned into a SUPERSTAR!</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Disappointing especially with the $ 13 a month ask
+          <t xml:space="preserve">Gift: returned. Super small; felt misleading info on product
 </t>
         </is>
       </c>
@@ -2786,19 +2776,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Govee Changing Bluetooth Dimmable Assistant</t>
+          <t>Perfect Petzzz Golden Retriever Plush</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Nope 👎🏽
-</t>
+          <t>There is no off/on button.</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tried too many different methods, deleted the devices from the app, reinstalled the app, left bulbs unplugged for hours, even disabled the 5ghz network from my router (and restarted it of course) so only the 2.4ghz would show, it just won't connect. Will be returning them. It's a shame because the bluetooth works great and I really liked the brightness level it provides.
+          <t xml:space="preserve">Unrealistic. The whole back doesn't rise and fall as with normal breathing, one quarter size spot does. I have one very disappointed 9 year old birthday girl.
 </t>
         </is>
       </c>
@@ -2806,19 +2794,19 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Govee Changing Bluetooth Dimmable Assistant</t>
+          <t>Perfect Petzzz Golden Retriever Plush</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Monthly fee for lights
+Very very small
 </t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve">VERY Easily Hacked.
+          <t xml:space="preserve">Would not recommend for small children. It is too hard.
 </t>
         </is>
       </c>
@@ -2826,19 +2814,19 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Govee Changing Bluetooth Dimmable Assistant</t>
+          <t>Perfect Petzzz Golden Retriever Plush</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Doesn't connect to wifi
+Not  realistic
 </t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t xml:space="preserve">annoying flicker
+          <t xml:space="preserve">It arrived and the box is all smashed and ripped together!  How am I suppose to
 </t>
         </is>
       </c>
@@ -2846,19 +2834,19 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Govee Changing Bluetooth Dimmable Assistant</t>
+          <t>Perfect Petzzz Golden Retriever Plush</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Very Easily Hacked!
+Seems like it has died.
 </t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t xml:space="preserve">App sucks. I tried to turn brightness to 100% from 50% and it DIMMED the lights. Very hard to pick out colors. I am returning.
+          <t xml:space="preserve">Un regalo de navidad para mi misma, para relajacion
 </t>
         </is>
       </c>
@@ -2866,17 +2854,19 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>GE Lighting Bluetooth Replacement Without</t>
+          <t>Perfect Petzzz Golden Retriever Plush</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Great Lamps and App</t>
+          <t xml:space="preserve">
+Arrives broken
+</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Horrible experience with these bulbs, especially the Cync app.  Horrible.  They blink in and out of availability.  They do not work "seamlessly" with Google Home.  The app is essentially a frustrating wizard that steps you through setup and changes that forces you to go through each and every step each and every time you need to set up a device, which you will find yourself doing multiple times for the same device because they just won't work.  Did I mention horrible?  I bought six of these thinking GE was reputable and would know what they're doing.  I was wrong.  Save yourself some frustration headaches and buy some other brand.
+          <t xml:space="preserve">Battery ran down after like 2 weeks, and now now it won't even work with a new battery.
 </t>
         </is>
       </c>
@@ -2884,17 +2874,19 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>GE Lighting Bluetooth Replacement Without</t>
+          <t>Perfect Petzzz Golden Retriever Plush</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>The lights work fine, but the Cync app is not user friendly</t>
+          <t xml:space="preserve">
+Hace mucho ruido y no tiene botón de apagar.
+</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Garbage product. Connected to my Linksys EA9500 $500 router and always disconnects and it’s not even 15 feet away. Small neighborhood and gigabit internet. Always tells me “sorry Cync by GE is unavailable” and I’m sick and tired of it!! DO NOT BUY THIS GARBAGE BULB
+          <t xml:space="preserve">No ON/Off switch, noisy and hard!
 </t>
         </is>
       </c>
@@ -2902,19 +2894,19 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>GE Lighting Bluetooth Replacement Without</t>
+          <t>Perfect Petzzz Golden Retriever Plush</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Buy From Another Brand
+One Star
 </t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t xml:space="preserve">More annoying to install than anything but that's just par for the course I'm sure. You have to download another app to install them in addition to Google Home. (If anyone could recommend hubless bulbs that don't need another account and app I'd love to hear it.) Lots of steps to go through for the setup, but that's not the problem. The problem is that despite a bulb being in the room with the WiFi router and with the Google Home Mini, Google cannot communicate with GE's CYNC, C by GE (I have nightmares about her telling me she can't do this). Also intensely useful is that these bulbs don't work at all without WiFi. Doing a little maintenance on your network, you'll need a light on.... Oh wait, the light doesn't work. We had Hive bulbs for years, which required a Hub and had it's own share of problems, but I didn't want to return those after a week of "use". Instead Hive just said their products won't work anymore, and they didn't.I'll be returning these. I'm disappointed in you GE, Edison is rolling over in his grave and Tesla is quietly having a little chuckle.
+          <t xml:space="preserve">Don't waste your money. Stopped working after 3 weeks. Contacted company for replacement. No response.
 </t>
         </is>
       </c>
@@ -2922,19 +2914,19 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>GE Lighting Bluetooth Replacement Without</t>
+          <t>Perfect Petzzz Golden Retriever Plush</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Worthless! Always disconnects!
+DO not recommend
 </t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Over 1 hour wasted trying to set up using a new iPhone. I have a Master's Degree in Science and followed all directions - it still did not work until we used an Android phone. This is a POS with 3rd world technology. Don't waste your money
+          <t xml:space="preserve">The battery compartment was SEWN shut!  No quality control whatsoever!
 </t>
         </is>
       </c>
@@ -2942,19 +2934,19 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>GE Lighting Bluetooth Replacement Without</t>
+          <t>Perfect Petzzz Golden Retriever Plush</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
           <t xml:space="preserve">
-50% of the time it works every time.
+Save your money
 </t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t xml:space="preserve">So far, two of the four bulbs I purchased have lost connection with the CYNC app and Amazon Alexa. Went from smart bulbs to dumb bulbs for four times the price. Is there a fix? Don't know. Don't care. Why should I have to jump through hoops because GE contracted out to have inferior products made to sell to the public? I'll keep them anyway. Buyer beware and all that. Besides, if I don't suck it up, Amazon will probably repackage and sell them to some other poor schmuck.Which gets me to my main point - buyer beware.
+          <t xml:space="preserve">Picture is much cuter that actual product. Very mechanical and stuff.
 </t>
         </is>
       </c>
@@ -2962,19 +2954,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>GE Lighting Bluetooth Replacement Without</t>
+          <t>Survival Equipment Valentines Christmas Accessories</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Does NOT work
-</t>
+          <t>Great to give to your teenage children to keep in their car in case an emergency.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Put these in the ceiling and never could get all 4 bulbs to blink to enable blue tooth.  The app you install to try to manage the bulbs not only renders Google Adsense ads but also trys to force you to upgrade and pay extra fees without any option to continue adding bulbs.  Complete misrepresentation of the product.  I've had other colored bulbs (not ceiling bulbs) that had a small remote control.  Super easy.  Going to try and find something similar (which is what I thought I was buying here).
+          <t xml:space="preserve">If I would have seen this at the store , I wouldn’t of paid $5 for it .
 </t>
         </is>
       </c>
@@ -2982,19 +2972,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>GE Lighting Bluetooth Replacement Without</t>
+          <t>Survival Equipment Valentines Christmas Accessories</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-These, or at least the ones Amazon sent me, are junk.
-</t>
+          <t>Mala calidad</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t xml:space="preserve">I've been trying these in various places around the house and, honestly, I'm finding them far too much trouble to bother with.  Currently, they're being tested in my bedside lamp but I'm already hating them there.  I can't seem to get the color adjusted to where I want it, the app on my phone is only minimally functional, and it's a PITA to have to dig out my phone or get it off the charger; unlock it; open the app; and get to the correct page of the app just to turn the lamp on/off, particularly at bedtime.While the app does have the ability to do fades in/out, and can blink the lights (at least when pairing), you can't tell the lights to do that without setting up a complete program for a specific day/time.  That's not exactly helpful when I'd like the bedside light to take a couple of minutes fading to off after I get in bed.  Guess I'll just save them for holiday decorations.
+          <t xml:space="preserve">I was super excited when I received it but almost immediately disappointed. As soon as I opened the sawblade that was attached to the hatchet/hammer, the washer used to shim the blades apart fell out. There’s no way for me to fix it myself. Now I’m wondering what else is going to fall apart. Super bummed.
 </t>
         </is>
       </c>
@@ -3002,19 +2990,19 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>GE Lighting Bluetooth Replacement Without</t>
+          <t>Survival Equipment Valentines Christmas Accessories</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Do not buy this product
+Very cheap
 </t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve">The bulbs I bought themselves work great, as regular LED bulbs.They’re completely useless as smart lights because the OFFICIAL app is completely useless.When I tried to setup the first time, things worked seemingly okay until they “failed to connect”.After that every single time I tried to open the app, it would just get stuck and crash repeatedly. All of my troubleshooting steps (reinstalling app, clearing cache, restarting phone) failed and I’m giving up.Maybe this works with Google and Alexa but I don’t have either and I’m not about to buy a separate smart speaker to make these work.Do not buy! I expect a full refund and screw you GE!
+          <t xml:space="preserve">China Made Crap.  No love in packaging for the display of a true quality gift.
 </t>
         </is>
       </c>
@@ -3022,19 +3010,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>GE Lighting Bluetooth Replacement Without</t>
+          <t>ALLCELE Rechargeable Robots Control Children</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-More trouble than they're worth
-</t>
+          <t>Lots of fun</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t xml:space="preserve">The bulb is terrible. The app is terrible. It doesn't work well with Alexa. The bulb doesn't respond to the lousy app or Alexa. Waste of money
+          <t xml:space="preserve">This product worked for a couple of weeks with some glitches.  As it was charging one day my daughter alerted us that there was smoke in the kitchen and the robot was sparking.  We were able to get it outside and there was no harm done.  If we had not been at home there would surely  have been a fire since it was charging next to  a pile of papers and under a cabinet.  We will never buy anything from this company again.
 </t>
         </is>
       </c>
@@ -3042,21 +3028,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>GE Lighting Bluetooth Replacement Without</t>
+          <t>ALLCELE Rechargeable Robots Control Children</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Cync app does not work
-</t>
+          <t>Sooo loud!</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                    The media could not be loaded.
- These lights are actually great.  They work well with the app for GE Cync.  However the bulbs I recieved had to be reset from the previous owners.  The bulbs will also not connect to Google in any way for smart integration.  If they would connect I would have given them a 5 star review.  They're bright enough and work amazingly well, but only with the GE app.
+          <t xml:space="preserve">I ordered one of these that was supposed to be new for my daughters Xmas present, and I received a used one. The box was ripped open, the seal was broken, the robot had scuff marks and hair on it, the controller had some some scummy dried bio material on it that glowed under a black light as well as fingerprints. There is no way I’m letting my daughter touch this.  No time to return before Xmas, thanks a lot.  Btw it is tiny.  Very disappointing. Also remote would not connect or control robot, just blinks.  Complete waste of money, these should not be being sold.
 </t>
         </is>
       </c>
@@ -3064,17 +3046,19 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>smart light bulbs alexa wifi</t>
+          <t>ALLCELE Rechargeable Robots Control Children</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Great - Just Works - But Basic</t>
+          <t xml:space="preserve">
+Almost burned out house down!
+</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm a software developer and this was a ROYAL PAIN to get working. I have an up to date iPhone 13 trying to get this to work with the same brand WIFI router as this lightbulb and it STILL wouldn't setup without doing all kinds of workarounds to make up for poorly integrated hardware, poor software implementation, poor instructions, and poor support.Turns out that if you're using iOS (iPhone, iPad, etc.) then you need to connect to the lightbulb's WIFI network to complete the setup, but you can't do that until you first connect to your home network because there's a check in the app setup process to make sure you're connected to your home network, so you have to jump through that hoop and then manually disconnect and change connection to the bulb's network, but you wouldn't know that unless you went to the support page on their website which you have to go to manually because the app instructions don't give you a clickable link!But then again, they could have saved us that trouble by just giving us operating specific setup instructions, but they didn't which to me says cheap, profit centered, screw-the-consumer, KASA = BAD. Never again.I wasted about half an hour trying to get this "smart bulb" to connect, wading through instructions written in broken English, full of typoes, telling me to do the wrong things.On top of that, I'm over here trying to introduce my parents to this “great new technology” of smart appliances for the holidays (I bought this for them and their home), but  this just makes me look like a joke. Like, how many “tech experts” does it take to get a SMART LIGH BULB to work????To top it off, after I FINALLY got it to work and I could control that light with the app on my phone, I realized that the app limits control to one user—meaning that no other person, or people, with app on their phone that are connected to the home network could access and control the light. So only one person can control one of these smart lights at a time… that's CRAZY!The fact is, if this thing, including the app, is much harder to use than a regular lightbulb, then it DOESN'T MAKE SENSE.It's 2023. If you're marketing something as a finished product than it had better work—and easily. No work arounds or do-overs, or lets try turning it on and off or going to the support page or worse yet contacting support. Put a sticker on it that says "Beta version" or "Testing" or something and we'll be more merciful with our reviews.Otherwise, you're wasting my time and money!Hopefully this is easy to return so I can get my money back.
+          <t xml:space="preserve">This was ordered for a Christmas gift. Once we open and set it all up it wouldn't do anything, eyes light up and remote lights up but that is it. Our Christmas got postponed due to illness,and now I'm passed the return window totally. Bummer gift!
 </t>
         </is>
       </c>
@@ -3082,17 +3066,19 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>smart light bulbs alexa wifi</t>
+          <t>ALLCELE Rechargeable Robots Control Children</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>New color issues</t>
+          <t xml:space="preserve">
+Disappointed.
+</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve">This product requires the Kasa Smart app to configure the lights, which crashed on me a few times. I ran into a lot of connectivity errors with both bulbs not only during repeated attempts at setup, but after setup as well, the bulbs continue to be not found by the app. If I keep trying to connect repeatedly, eventually my color configuration commands do go through, even if the Kasa app reports that the bulbs are offline. So definitely not as reliable as other more established smart home brands. I can confirm SmartThings works with this brand so long as you set up an account with Kasa Smart (required). This is great because you can mix and match your bulbs; I have Philips Hue bulbs in the same room and can control all of my bulbs at once with SmartThings (only when the Kasa bulbs actually connect to the app though of course...)Overall these were pretty cheap and they mostly work, but you can get a better quality experience by picking a different brand.Edit: lowering my rating because the bulbs are becoming so unreliable that I have to remove them by hand or kill power to them to get them to turn off
+          <t xml:space="preserve">The noises it made were so over-the-top LOUD, it cancelled itself out &amp; I couldn’t understand most of it. Some of it was just hideous screeching. There’s no way I was going to give it as a gift! Returned.
 </t>
         </is>
       </c>
@@ -3100,19 +3086,19 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>smart light bulbs alexa wifi</t>
+          <t>ALLCELE Rechargeable Robots Control Children</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
           <t xml:space="preserve">
-TERRIBLE EXPERIENCE: Hard to Install Even for Computer Expert
+Didn't function at all
 </t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t xml:space="preserve">I have many Kasa smart home products, and I like them. I have smart bulbs and plugs and I have them synced up to my google home. That being said, these bulbs have not been able to connect to my network. I don’t know why, but they simply won’t connect. I got 2 packs of 2 and none of the 4 are able to connect using the Kasa Home app. Pretty disappointing. I’m not sure if they are from a bad batch or what, but I spent hours troubleshooting and I can’t get it working. Might I also add that I’m a software engineer, so I generally get tech…
+          <t xml:space="preserve">I tried using this robot before gifting it to my grandson. It didn't do anything accept make some noise. Could not get to move in any direction at all. Returned it the same day it arrived.
 </t>
         </is>
       </c>
@@ -3120,19 +3106,19 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>smart light bulbs alexa wifi</t>
+          <t>ALLCELE Rechargeable Robots Control Children</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Rough software experience
+Horrible
 </t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve">The bulbs work. They are connected to me Wi-Fi. However in the app it says they are constantly unavailable. It’s crazy because they are on when it says this. I have two right next to each other and they don’t always do it at the same time. It makes no sense. I have a lot of other Kasa/TP Link products and these bulbs are the only ones I have issues with. Buy another model type, these are junk or maybe mine are just defective.
+          <t xml:space="preserve">NOT WORTH BUYING..
 </t>
         </is>
       </c>
@@ -3140,19 +3126,19 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>smart light bulbs alexa wifi</t>
+          <t>ALLCELE Rechargeable Robots Control Children</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Non functional
+Flop
 </t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve">The light took a number of attempts to connect, the way to connect it isn't very intuitive.  It then worked for a while, but then the light then failed within the warranty time and I found out that Kasa requires you to ship them the bulb at your own cost for a warranty replacement.  Not exactly showing confidence in your product or that your customers matter to you.  Do yourself a favor and purchase a smart light from a different company, there are definitely better options.
+          <t xml:space="preserve">Should be a dollar tree product
 </t>
         </is>
       </c>
@@ -3160,19 +3146,19 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>smart light bulbs alexa wifi</t>
+          <t>ALLCELE Rechargeable Robots Control Children</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Terrible Connectivity Issues in App
+OPEN THE BOX... DOENT WORK. DONT BUY.
 </t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t xml:space="preserve">I have several Kasa devices, mainly switches, outlets and camera. They work just fine. But both these bulbs, they just keep losing wifi connectivity. I have a Netgear RBK960 mesh system and one of the satellites is in the same room as these bulbs, only 6 feet away. They still keep losing network connection. I have put these two bulbs in a group and everyday whenever I try to turn these bulbs on/off, the Kasa app just keep complaining these devices are not responding. I have factory reset these devices and re-added to the app, deleted and re-created the group, but nothing worked. Extremely poor product.
+          <t xml:space="preserve">I paid $30 something for this (normally $40) and it is not worth it!  It’s as small as my salt shaker. I will be returning it.
 </t>
         </is>
       </c>
@@ -3180,19 +3166,19 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>smart light bulbs alexa wifi</t>
+          <t>ALLCELE Rechargeable Robots Control Children</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Light failed, warranty policy is a joke
+Piece of just
 </t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve">I bought this kit that comes with two lamps, after two months one of the lamps the blutooth stopped working. The other still works.But I was disappointed how quickly it broke. I tried pairing again a few times but it doesn't work.
+          <t xml:space="preserve">Cheap barely works
 </t>
         </is>
       </c>
@@ -3200,19 +3186,19 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>smart light bulbs alexa wifi</t>
+          <t>ALLCELE Rechargeable Robots Control Children</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
           <t xml:space="preserve">
-These bulbs keep losing wifi connectivity
+Too expensive for what you actually get.
 </t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t xml:space="preserve">I have 28 TP-Link Kasa devices in my home. And these KL bulbs are by bar WORST item on the entire market. I've owned them for 4 days and have spent 4 days power cycling them because they repeatedly disconnect from the wifi. You know they are offline because they'll stop following the schedule. Oh it's 10pm, why isn't the lamp on? Let check the app...ahh.. the stupid bulb is offline again.There's not real a explanation why. I've searched the internet and it appears the bulbs disconnect more frequently from wifi networks have that have dual bands such as 2.4 GHz and 5ghz. But when you consider that Kasa/TPLink makes tons of other devices that work flawlessly, then you'll realize that these bulbs  aren't worth headache they create. And honestly, who doesn't have a dual band network nowadays?I'm truly disappointed, but I'm more disappointed with that fact that the only reason I bought these is because I wanted to put my lamps on a dimmer. TPLink/Kasa only makes dimming wall switches, and not dimmable plugs. Other brands of smart plugs offer dimming, but TP-Link...nope. So now I have to have multiple different brands of plugs to achieve something as simple simple as dimming.I'm sorry I'm completely vested in Kasa now.
+          <t xml:space="preserve">Left a child crying cause it didn’t work.
 </t>
         </is>
       </c>
@@ -3220,19 +3206,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>smart light bulbs alexa wifi</t>
+          <t>DJI FPV Combo First Person Transmission</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-After 2 months the Bluetooth stopped working.
-</t>
+          <t>Highly Highly Recommend</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t xml:space="preserve">There is no option for “party” mode or for it to constantly change colors. Very disappointed. Didn’t think that was even an option cause the very cheapest color changing bulbs can do this. Wouldn’t have bought if I knew. And too much of a hassle to return. Better bulbs out there with more options. Don’t recommend.
+          <t xml:space="preserve">Pros:Amazing video quality (in goggles and recorded)Incredible rangeCool sensors, RTH, and Turtle ModeGreat for recording action video (such as recording other race drones or sporting events)Cons:Completely proprietary (drone must use included goggles and transmitter)Transmitter cannot be used with anything else (even the DJI Air unit or Caddx Vista)Goggles can be used with DJI Air unit but will lose pairing with the FPV drone (can only pair one or the other)Not agile enough to be a competitive race droneHave to download an app on a mobile phone and digitally register/update all three components before the product will workBIGGEST ISSUE: DJI will not sell necessary parts to the public if it crashes!!! WHAT???!!!In summation, DJI considers this a race drone but if you are racing you will crash and need to replace parts. It is just part of the hobby, and this is true even if you aren’t racing. DJI won't sell necessary parts. I’ve been flying RC for over 25 years and the hobby shop owner who sold me my first plane said “Remember one thing. It’s not a matter of if you crash, it’s a matter of when. So I’ll see you soon.” I saw him again the next week. The point is that in any RC hobby you need to fix/modify/work on your own equipment. DJI robs you of that. Their only answer is that if you need a repair you must send in your drone. They will charge you $65 to assess the damage and then will charge you for parts, labor, and return shipping. They also will not give you estimates before you send it to them, even if you explain what needs to be replaced. I lost video while flying one day and cut the throttle. The drone dropped probably about 20 ft. I tried through several emails, chats, and phone conversations to convince them to sell me the parts I need (literally only need a small LED board and an arm cap that screws on underneath the motor (quad still flies fine) and they flat out refused to do so. In addition, it seems that the customer service reps really don't know anything about their product. DJI has developed some amazing technology for racers and hobbyists in the areas of digital video quality with low latency, but it isn’t worth supporting a company who dictates that we are not allowed to fix a product we paid for and own. This is more of an expensive toy and not a race drone.
 </t>
         </is>
       </c>
@@ -3240,19 +3224,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>smart light bulbs alexa wifi</t>
+          <t>DJI FPV Combo First Person Transmission</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-These are completely worthless.  Go with Hue for bulbs.
-</t>
+          <t>A dream come true for a breathtaking FPV flying experience</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t xml:space="preserve">I bought a two pack of these, and they both setup fine, including a firmware update. A minute after setup, they would drop from wifi and would not connect at all. Power cycling would see them connect for a second and then disappear. This has become a trend with Kasa products. I have 4 plugs that work great, and two others that do just what I described with the bulbs. For me it has been an actual coin flip as to whether or not their stuff works. My guess would be that either their QC is severely lacking or they use cheap components in certain models. Either way, I'm looking for an alternative product.
+          <t xml:space="preserve">I bought this drone and the moment I went to fire the engines up I get a NON DJI BATTERY error. So after a month of waiting and finding out the warranty doesn’t ever work. I finally get help and a replacement battery. And THAT battery didn’t work either! So I bought 2 batteries from the DJI website and those worked. So now after a month of waiting to finally drive this drone. Seconds in the air and the goggles tell me “sensoring malfunction” and suddenly I have absolutely no control of the drone via controller. The drone tilts and flies as fast as it can adjacent into a tree 25 yards away. I’ve had this drone over a month. Flown it for less then a moment.Faulty from the box. And this is bs and a huge waste of money. And yes I do currently own multiple drones. This is just the experience I’ve had with THIS drone. I don’t even know if I’ll get a refund or a replacement as I’ve had no reply from the seller on Amazon.
 </t>
         </is>
       </c>
@@ -3260,17 +3242,19 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Smart Ceiling Light Fixture 12Inch</t>
+          <t>DJI FPV Combo First Person Transmission</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>amazing product</t>
+          <t xml:space="preserve">
+Some impressive features, but don't crash
+</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Not worth the money, The light failed within a month of use and was flickering about the 20th day but I wasn't sure if it was the light or something else in the house? Now the light is dimmer on one side and it's not as bright. It also is making a clicking noise like maybe something is hot and plastic cracking? Unfortunately the 30 days have passed and no chance for refund. Hopefully the sellers will offer me a refund because I don't want to take a chance on a fire or some other hazzard. Amazon you need to get this product off your list! I also could not get a good pic because of the flickering of the light. I DO NOT RECOMMEND
+          <t xml:space="preserve">It won't even let me take off after spending so many hours trying to get this thing to work. I was expecting to have fun on my birthday but now it's completely ruined while I try to get this thing in the air after all the problems I been going through it says the country code is not updated. Spent so much time charging, updating, and now the error won't let me take off and there doesn't seem to be a fix.After getting it in the air after lots of trouble it had gone through many issues. The headset no longer works properly and one of the button has somehow been pushed in with no way to fix unless you have the special tool to open it up. Purchased care refresh. Basically completely useless as it doesn't cover what I need. It only covers the drone and nothing else. It doesn't even record anymore. It said it has slow transfer speeds yet on my PC I been transferring rates over 100 mb/s. The goggles don't turn on anymore. Only sometimes. Complete disappointment with DJI.Flying in my area is a pain in the ass. Gotta make sure phone is connected and go through many steps to unlock the geo zone.The drone flies fast but that's probably the only good thing about it. Everything else sucks. Noisy and when it takes off its not as stable as the mavic mini. Like I feel like it's about to crash when it lifts off the ground.All I want is for this drone to work but right now it's basically trash. Nothing works the way it should and the updates are so annoying too and basically don't fix anything. Now I'm at a loss of over a grand with a piece of trash that was definitely not worth it at all. I never though I'd hate DJI this much but looks like they just want your money. The goggles sucks too. Nothing compared to a VR headset like Oculus. The latency was fast though compared to other drones and nice video feed for the most part except sometimes the sides of the screen glitches out.
 </t>
         </is>
       </c>
@@ -3278,17 +3262,19 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Smart Ceiling Light Fixture 12Inch</t>
+          <t>DJI FPV Combo First Person Transmission</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Doesn’t do multi color all at once no remote</t>
+          <t xml:space="preserve">
+Do NOT buy.
+</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t xml:space="preserve">These lights were great, until they were not! The main lights have started flickering and it is impossible to use them now as it very straining on the eyes when you try to read in this light. I reached out to the seller, but after the initial response of acknowledging I had ordered 2 lights, there has been complete radio silence despite multiple reminders! I will try to see if my credit card can help sort this out but this turn of events has left me very disappointed with this purchase!
+          <t xml:space="preserve">I'm an experienced drone pilot, especially with DJI products.  I used both the stock controller and the motion controller.  When I used the motion controller and hit return to home, it tried to land in a near by pond and would not take my cancel instructions.  Finally at the last second it pulled up and I got it home manually.  I decided no more motion controller and went back to the stock controller.  I took it out for 2 test flights to make sure it was OK...it was.  Then on the 3rd flight, I took off and went about 250 meters when it started to pitch up at an angle that is impossible in N or S mode.  I immediately tried to turn around and get it home, however, on the screen came the message "propulsion stopped" and I lost visual contact via Goggles.  I immediately jumped in my truck and drove toward the area it dropped.  I was able to get a signal and visual but couldn't take off.  It was dark and couldn't tell whose property it was on.  It was hopeless.  I kept driving around trying to find it but it's gone and through no fault of my own.  Of course, I have DJI Refresh, but guess what, they need to have the drone.  All in all I lost about $1500 and again, through no fault of my own.  DJI's refresh program is horrible and I had to look up YouTube video's just to find out where the page resided to initiate a claim.  I didn't matter though, not having the drone to return to them.  I've since returned to Amazon telling them the same story.  I don't know if I'll get a refund or replacement but my fingers are crossed.  Pathetic that's what it's come down to.
 </t>
         </is>
       </c>
@@ -3296,19 +3282,19 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Smart Ceiling Light Fixture 12Inch</t>
+          <t>DJI FPV Combo First Person Transmission</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Failed days before 1 month of service
+Spent hours trying to fly
 </t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t xml:space="preserve">You must install their app which requires giving access to your device and requires turning on location. If you don't want to use their app then the light will sit there flashing like a strobe light.
+          <t xml:space="preserve">it’s been nothing but issues and headache. All of the firmware is up to date on everything but the battery refuses to start the motors. the second day of just trying to get the motors on I was able to get it into the air so I know for sure the battery works but after recharging it refuses to start the motors I try turning it off and on over and over it does nothing I try moving the drone does nothing. Also the memory card error will not go away, I read the format of the card has to be exfat or fat but neither get rid of the error. also the goggles have tendency to randomly turn off even the battery is still on and they also have a tendency to not turn on at all until unplug them and try again and again till they work. I ordered a new battery for the drone it’s not here yet but I’m already worried i wasted more money because I read lots other people have the issue of the battery not starting the motor even with brand new batteries. but I never see anything on how to fix it.
 </t>
         </is>
       </c>
@@ -3316,19 +3302,19 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Smart Ceiling Light Fixture 12Inch</t>
+          <t>DJI FPV Combo First Person Transmission</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Updated review after 8 months of use
+Not ready for prime time
 </t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wish I could give this 0 stars. This light was really good at first, but it obviously isn’t built to last. After about 2 months, it quit working, I know it wasn’t an electrical issue tho because I got a new light and it works just fine. DONT WASTE YOUR MONEY!!!!
+          <t xml:space="preserve">That’s not the case with this drone… The battery pack for the VR headset intermittently will not turn on, it has a mind of its own. I have the perfect double tap timing and it’s turned on before. But then will randomly not even turn on. I haven’t been able to fly this thing 1 time since buying it because the battery does not work. I’m pretty annoyed. There’s plenty of forums out there on how to update everything, which I did. But no updates for the battery pack. It simply just does not turn on. All 4 lights will light up and it won’t power up.
 </t>
         </is>
       </c>
@@ -3336,19 +3322,19 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Smart Ceiling Light Fixture 12Inch</t>
+          <t>DJI FPV Combo First Person Transmission</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
           <t xml:space="preserve">
-This is Data Mining tool
+drone will not arm / won’t format sd card
 </t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Did not come with remote control. Set up mode never connected. Like a strobe light every time while trying to connect. I was this close to a seizure. Went through instructions several times for it to never connect. It was easy to mount. That was the only plus. Returning
+          <t xml:space="preserve">Been wanting one of these for a while now, finally had some extra cash to purchase the fpv combo. And after waiting 2 days to arrive I received it with a bad battery. At first I thought it might have just been sitting for a while so it was in hibernation mode, nope battery was defective. Called Amazon for a replacement and all they could offer was just return the item and wait 7 days for a refund. I will be returning but won't purchase through Amazon.
 </t>
         </is>
       </c>
@@ -3356,19 +3342,19 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Smart Ceiling Light Fixture 12Inch</t>
+          <t>DJI FPV Combo First Person Transmission</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Quit working after 2 months
+When spending a $1000+ on a drone you’d expect it to work right?
 </t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t xml:space="preserve">The day light stopped working in less then a week of being up .Now the regular like flickers like it's getting ready to blow out too.Do not recommend this light at all.
+          <t xml:space="preserve">This it the first drone I have ever owned/ flown. If you are looking for a fun toy that will grow with you as your skill level grows this is for you. If you want it for anything other than that forget it. Spend your money on something non-DJI.I originally purchased this drone specifically because I wanted to get experience flying and this drone had setting that would allow me to enhance the drone capability with my skill level and to do general survey of potential contract areas. Since my purchase, there has been two occasions where I COULD NOT even lift off because the software disallowed me to do so. This is NOT a legal requirement and DJI's competitors DO NOT have these restrictions, that I am aware of. You can request permission, but when I tried to do this it took 20-25 minutes to receive the code and by then my client had left. COMPLETELY UNACCEPTABLE!I do not need a surrogate mommy telling me when and how to use my Fifteen Hundred Dollar investment.Save your money and just get something else.
 </t>
         </is>
       </c>
@@ -3376,19 +3362,19 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Smart Ceiling Light Fixture 12Inch</t>
+          <t>DJI FPV Combo First Person Transmission</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Doesn’t connect
+Battery was dead on arrival
 </t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t xml:space="preserve">This item should not be sold on Amazon, it is a fire waiting to happen. My son had his on in his room and came to tell me it had fallen from his ceiling. I found it dangling from the wires and when I went to try and hang it back on the ceiling mount found the light was burning hot, as was the ceiling immediately where the light had been hung. It had gotten so hot that the plastic ceiling mount warped causing the light to fall and stop only by the wires catching it. Do not purchase this item.
+          <t xml:space="preserve">First time ordering as a bundle and only received the remote from the due date. Called Amazon to question the arrival saying that it said delivered, but only to receive this weeks later. Once I received the late drone, I noticed it was partially used, oh well it’s here so might as well give it a try since I know it’s going back. Coming from a DJI drone pilot of 7 years of experience, this drone was extremely difficult to learn in Manual. I practiced I. The virtual fly app but even when I flew this outside after learning what is more fist than anything is that the battery dies within 8-10 mins. What a money waster honestly, I would rather go back to my DJI P4P or mavic than this. Worst part is that if you want properly play around with this FPV drone you need to buy at least 6 batteries which will cost you more than the drone already. Save your money it’s not worth it! So if I was to keep this over the P4P I wouldn’t do it. Even with expert experience on FPV drones this can’t match what I’m looking for. I rather have more flying time, better quality, and a smoother flying experience than this junk.
 </t>
         </is>
       </c>
@@ -3396,19 +3382,19 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Smart Ceiling Light Fixture 12Inch</t>
+          <t>DJI FPV Combo First Person Transmission</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Stopped working
+A VERY expensive toy.
 </t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t xml:space="preserve">of the lights purchase, failed after 2 DAY. I now cannot use the warm led light, only the cool light now works. Poor quality.
+          <t xml:space="preserve">Look up iflight get them googles and the DJI FPV controller (not the one that comes with the drone the stand alone v1 controller) and just get a Nazgul 5 instead. I wreaked the DJI FVP drone in 2 days as a experienced pilot due to the quad running away (motors over rev to correct). DJI has taken a month at this point they took my $199 for the protection plan then told me i did not have it and our trying to get me to pay 799 for 2 $40 arms for the drone….. I fly DJI air units own some mavics and do this for a living figured to upgrade to the air units why not just buy the FPV drone kit. Even tho it is just a software unlock and the controller for this drone should be fine to run the air unit also they force you in a 3rd controller (I already owned the smart controller and that also does not work with the air units. All and all save your money and time and get a carbon fiber framed quad if you want to get in to FPV flying.
 </t>
         </is>
       </c>
@@ -3416,19 +3402,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Smart Ceiling Light Fixture 12Inch</t>
+          <t>LewanSoul Robotic Arduino Software Tutorial</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Extremely dangerous product!
-</t>
+          <t>Mostly good but has a few issues...</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t xml:space="preserve">We had it for like 5 months and it started to come apart . So we took it down to fix it and it just would not go back together. Waste of money. A hassle to set up and if your Wi-Fi isn’t working your light is stuck on/ off .
+          <t xml:space="preserve">App is terrible, controller is terrible, pc software nonexistent. App has 1 star in Apple App Store for a reason. All hardware bags unmarked. No assembly manual included.
 </t>
         </is>
       </c>
@@ -3436,19 +3420,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Smart Ceiling Light Fixture 12Inch</t>
+          <t>LewanSoul Robotic Arduino Software Tutorial</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Cheap material.
-</t>
+          <t>Pricey neat paper weight</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t xml:space="preserve">Light was purchased for a room I was working on so it didn't get installed until it was already outside the return window. It failed almost immediately and one section of the led light constantly flickers while rest of light stays on solid.It also is an extremely unpleasant tone of white no matter how you adjust the tone, I wouldn't buy for a room you plan to spend any length of time in.
+          <t xml:space="preserve">Servo's 1,2 and 3 (wrist and claw) didn't work out of the box with the provided board, checking on those pins revealed different wave form (all the servo's seem to work at ~3.3V, 500us to 2500us PWM at 50Hz, looks like the three pins for servo's 1, 2 and 3 all share the same signal at about .75V). Extra annoyance: Servo 4 (LDX-218) jitters between 30 and 90 degrees with no load, can't do much without it working.
 </t>
         </is>
       </c>
@@ -3456,17 +3438,19 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sengled Changing Assistant Required Equivalent</t>
+          <t>LewanSoul Robotic Arduino Software Tutorial</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Love it, no hub required</t>
+          <t xml:space="preserve">
+Beware! 4+ stars?
+</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t xml:space="preserve">They don’t include that in order to connect to your home Wii’s system you need to remove your password. Not help when I reached out. Avoid at all costs and just take the trips to Walmart
+          <t xml:space="preserve">Had purchased multiple of these for our after school program out of my minuscule middle school budget, and 11 out of 12 of them came with some type of motor or circuit defect.The motors would stall and then stop working -- you could hear the gears crushing against each other. The arms would droop without any reason. One of the circuit boards started smoking and almost caused a fire!Customer support is extremely spotty with absolutely no regards to the inconvenience they cause to teachers/students. Despite multiple attempts, a constant ask from them was to send them more money for fixing the arms. Super disappointed -- now I have 12 junk arms sitting in my closet and no budget for new material for my students.
 </t>
         </is>
       </c>
@@ -3474,17 +3458,19 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sengled Changing Assistant Required Equivalent</t>
+          <t>LewanSoul Robotic Arduino Software Tutorial</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Will you actually use colored bulbs?</t>
+          <t xml:space="preserve">
+Aiyah
+</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t xml:space="preserve">I cannot get this version of these bulbs to connect to my network.  App keeps saying my network password is wrong, my password is not wrong, my other model Sengled Bulbs work just fine, I have 8 W11 bulbs, all with the same problem.  I have reached out to Sengled Support and it's all Crickets.  I have used Sengled for a long time, but if they don't figure this out I am Switching all the bulbs in my house to another Smart Bulbs.  SENGLED, GET THIS FIXED.
+          <t xml:space="preserve">This piece appears to be a defective part.
 </t>
         </is>
       </c>
@@ -3492,19 +3478,19 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sengled Changing Assistant Required Equivalent</t>
+          <t>LewanSoul Robotic Arduino Software Tutorial</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Does not connect to wifi
+Poor quality and customer support
 </t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t xml:space="preserve">These bulbs are great when they work. First one I had was a pain in the butt but finally started working. I was having to reset it every single day until I wasn’t. Recently bulb has started flashing randomly. Tried resetting and didn’t work. Figured maybe the bulb itself was on its last legs so put in a brand new bulb. Can’t get that one to connect. Sengled app pretends like it’s connected, takes you through all the steps but the bulb doesn’t actually show up. Resetting doesn’t work either. Have tried resetting it a dozen times and can never get the flashing they talk about for pairing mode.It’s really a shame because when the bulb worked, it was awesome and I loved being able to change the colors and have fun with it. Now I can’t turn it on with the app or with Alexa. Everything has to be done by hand with a physical switch to turn it on.Overall the one bulb cooperated for a couple of months but now it’s looking like the brand new bulb is useless. Not sure if it’s the bulb or the app but regardless of which one, these are beyond frustrating to try and set up/keep connected.
+          <t xml:space="preserve">The board comming with pcs unsoldered see the pics, the servos do not support the torques indicated. 1 servo stop your movemment with only 1 week of use. If you are searching a robotic arm for a couple of uses maybe be one option,  but for me is not a good Brand. Lewan Soul is not a recomended brand!
 </t>
         </is>
       </c>
@@ -3512,19 +3498,19 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sengled Changing Assistant Required Equivalent</t>
+          <t>LewanSoul Robotic Arduino Software Tutorial</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
           <t xml:space="preserve">
-What is with the W11 Model of these Bulbs?
+Bad part
 </t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t xml:space="preserve">The install to use the color bulbs with Alexa is challenging. Plan to spend a day on it, which is better than rushing through and making extra problems for yourself. If I had a video to attach, it would be X-rated for language.Part of my scenario was that I did four white bulbs the day before, which were easy. I needed a two-star app from Apple for the color bulbs. There might be different editions of bulbs in the mix that do or do not need the app, but that appears impossible to sort out.The working bulbs are lovely. Why one-star? I am not new to computer madness. My last project was buying and installing a new battery for my laptop, which was a breeze. It seems like this light install ought to be just as easy.
+          <t xml:space="preserve">Arm is way cool works as it saysBut after assembling arm I was able 2 move arm with ps2 controller kinda cool but I couldn't hook my phone 2 the arm so its limited with what can be done so this will be returned after wasting 4 hours P.O.S.
 </t>
         </is>
       </c>
@@ -3532,19 +3518,19 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sengled Changing Assistant Required Equivalent</t>
+          <t>LewanSoul Robotic Arduino Software Tutorial</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Great when they work
+Poor Quality - Not Recomended!
 </t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t xml:space="preserve">I have spent over 2 hours trying to get this device to connect to app or Alexa to NO AVAIL! My other bulbs work. And yes I'm not using my 5. Wifi I'm using the 2. Wifi
+          <t xml:space="preserve">I bought this item and built it said it would run on software pc I tried downloading it to my pc and says was blocked due to could harm my device so what should I do
 </t>
         </is>
       </c>
@@ -3552,19 +3538,19 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sengled Changing Assistant Required Equivalent</t>
+          <t>LewanSoul Robotic Arduino Software Tutorial</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
           <t xml:space="preserve">
-These are nice if you get them working
+Missing parts and wont connect 2 bluetooth
 </t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t xml:space="preserve">I bought 4 of these for our loft. I finally got them to work long enough to synch with Alexa. However, they constantly drop from our wifi (10-15 ft from router- nonstop perfect signal). Den lights are not respnding- check your network is Alexas favorite thing to say. To fix you have to reset the lights and it stays connected just long enough to get one command out to Alexa. After that they drop again. Also does the same thing with the sengled app (also garbage and I wont go into it- check reviews at the App Store for yourself). I wish i would've kept the box to send them back.These are the lights that do not require the higbee hub and claim to work with Alexa. I am going to try the Phillips ones next and hope they work better. Get it together Sengled, what a waste of time and money. I would recommend these to NOBODY.Anyone that has lights that actually work with Alexa please respond.
+          <t xml:space="preserve">After we took a day to assembled it, was damage it doesn't close correctly, so sad because is to hard to assembled for nothing
 </t>
         </is>
       </c>
@@ -3572,19 +3558,19 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sengled Changing Assistant Required Equivalent</t>
+          <t>LewanSoul Robotic Arduino Software Tutorial</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Won't connect even to the app let alone my Alexa
+Product
 </t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t xml:space="preserve">It will no respond to my new Wi-Fi settings with same provider, using echo 5Customer Support unable to help and no response from Sengled !!! DONT PURCHASE!!!
+          <t xml:space="preserve">There are some parts missing which I won't be able to assemble the product. I would like to request to send me a new one or refund
 </t>
         </is>
       </c>
@@ -3592,19 +3578,19 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sengled Changing Assistant Required Equivalent</t>
+          <t>LewanSoul Robotic Arduino Software Tutorial</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Garbage- drops connectivity constantly
+Damage
 </t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t xml:space="preserve">I ordered this under the AMAZON statement that IT was the bulb I needed to use with my echo dot system.  Amazon would send it ready to pair and I just screw it in, turn it on &amp; pair it.  NOPE doesnt work you need to redo your internet crap.  I am out $20 and now STILL do not have a bulb that will change colors and work with the Amazon Echo.  I am so angry.  I have begged for help, writing to the mfg, to Amazon.  To no avail.  Nobody seems to care.  DO NOT BUY THIS.
+          <t xml:space="preserve">None of the screws and hardware is marked. Two bags of screws are missing. Online instructions are hard to distinguish which unmarked set of screws are need in the separate steps
 </t>
         </is>
       </c>
@@ -3612,19 +3598,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sengled Changing Assistant Required Equivalent</t>
+          <t>Ruko Programmable Interactive Control Present</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Unresponsive
-</t>
+          <t>The replacement works</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bought these and can’t even download the app to configure the bulbs ugh!!
+          <t xml:space="preserve">I was super excited about this robot and so was my third grader. We read great things about it including all sorts of great reviews. But the most exciting thing was programming the robot for which you must have the app. I read all of the enclosed materials in the package, a bunch of reviews and everything included in the Amazon listing. I looked for their website when the Q R code wasn't working on my Android phone. Couldn't find anything in the Play Store. And I finally decided to do a Google search for the specific robot and found an article that mentioned it is iPhone controlled for the app. If that's the case, this should have been mentioned somewhere in this listing. The support and information with regard to the app has been minimal and that was the most exciting thing for us. Now we have a useless thing that responds to a handful of commands and does a couple of neat tricks that wore thin after about an hour.
 </t>
         </is>
       </c>
@@ -3632,19 +3616,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sengled Changing Assistant Required Equivalent</t>
+          <t>Ruko Programmable Interactive Control Present</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-This is the biggest scam from Amazon
-</t>
+          <t>Not worth the money</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Like I said they worked fine for about a month and now they won’t connect to me alexa
+          <t xml:space="preserve">It was Open box and used
 </t>
         </is>
       </c>
@@ -3652,35 +3634,34 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>GHome Smart Backlight Compatible ST1 B</t>
+          <t>Ruko Programmable Interactive Control Present</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Super high - tech and i love it!</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Easy to set up and the adhesiveness is good, but this is nowhere near as bright as other smart LEDs on the market. Low price but entry level quality with a minor flicker even at 50-100% brightness. Works well with Alexa, but not at all with SmartThings. The music mode is weird or delayed, so it doesn’t seem synched with the music at all.  I’d recommend for a kids room, at most.
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">
+iPhone only for the app. NO MENTION OF THIS ANYWHERE HERE!
+</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>GHome Smart Backlight Compatible ST1 B</t>
+          <t>Ruko Programmable Interactive Control Present</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Overheat</t>
+          <t xml:space="preserve">
+It was open box and used
+</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t xml:space="preserve">I just got them today! It was super easy to install and made it all down both sides and top of 55inch tv( won’t make it all the way around) the app is easy to use and setup, aswell as link to Alexa for voice control. However only red and green work not blue. So any color with blue in it doesn’t work.(Edit I have changed it from 3 stars to 1 star now. I have had it for a couple weeks and only had them on for maybe 10 hours total and now the red and blue doesn’t work so only color is green)
+          <t xml:space="preserve">Got it for my granddaughter it doesn’t pick up anything and she upset over it I thought it did
 </t>
         </is>
       </c>
@@ -3688,19 +3669,19 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>GHome Smart Backlight Compatible ST1 B</t>
+          <t>Ruko Programmable Interactive Control Present</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Weak and has a subtle flicker. Very basic.
+Not what I ordered and was used no charging cord and scratches
 </t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t xml:space="preserve">The lights only have 6 colors available in their remote, but that’s not the main issue. The connector where the lights plug into the harness broke completely after a week and was finicky from day 1. I had to wrap the connector in tape to hold it together just enough for the lights to work. When they worked they were fine but overall a waste of money.
+          <t xml:space="preserve">Immediately, it started telling my kid a story about a little girl who killed their grandma and banished them of demons. Now it’s talking in Korean and asking my child to keep secrets…. So… at least it dances. I think I’ll be returning this.
 </t>
         </is>
       </c>
@@ -3708,19 +3689,19 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>GHome Smart Backlight Compatible ST1 B</t>
+          <t>Ruko Programmable Interactive Control Present</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Very bright and easy to install
+Robotics
 </t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lights are cool. BUTWhy is it so important to give up your privacy to use lights??The app wants access to your location, contacts, photos, camera, wifi to scan your network and some I am sure I am forgetting. I couldn't get the app removed from my phone fast enough.... The $10 price tag isn't worth giving up that kind of info.
+          <t xml:space="preserve">Very disappointing and a waste of money! "Carl" was very exciting at first, but was short lived. It broke within a couple months. It would just repeat the same thing over and over and would not follow any of the commands we tried, and then would not charge or turn on at all. My kids are 5 and 7, and did nothing that you would expect to break it. We contacted Amazon and they referred us to Ruko. We never heard from Ruko after multiple attempts.
 </t>
         </is>
       </c>
@@ -3728,19 +3709,19 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>GHome Smart Backlight Compatible ST1 B</t>
+          <t>Ruko Programmable Interactive Control Present</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Connector broken out of the box
+Possessed
 </t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t xml:space="preserve">These things WOULD be awesome except that to control them with the app you have to give your network name and password. There’s absolutely no way I’m willing to do that. I’ll stand corrected if there’s another way to operate them via the app, but as it stands I would never recommend buying these.They do work and are pretty cool looking, but without the app you can’t finesse all the options.I’m going to return them.
+          <t xml:space="preserve">could not hold a charge
 </t>
         </is>
       </c>
@@ -3748,19 +3729,19 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>GHome Smart Backlight Compatible ST1 B</t>
+          <t>Ruko Programmable Interactive Control Present</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Lights are cool, but you must give up your privacy to use app.
+Broke within 2 months! No customer service support!
 </t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t xml:space="preserve">Very good adhesive. Only good about it. I have downloaded there app trying to controlled. No luck after 11/2 hr trying different things. I have never had so much trouble with pairing any equipment. I have lots others smart lights. This product would have been better to have its own remote to control it. Also would not work for 65 in TV’s. Way too short. Probably 45 to 50 in.
+          <t xml:space="preserve">Terrible product. First of all this was a used item even though I bought brand new. The box was ripped up on the outside. Did not even come with charger to charge the robot. The remote control doesn't even work with this robot. Stuck on Spanish mode. Save your money and keep looking for a better robot.
 </t>
         </is>
       </c>
@@ -3768,21 +3749,19 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>GHome Smart Backlight Compatible ST1 B</t>
+          <t>Ruko Programmable Interactive Control Present</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
           <t xml:space="preserve">
-A big nope!
+Could not keep a charge
 </t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                    The media could not be loaded.
- It’s pretty awful. Skip it. Ordered (2) of same, yet got different brands/manufactures. Forced to use 2 different apps. Fail…The lighting itself was horrible. Never seen LED dots project as bad as it did. You could see every dot individually. Wanted warm white/yellow to install in the pocket I made in my baseboard, however there isn’t a small run except the tv models. Now I gotta get 16ft and cut a lot off.No matter how I dialed in it came out as yellowish green. Then I accidentally hit a button and my kitchen went instant suburban strip club. Pass… I’m good.However I will have to honestly say I’ve never seen adhesive that strong! Almost tore the molding off trying to get it off. Tore in multiple places I had to pull so hard. Threw it away and gave my neighbor the other for his kids. I’ll seriously give it an A++ on adhesiveness.
+          <t xml:space="preserve">My child does't enjoy playing with it, it's to complicated with the remote control MANY, MANY buttons and to boring with out the used of the control - I WATED MY MONEY FOR SURE
 </t>
         </is>
       </c>
@@ -3790,19 +3769,19 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>GHome Smart Backlight Compatible ST1 B</t>
+          <t>Ruko Programmable Interactive Control Present</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Not parring up
+Terrible
 </t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t xml:space="preserve">How can you advertise that it fits up to 60” if it’s 31” too short? Another reviewer stated the same - my bad, I should have read all reviews instead of going by the merchants specs. Disappointed.
+          <t xml:space="preserve">We got it as a birthday gift for our 5 year old son, he was very excited to have as it looks very nice and quite big. But when son started to play, we realized that robot keep talk and do same staff over and over again, non stop. When you talk to it (it supports some commands) it will say "got it" and do something else. Remote control stopped to work after I downloaded their application, so now my son can control robot only with my phone
 </t>
         </is>
       </c>
@@ -3810,19 +3789,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>GHome Smart Backlight Compatible ST1 B</t>
+          <t>MODS GAMING Console Handheld Gamepad</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Got 2 different brands, so needed 2 separate apps
-</t>
+          <t>An excellent well thought-out product.</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t xml:space="preserve">As soon as we separated the tape to apply, the tape automatically separated from the LEDs themselves &amp; became defected. We ended up just throwing away.
+          <t xml:space="preserve">This was a great product for the first day or two, but it did not last.. the screen goes black and stops working a few minutes into playing. Made sure batteries were new and it was charged, but it continued to not work.
 </t>
         </is>
       </c>
@@ -3830,19 +3807,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>GHome Smart Backlight Compatible ST1 B</t>
+          <t>MODS GAMING Console Handheld Gamepad</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Doesn’t fit 55”….
-</t>
+          <t>Ehh</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t xml:space="preserve">No sirve ya se arruinó no encienden las luces no aguanto ni un mes tire mi dinero a la basura por un producto de mala calidad
+          <t xml:space="preserve">Was really excited to be able to play some retro games however after playing for 30 minutes, the screen completely froze and no matter how many attempts at restarting the product, it remains frozen and unusable.
 </t>
         </is>
       </c>
@@ -3850,17 +3825,19 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Echo Glow</t>
+          <t>MODS GAMING Console Handheld Gamepad</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>My 5 year old loves this as his night light !</t>
+          <t xml:space="preserve">
+Does not work
+</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t xml:space="preserve">The goodIt's cool lookingThe bad1. You have to have a speaker for this thing to take commands. It doesn't have its own microphone so I have to shout to my Alexa in the kitchen to turn this light on in the playroom. And no, I'm not willing to buy more smart speakers.2. I really needed a stoplight color sequence. Red to yellow to green. This is such a common useful scheme for kids, especially toddlers to understand, but to set that up, i have to do a routine. Which means I have to have it preset, like the duration or the time it starts. That's not realistic or convenient.3. My workaround to number 2 is a routine that doesn't work the way I have it set. The light is supposed to be green but instead it's going through the rainbow, and I have it set to single color: green.4. The rainbow timer is garbage. It can only change color in 30 second increments, and it doesn't blend from one color to the next, like you'd expect. It just suddenly changes. And not even in a logical color sequence. Kids will have to memorize the order of the color sequence to get anything out of it in terms of a count down. It's no more useful than to have a single color just shutoff suddenly when time is up. I bought this as a visual timer for my three year old, and I can't use it that way.I bought this to give my kids visual timer cues. If that's what you need this for, skip it. BTW, I also have the Hatch Rest, and it has a similar foolish ui. How hard is it to design a stoplight color scheme visual timer that can accommodate dynamic durations? Seriously.I regret buying this light.
+          <t xml:space="preserve">This is a POS!! I purchased as a gift and when you go to put batteries in it, they just flop freely in the battery compartment in the back of the TV console. It's junk!! If the batteries aren't connecting to anything it will never work.
 </t>
         </is>
       </c>
@@ -3868,17 +3845,19 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Echo Glow</t>
+          <t>MODS GAMING Console Handheld Gamepad</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Good, but with significant flaws</t>
+          <t xml:space="preserve">
+Broke after playing for 30 minutes
+</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t xml:space="preserve">Updated 02MAR20:So unfortunately I can no longer recommend the Glow.  I bought this at end of September when it was released, however did not unbox it until after Christmas as it was a gift for my 10 year old (who needs a nightlight). Everything was fine until it stopped communicating one night - to never connect again. (This happened once or twice previously and I just unplugged it and plugged it back in, reconnected and moved on). Now, no matter how many times I tried to connect, delete, reinstall, etc - it just would not connect to wireless. It is right next to an Echo Dot that is not having any issues, however I moved it right next to my router and tried different networks and even a hotspot and it just would not connect to wireless. Tried different devices to connect it with (iPhone, iPad, PC). Just spent over an hour with Amazon (doing the same things I've already tried many times......) and was told that it's out of warranty. I was put on hold while the customer service rep checked with a supervisor to see if I could get a one time extension on the warranty so that I could get a replacement (his suggestion, not mine) and then after a long wait was told that no, it was not approved. I wonder when this does get approved? Apparently not in my case. However, they will give me 15% off of a new one! Seriously? I have a device that worked for less than two full months and I'm going to by another? Thanks Amazon.Now I can see in other reviews that this has also been an issue which makes me even more mad that they are not replacing it. (First they blamed it on my wireless, then my device (iPhone) that I was using to set it up, and then ultimately after going through all of the motions again they know that it is the device but sorry... out of warranty). I think that it doesn't cost them much to replace these for the customers having this issue. Would've went a long way with me but I am definitely not planning on purchasing any additional Amazon devices in the future.Initial review: I got this primarily as a night light in my 10 year olds room. It’s about the size of a softball and I use either my Alexa app or Echo to control it. You can also activate a tap feature via the app that allows you to change color, etc by tapping the Glow directly. I like that there are many different color and pattern options (and even more combinations recently added automatically). My son likes to set his Glow to ‘ocean’ and then have Echo play ocean sounds softly at night. Perfect combination. I also set it up so that the Glow lights up in the morning on school days as a wake up alarm. (I also added Echo to also say a good morning at same time). I love that we can control the brightness of the Glow as well. You can make the light as soft as a small night light or bright enough to light up the entire room. The Glow stays cool to the touch as well.Overall I love it and recommend, whether or not you have Echo or another device in room.
+          <t xml:space="preserve">I got this as a little fun gift for my husband's 34th birthday. He was excited, especially for using the throwback controller. I didn't expect much at the price, but thought we'd at least get a chance to use it. I set up the batteries and plugged it in to charge for 4-6 hours as the manual instructed. It started making this loud buzzing sound eventually and I found it leaking battery acid. It was a mess. I checked and I had put the batteries in correctly. I guess mine was a dud or something. Bummer since it was a let down on his bday for it not to work.
 </t>
         </is>
       </c>
@@ -3886,19 +3865,19 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Echo Glow</t>
+          <t>MODS GAMING Console Handheld Gamepad</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Misses the mark
+JUNK DON'T BUY!!
 </t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t xml:space="preserve">We got this nightlight, that has no other capabilities, just changing color and brightness, in June of 2022. At the time of purchase I did not have to fill out any consents to control it via the Alexa app. Yesterday, after 10 months of using it with no issue and really liking the product, I went to switch colors for the light and was told that it was not properly set up, again after 10 months of use. I clicked to complete the setup and was told that I needed to give “parental consent”, I looked at the consent, I attached a picture above. To me  it is extremely disturbing the things that Amazon would like permission to collect from our minor children. I clicked on “No, thanks” and was then taken to the next pictured screen. It says if I don’t give consent, then we won’t be able to control the nightlight via Alexa app anymore and “certain other kid’s services”, how vague.We also own 4 of Amazon’s kids tablets. Now, things are becoming more clear. Amazon wants to have access to my minor children thru their devices. I can understand tracking games they’re playing and using that data to suggest other apps they might enjoy, but why would Amazon ever need access to the pictures and videos that my kids take on their tablets and why does Amazon need my children’s location? We’ve had the tablets for a few years and I never saw or signed a consent form for this either.What kind of data is a nightlight, that supposedly has no other capabilities collecting? And have my kids tablets been used to watch my children? That’s just speculation, but in my home we will not be taking that chance. We are going to be removing all of our Amazon products from our home, including: 4 tablets, an Amazon dot, and our night light.Tread lightly, parents.
+          <t xml:space="preserve">I bought 2 of these. Both had the battery metal brackets missing l. I bought one for Christmas and one for a birthday. Both junk
 </t>
         </is>
       </c>
@@ -3906,19 +3885,19 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Echo Glow</t>
+          <t>MODS GAMING Console Handheld Gamepad</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Edited: Do not purchase this! Problems that will not be addressed by Amazon with connectivity
+I followed the manual but it malfunctioned
 </t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t xml:space="preserve">I am very loyal to Amazon.  At last count we have 10-15 Amazon devices in our house.  My wife pre-ordered one of the very first Echos years ago.  We have dots, shows, firesticks, kindles, etc.  So needless to say my kids were very excited when I ordered this.  We received it on November 20, 2019 which I believe was the first day they were available.  My first impression was . . .Meh.  But, I figured it was brand new and they would send out firmware upgrades to give it more usability.  NOPE. . .  Whatever. . .my kids still enjoyed making it change colors.Fast Forward to April 2020.  I upgraded my wifi router which meant that I had to reconnect all my devices.  All my echo devices handled the router change like champs. . . That is except this one.  I may not be an expert, but I am no technical slouch.  So, I contact Amazon technical support and spent two hours on a chat with them going through all the steps to reconnect it.  First they said there was an issue with my Alexa app.  So, uninstalled and reinstalled it. No dice.  They had me do, I don't know how many resets of the glow which did nothing.  We removed it from my devices. . . At one point, it was constantly blinking green and blue, but the tech had no idea what that meant.After about two hours of going through all this, it was finally determined that there is a problem with the device.  Fine. . . send me a replacement.  NO CAN DO.  The warranty already expired. SERIOUSLY?  Yep. . .While all other Echo devices have a one year warranty, for some reason this only has a 90 day warranty.  It's almost as if  they knew that it was a piece of junk.  I even pulled the, "I've been loyal to Amazon since 1998 and have been loyal to Amazon devices" card.  Yeah, I know, not the classiest move.  But, apparently there is nothing that they can do.  Honestly, it is truly disappointing.  Not so much because I'm out the money, but because Amazon won't stand behind their product. . . Oh well.  Live and learn.  But I would definitely not recommend this product.
+          <t xml:space="preserve">Worst buy ever. The product does not work. It will not even turn on after charging it and inserting batteries. Also instructions are not clear in package.
 </t>
         </is>
       </c>
@@ -3926,19 +3905,19 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Echo Glow</t>
+          <t>MODS GAMING Console Handheld Gamepad</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Used to love it, not anymore.
+Bought 2 and the battery metal brackets were missing
 </t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t xml:space="preserve">Two ancillary points to be made about the device itself: the light is not bright enough to use for reading, and the device is very, very small. The pictures don't really tell you how small it is.But more importantly, your family's and specifically your child's privacy will be lost with the use of the device.This review is not about Alexa listening in on your child's conversations. It is about Amazon availing themselves of the fact that the device was created for children so they can tap into all the information your Amazon account might hold on the children. When you set it up, Alexa tells you that you MUST give parental consent to be able to use the lamp. Even if no child is using the lamp or if there is no child in the home.But here's the kicker: in giving parental consent to your children's profiles, you are also giving Alexa consent to your own! JUST TO TURN ON A LIGHT!The disclosure reads:"Your permission will apply to the following profiles:For certain Amazon kid services, like FreeTime on Alexa, we need permission to collect personal information. Your consent will apply to Amazon's collection of personal infomration in connection with all kid services requiring permission."It then goes on to list all the profiles under your Amazon account to which you are granting it access. Then you put in your Amazon password. Then you put in a 6 digit code they text you. Then you read a parental consent form (Am I checking in to a skydiving facility with my child here, or just turning on a lamp?!) that includes the following statement:"...children may share and we may collect personal information...(which) could include, for example, name, birthdate, contact information (including phone numbers and e-mail addresses), voice, photos, videos, location, certain activity and device information, and certain other types of information..."This is vile and offensive. Amazon is so desperate to get at your family's information that they use a child's lamp as an excuse to access it, all in the name of your child's protection.I could not rail against a device more than I do this one.
+          <t xml:space="preserve">Bought as a Christmas gift for my daughter and it was an huge disappointment. It was not as advertised and our experience was much different than the reviews I read. The controller kept losing connection and we could not navigate to a game. Also, not sure if we missed a setting somewhere but ours was not in English. Needless to say it will be returned.
 </t>
         </is>
       </c>
@@ -3946,19 +3925,19 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Echo Glow</t>
+          <t>MODS GAMING Console Handheld Gamepad</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Basically an expensive light bulb that didn't last 5 months
+Waste of money!!!
 </t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t xml:space="preserve">Update: Still one star, but a better description why. TL;DR at the end.Amazon called me after I posted a one star review - they wanted to talk through the issues I was having and understand what was going on. I don't think we got anywhere on the call, though now I think I have a better explanation of what went wrong.My realization hinged upon a weird point in my conversation with the Amazon tech - he seemed to think the Echo Glow was plugged into an Echo Flex, but I explained that, no, it's a standalone unit that comes with its own power supply. This bothered me and so... I tried plugging it into my Echo Flex.And, connected to the Echo Flex, it works very well. The Glow has its own WiFi internally, but there's no need for that when connected to an Echo Flex. And the Echo Flex seems to remember its own configuration, while the Glow is designed not to.I don't think all parents want Alexa in our child's bedroom, we wanted a standalone device to help with bedtime and gloomy mornings in winter. The Glow ships with its own power supply, but it's crippled if you use it in that configuration. It can't store settings, so you have to reset it every time your child unplugs it or your house loses power, and sometimes it just forgets. As others have mentioned, the "Simple Setup" that works so well with the Echo Flex just... doesn't. You have to go through a manual setup process if Simple Setup fails - it usually does on my device - and if the Glow is not in the same room as my WiFi Access Point, Manual Setup also fails and has to be rerun several times before it succeeds. As it happens, my WiFi Access Point is not in my child's bedroom, so the process is somewhat frustrating.But if you plug it into an Echo Flex, it's immediately recognized and available for Alexa voice commands and control via the app.The standalone operation of the Glow when not connected to a Flex, then, seems really to be an afterthought, and for many parents, likely less useful compared to a $2 nightlight or a Hue bulb. Maybe the Flex+Glow is the normal use case, but for me, it's not.TL;DR: If you only plan on using the Echo Glow as an accessory plugged in to an Echo Flex, it's fine. Otherwise, it's junk.
+          <t xml:space="preserve">No stars. This was a Christmas gift. It worked fine for a few minutes of playing with it then it started leaking out black stuff and stopped working
 </t>
         </is>
       </c>
@@ -3966,19 +3945,19 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Echo Glow</t>
+          <t>MODS GAMING Console Handheld Gamepad</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Extremely intrusive on yours and your child's privacy
+Poor quality and not as advertised
 </t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t xml:space="preserve">This is supposed to be a smart lamp designed for kids. I got this mainly to be used as a night light for them.The problem is, the way you change the colors is by tapping, but every time you tap it, it reverts to 100% brightness. And on top of that it’s not actually a button or a touch sensor for the tap, it’s a vibration sensor. So a child jumping around or stomping near it will cause it to change. There is a way to disable the tapping but then they can’t change the colors on their own as easily. It seems like they should be able to update the firmware or something so that the tapping doesn’t change the set brightness. Hopefully they will fix it in the future and if they do I’ll try and remember to change the star rating here. But until then I’m disappointed in it.
+          <t xml:space="preserve">Battery compartment is broken, missing a connection. Won't turn on with the cord either. Got it for my son as a gift . He was so excited but now is disappointed.
 </t>
         </is>
       </c>
@@ -3986,19 +3965,19 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Echo Glow</t>
+          <t>MODS GAMING Console Handheld Gamepad</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Junk
+Dangerous
 </t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Device murdered my Echo!!!While it does turn on and auto connect to The Echo and the Alexa app- it doesn’t stay on the setting you choose and just changes on its own to flashing multicolored light show which is obnoxious, however the worst thing is from the minute it connected to my Echo it started glitching like crazy, volume up and down and cuts out and restarts and doesn’t play or stops playing mid podcast or song then restarts in a different part of the playback, doesn’t recognize my voice and now even unconnected my Echo is not the same. I don’t know what it did to the Echo programming but I use my Echo for everything and now it’s screwed. Very upset and disappointed.Oh and on the variations of light choices none of them are dynamic or worth the price of this. When you choose ocean it turns blue. That’s it. Choose campfire and all it does is blink from red to orange. Beyond all the other stuff even if it didn’t kill my Echo, I still wouldn’t want the thing. Completely false advertising of a useless and rudimentary device.
+          <t xml:space="preserve">It didn’t work I tried everything in my power to get it to work but I couldn’t get it to working!!
 </t>
         </is>
       </c>
@@ -4006,19 +3985,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Echo Glow</t>
+          <t>Segway Robotics S1RC340 Loomo Dev</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-One annoying issue ruins it for me
-</t>
+          <t>You need to know programming to get the most out of it.</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t xml:space="preserve">I just got two of these. The setup process isn't like the other Echo devices in that you have to establish a direct connection to the Glow from your device, even if you already own an Echo. The Alexa app doesn't even list it as an Echo device, so you'll need to search for the name to find the setup.The other gotcha is that after setting up the first Glow, the second would not connect during the setup process. It kept connecting to the original one, and the Alexa app shows an option to "Finish setting up your Glow" which would direct me to the original Glow. The only way to complete the set up was to unplug the first Glow, complete setup with the second, then power the first one on again.I've long had a low opinion of Amazon's devices (aside from the always excellent Kindle line) and this one is one of the worst ones. Maybe consider just buying a regular lamp with a TP-Link smart plug to get a smart night light?
+          <t xml:space="preserve">The comments about Loomo will continuously update and grow with you is completely farce as of right now. Only 2 updates have happened in this past year and one of the updates was stated as "locomotion" that it. Go on the websites forums and see how the developers never respond before making this purchase. I promise, it's not worth it
 </t>
         </is>
       </c>
@@ -4026,19 +4003,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Echo Glow</t>
+          <t>Segway Robotics S1RC340 Loomo Dev</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Anything but Smart
-</t>
+          <t>When the battery goes out? Can’t find another.</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t xml:space="preserve">The light was very hard to connect to the WiFI, and when it did, it didn't last very long.  Within the span of one day, I had to remove and reconnect the light to my network.  After the third time, I gave up.  Also, the fact that it doesn't have a speaker or mic was highly disappointing.Edit: I got a replacement and have the exact same problem.  It connects to the network and my Alexas work in turning on/off/changing colors.  However, next morning, again, it didn’t work.As a tap light, it’s cute and my kid likes it, she wants to keep it as a light.  As a smart light, it’s terrible.  Horrible quality issue with the “smart” side.Also, the fact that it’s called “Echo” is very misleading.  As you will see in other reviews, there is neither a mic or speaker on this device.  It’s pretty horrible that they couldn’t even put an Echo Dot into the base.Second Edit: Apparently I had to connect my Glow to a hotspot to get it to patch.  The patch helped for 4 days until it started acting up again.  I just had to reconnect again...Third Edit: I had to connect it to my Glow to get yet another patch (166) and now it seems like it's back to its old self where it connects once and refuses to be acknowledged as a connected device until I reset and resync again.  Given that I have to connect it to a hotspot to get it to patch, I'm willing to bet the wifi is just terrible on it.  I know it's not my internet because my phone gets great speeds and it's literally sitting next to an Echo Dot that works just fine.
+          <t xml:space="preserve">This is no longer the company that introduced the Segway years ago.  I still have two segways that I purchased 1n 2011, charge them as I am supposed to, never had to replace batteries, only 9 pairs of tires in each one of them, which tells you that they are used.  Segway was created by Dean Kamen and sold its first unit in December 2001.  Due to the cost it never manage to sell a number of units to support its Operations and consequently was sold to Chinese mobility company Ninebot, in 2015.  What you are buying is Chinese product, with Chinese customer service and Chines support.  Sadly, the only statement that could made, if you spend your hard earned money, is "Good Luck", you will need a lot of it.
 </t>
         </is>
       </c>
@@ -4046,17 +4021,19 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>AIKVSXER Flush Mount Ceiling Light</t>
+          <t>Segway Robotics S1RC340 Loomo Dev</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Perfect for the laundry room!</t>
+          <t xml:space="preserve">
+No updates
+</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t xml:space="preserve">It buzzes when on any setting. Just loud enough to be heard and be annoying in a quiet room. It’s the kind of buzz you might get from old fluorescent lighting warming up but this buzz never fades away.Other than that it’s a typical made in China production - poorly translated instructions and sketchy app with registration required for some features like Alexa. The rated lumens are nowhere near what you’d expect. Roughly the same output as a LIFX BR30 rated for about half of this lamp’s advertised output.
+          <t xml:space="preserve">Just like everyone else, I'm disappointed. I spoke to Segway via email. They directed me to Ninebot and vice versa. I've owned Loomo for approximately 3 years. Not one update. Battery is now depleted, can not get a new one. Robot mode is completely outdated. It is now a 2000 thousand dollar statue.
 </t>
         </is>
       </c>
@@ -4064,17 +4041,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>AIKVSXER Flush Mount Ceiling Light</t>
+          <t>Complete Earthquake Bag earthquakes hurricanes</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Evenness of color is great; only problem is very weak Wifi signal.</t>
+          <t>Very good selection for it's size!</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t xml:space="preserve">Randomly goes offline. Had to reset multiple times. Device no longer connects after 3 months of use.  Took a chance on low cost device and lost.
+          <t xml:space="preserve">This product has a lot but ultimately is very cheap.  The backpack zipper was already ripped upon arrival. I can see why, there is no way all this stuff should be shoved into one, very low quality backpack.  Like I said, you get a lot for the price, but ultimately I would have to buy a new better quality bag to store everything in; so it is not as convenient as hoped.
 </t>
         </is>
       </c>
@@ -4082,19 +4059,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>AIKVSXER Flush Mount Ceiling Light</t>
+          <t>Complete Earthquake Bag earthquakes hurricanes</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Electrical BuZZZZZZZZZ = super annoying
-</t>
+          <t>Non returnable/refundable</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t xml:space="preserve">The light kept blinking and unable to connect to wifi 2.4G. Installation was not that easy because the base hard to click into the light. Very annoying.
+          <t xml:space="preserve">The 4 in 1 flashlight, phone charger, radio phone alarm doesn't work.  Found this out during the pge power shutdown!
 </t>
         </is>
       </c>
@@ -4102,19 +4077,19 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>AIKVSXER Flush Mount Ceiling Light</t>
+          <t>Complete Earthquake Bag earthquakes hurricanes</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Progressively unreliable
+Low quality backpack
 </t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t xml:space="preserve">Does not connect to WiFi. I do not recommend purchasing this item.
+          <t xml:space="preserve">Be aware, this is a knock-off product. This is not a Persever CMS 50-DL Fingertip Pulse Oximeter as advertised.  Quality is poor; does not function; poor instruction manual.
 </t>
         </is>
       </c>
@@ -4122,19 +4097,19 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>AIKVSXER Flush Mount Ceiling Light</t>
+          <t>Complete Earthquake Bag earthquakes hurricanes</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Not working
+Couldn't get phone charger to work during power shutdown
 </t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t xml:space="preserve">After having to reconfigure my home internet Wi-Fi to accommodate the slower speed that this thing needed it still didn't work. I spent over an hour trying to get it to work Don't bother with this thing
+          <t xml:space="preserve">The zippers are "very" cheap one zip and they break !!!!Buy your own backpack from a good outdoor shop, this back is made on the Cheap !!!
 </t>
         </is>
       </c>
@@ -4142,19 +4117,19 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>AIKVSXER Flush Mount Ceiling Light</t>
+          <t>Complete Earthquake Bag earthquakes hurricanes</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Unable to connect to wifi 2.4G
+Knock-Off Product
 </t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t xml:space="preserve">When I walk into the room it’s in, once I flip the switch to turn it on, I can walk halfway across the room before it comes on. There is a huge delay as to when it illuminates.
+          <t xml:space="preserve">very bad quality. Came with broken Zipper  ...
 </t>
         </is>
       </c>
@@ -4162,19 +4137,19 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>AIKVSXER Flush Mount Ceiling Light</t>
+          <t>Complete Earthquake Bag earthquakes hurricanes</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
           <t xml:space="preserve">
-No
+Don't Buy "Cheap Zippers"
 </t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t xml:space="preserve">Very difficult to connect to WiFi, always interrupted
+          <t xml:space="preserve">Too heavy. Not worth the money
 </t>
         </is>
       </c>
@@ -4182,19 +4157,19 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>AIKVSXER Flush Mount Ceiling Light</t>
+          <t>Complete Earthquake Bag earthquakes hurricanes</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It’s annoying
+Came with broken Zipper
 </t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t xml:space="preserve">it doesn't work anymore after two weeks
+          <t xml:space="preserve">i wrote a lengthy review on the redfora website and it was deleted they had no one star reviews and that is why. stay away from this product it is very overpriced and not at all good quality. i cannot believe that somebody can sell this as a 'complete' emergency bag. find a another bag or make your own. when i recieved the bag i contacted customer service and they gave a full refund and didn't even want me to return the bag, clearly didn't want me to leave a bad review. but it felt that this could effect someones life in a emergency and i should inform people on there website. my review was deleted. find a different bag and stay away from redfora.
 </t>
         </is>
       </c>
@@ -4202,17 +4177,19 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Kasa Smart Light Dimmable TP Link</t>
+          <t>Complete Earthquake Bag earthquakes hurricanes</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Mixed Feelings</t>
+          <t xml:space="preserve">
+Too heavy
+</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t xml:space="preserve">Was never able to get these to work through the app. Also; the lighting is super yellow and the highest setting is dim. I prefer a whiter, brighter, more natural light. Returned them.
+          <t xml:space="preserve">You could replicate this exact same “emergency” kit for 1/4 the price easy. Materials are low quality unreliable, and I fear for anyone counting in this product to fully get them through any disaster. Save your money.
 </t>
         </is>
       </c>
@@ -4220,17 +4197,19 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Kasa Smart Light Dimmable TP Link</t>
+          <t>ELECFREAKS microbit Programmable Educational Hardware</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Need new firmware to work on larger networks as of 2021-09</t>
+          <t xml:space="preserve">
+DOES NOT WORK!!!!!
+</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t xml:space="preserve">My initial impressions were very good -- the Kasa app used to control the bulbs is very intuitive and full featured, and installation/setup was easy, especially compared to other smart bulbs I've used.  However, the bulbs will not stay connected to the app.  Whenever I exit the app on my phone the bulbs disconnect, and the only way I've been able to reconnect them is to cycle the light switch on and off -- which defeats the purpose of a smart bulb!  I tried factory resetting the bulbs, updating the firmware, uninstalling and re-installing the app, unlinking and relinking the bulbs, etc., and each time the problem appears as soon as I exit the app.  I am returning the bulbs.
+          <t xml:space="preserve">We are so disappointed!  This is a small country school with a brand new robotics club.  This was a very expensive purchase for us (we did fund raisers).  The dog would not even turn on after charging.  We opened him up and found several loose wires, etc...  We connected them, and now he turns on maybe 2 times and then will not turn on unless we open him up and toggle the reset.  Then he will turn on 1-3 times and repeat the needed reset.  This is unacceptable to new programmers!  We don't know if the bugs we have are ours or the dog's.....  We would LOVE this thing if it worked!  We would LOVE to get a new one and send this one back!  Please tell me how!
 </t>
         </is>
       </c>
@@ -4238,19 +4217,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Kasa Smart Light Dimmable TP Link</t>
+          <t>ThinkFun Gravity Marble Logic Girls</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Too complicated and not very bright
-</t>
+          <t>Gravity maze</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t xml:space="preserve">Just don’t try it. Should have give with another bulb that certifies it works with the HomeKit.
+          <t xml:space="preserve">First off, the reviews are very mixed and misleading. I bought the gravity maze but the laser maze and circuit maze reviews are all mixed in. Shame on me, I saw 32000+ reviews and almost 5 stars so I bought it without reading the reviews. It was for my son as a Christmas present for him and I to tinker with. Immediately when we opened the box I was shocked at how few pieces there were. When you assemble the maze, it’s not nearly as fun as you hope. It’s over before you blink; it literally happens so fast your eyes can’t even process what happened.When we use the cheat sides on the more difficult cards and line the dots up exactly how they’re pictured on the card, the marble doesn’t drop the way it’s marked on the card and falls out prematurely. Almost like the dots aren’t where they’re supposed to be on some/all the pieces.Insult to injury, because I bought it in September, by the time Christmas came, it was too late to return. Very disappointing all around. Nothing worse than a disappointing Christmas present.I do not recommend this game for any child, or adult for that matter. It’s a waste of money in my opinion.
 </t>
         </is>
       </c>
@@ -4258,19 +4235,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Kasa Smart Light Dimmable TP Link</t>
+          <t>ThinkFun Gravity Marble Logic Girls</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Will not stay connected to app
-</t>
+          <t>Good gift but very basic</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t xml:space="preserve">I have really strong,  reliable service with Verizon LTE Home Internet. I live rural and I use it to wfh. It's 10 x faster than my old satellite internet. I reliably stream with it. I have downloaded and uploaded huge work files in seconds. I get speeds comparable to traditional broadband. I have other smart devices connected including smart plugs, two smart tvs, speakers, etc. One of my smart tvs is at the far end of my 75 feet long ranch home and it connected like a dream. Yet these wouldn't pair. One of the light fixtures is a mere 5 feet away from my router. I even tried dragging the lamp over to the router so that it was practically touching it. Wouldn't pair. Tried restarting my router. No luck. Tried alternate pairing methods referenced in the guide. Nope. Returned.
+          <t xml:space="preserve">iI is very important to know about this game that it does not work.  My daughter was so happy with the gift, but when we sat down at the table with her and started trying different combinations, we were disappointed!  Everything works very badly.  Dominoes fall crookedly, not right, it turns out very rarely!  I strongly recommend not to buy this game!  My kids  Christmas was ruined, she just said "Why it doesn't work?  How can that be?  How can this be done for children?  Mom, this is terrible!  Good luck in business!
 </t>
         </is>
       </c>
@@ -4278,19 +4253,19 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Kasa Smart Light Dimmable TP Link</t>
+          <t>ThinkFun Gravity Marble Logic Girls</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Incompatible with Apple Kit
+Terrible!
 </t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t xml:space="preserve">Imagine yourself in your brand new home.  You're getting used to every noise and creak.  You install wireless lightbulbs because it's really cool.  At 2:34 am the power flickers and all of a sudden- every lightbulb is on in your house.  And your internet is rebooting- so once you figure out what's going on you start screaming at google- but he can't hear you.  You're on your own.  You unscrew and unplug and turn every switch off.  The next evening you try to turn the living room lights on... And nothing happens.  Because you killed the switch.  Never again.
+          <t xml:space="preserve">My 8 and 11 year old boys were very excited to play with this game after finishing a science unit on electricity in school. Unfortunately it's very cheaply constructed and the pieces do not connect well, which causes the lights to only barely light up, if at all. This game was a big disappointment and I would not recommend it at all.
 </t>
         </is>
       </c>
@@ -4298,19 +4273,19 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Kasa Smart Light Dimmable TP Link</t>
+          <t>ThinkFun Gravity Marble Logic Girls</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Couldn't get to pair with Verizon lte home internet
+This is not game! This is trash!
 </t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t xml:space="preserve">My bulb failed just before the warranty expired. I was unable to contact Kasa until a week after it expired and they asked me to do some troubleshooting. When that was complete, they gave me the run-around a while longer then refused to honor the warranty even though the bulb went bad while the warranty was still active. If you're looking for a long term solution, do not buy Kasa bulbs. Spend your money more wisely and buy something that will last or you'll be stuck having to buy these bulbs every 2 years. Kasa doesn't stand behind their products and neither should you.
+          <t xml:space="preserve">I open box and it was just like this all used with other toys in it marked TGIF restaurant toy with scotch tape on it and little bit dusty all around used pencil. When it clearly said brand new.
 </t>
         </is>
       </c>
@@ -4318,19 +4293,19 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Kasa Smart Light Dimmable TP Link</t>
+          <t>ThinkFun Gravity Marble Logic Girls</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
           <t xml:space="preserve">
-All of your lights will turn on in the middle of the night
+Disappointing Quality/Function
 </t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t xml:space="preserve">I downloaded the Kasa application and it gave me a lot of work to connect them to the Wi-Fi and a week later one was disconnected and no matter how much I tried it only connects when I put it directly to the internet but then my phone disconnects because the bulb connects directly to the wifi!!😒
+          <t xml:space="preserve">Purchased this for my 10yr old son. looked like a solid product from the description. however, after we tried to assemble the first couple of 'circuits', we found they didn't work. at first it was a matter of making sure the (+) and (-) on each piece was correct. then still didn't work. pressing harder on the blocks, and the lights came on. that is when i realized that the contact points between the blocks do not make good contact at all. on top of the problems with the blocks themselves, some are hard to get in and out of the board, others fall out randomly. there is no way to know which block is causing the 'circuit' to fail. needless to say, my son and I both are disgusted with it after just a short period of time. i have since seen a couple of other 'snap together' style kits out there, that are like this one. snapping the pieces on top of each other, rather than putting them next to each other, would solve the problem with the contact points in my opinion. we may try to purchase one of those kits and see how they work out. as for this one, my advice is to stay away. it is not worth the money, the product does not work reliably, and will just cause more grief.
 </t>
         </is>
       </c>
@@ -4338,19 +4313,19 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Kasa Smart Light Dimmable TP Link</t>
+          <t>ThinkFun Gravity Marble Logic Girls</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
           <t xml:space="preserve">
-DO NOT BUY - Will fail as soon as the warranty expires
+This Is Not New
 </t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kasa system overall here sucks way much time. Have to do multiple attempts to get something not to work. 45 minutes on a replacement bulb and it still has issues. Finding this to be the case with most Kasa product we own which is a lot for the home lighting and other controlled items. Life should not be this difficult.
+          <t xml:space="preserve">This kit looks both fun and educational.  The reviews I read of it were positive.  Our grandchildren were excited to receive it, but it doesn't work consistently.  Sad grandsons.  Sad grandmother.
 </t>
         </is>
       </c>
@@ -4358,19 +4333,19 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Kasa Smart Light Dimmable TP Link</t>
+          <t>ThinkFun Gravity Marble Logic Girls</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
           <t xml:space="preserve">
-So difficult to connect!!😏
+Good Concept, bad quality and execution.
 </t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm returning them they have a flickering issue. Its annoying. I tried different lighting and after a few seconds it would flicker.
+          <t xml:space="preserve">Game is not engaging and too complicated for kids. I'd say age is more like 13+. My 9 year old lost interest very quickly. Also the pieces are fairly hard to put together, making it all that much less entertaining when they struggle to set up the board to start playing. Would not recommend.
 </t>
         </is>
       </c>
@@ -4378,19 +4353,2059 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Kasa Smart Light Dimmable TP Link</t>
+          <t>ThinkFun Gravity Marble Logic Girls</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Dim Review
+Disappointing
 </t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unlike every other plug, lightbulb, router, air quality device, and hygrometer on my network these take up to 10 seconds to respind to a voice command to Alexa.  The bulbs are 7 feet from the rouer antenna.
+          <t xml:space="preserve">Kids didn't like and had no fun. Waste of money and collecting dust.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>ThinkFun Gravity Marble Logic Girls</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+not worth the price
+</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I got this for my son for Christmas. We tried it together and I was appalled at the lack of tolerance in the pieces. If you don’t make the connections just right, the whole puzzle will fail to work. This turns what would otherwise be a fun logic puzzle into a fiddly exercise in frustration because you may not be wrong in your solution, you may just not have the pieces seated properly. And speaking of fit—the pieces will not fit in the grid properly without popping the nearby pieces out. I expected a better product than this. If I (an adult) can’t sit down and make the actual solution work (using the prescribed pattern), there’s no way I’m setting this in front of my kid.Pretty disappointed.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>ThinkFun Gravity Marble Logic Girls</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Stupid
+</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sounded like fun.  Pain in the butt!  The cubes don't hold together well, so they always topple when building the stacks.  It is tiny too!  Much smaller than I realized!Get Rush hour railroad instead, much more fun!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>PlayShifu Tacto Doctor</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Can test your child’s patience</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I had high hopes for this game but it does not function as advertised at all. The pieces included are not accurately recognized by an iPad so you are left with frustrated kids who don’t understand what they are doing wrong. Hopefully people see this before they purchase as I was left with an incredibly sad 5 year old on her birthday.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>PlayShifu Tacto Doctor</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Not great…</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">My son lost the bandage, and there’s no way to skip it in the tutorial, so this game is useless for us and was a total waste of money.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>PlayShifu Tacto Doctor</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Overpriced junk
+</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This says on the box and here on Amazon that it works with the Fire 8 tablet. It doesn’t. There is no app to download on the Amazon store for it and when I went to the Playshifu website it says there that it doesn’t work with Fire 8. Now I have to return it and my daughter is sad that she will have to pick something else for Christmas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>PlayShifu Tacto Doctor</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Lost a piece and now it’s useless
+</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I’m pretty disappointed with this purchase. Seems like the app has a lot of flaws that need to be worked out. The kit itself is cute and I love the concept of this game. Unfortunately the app doesn’t seem to always register when the tools are being placed on the screen, which causes a lot of frustration and takes away from the fun of the game.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>PlayShifu Tacto Doctor</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Doesn’t work with Fire 8
+</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Very disappointed with this purchase. We went to download the app to play the game and it is unavailable. Says it should work on Amazon Fire but there is no working app.  Reviews on Google Play say it has been broken since October.  My daughter is very upset and made for a lousy Christmas present.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>PlayShifu Tacto Doctor</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Technical difficulties
+</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Extremely disappointed that the product was advertised for my daughter's Fire Pad but it does not include the Tacto Doctor feature on it.  I would return it but apparently now its too late after having dealt directly with Shifu to try to get a working App, but still no luck.UPDATE- They did reach out to me to trouble shoot and finally decided the updated app they have wouldn't download on my version of the pad and issued a refund.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>PlayShifu Tacto Doctor</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+App Doesn't Work
+</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Product is nice… can’t get the app to go past the vet fitting the tacto doctor. I have reached out to customer service on the app but nothing back. I’ve tried everything I can think of to verify.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>PlayShifu Tacto Doctor</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+App doesn't work for Fire Pad
+</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pretty annoyed with this. The box literally says will work on fire tablet 8 but now they have changed it and apparently it doesn’t. Hope no one else bought it on sale for Christmas only for it to not work.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>PlayShifu Tacto Doctor</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Can’t get it to work
+</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The little doctor tools would not sync up with any of the 3 iPads I tried. I’m beyond frustrated and I Couldn’t imagine my 5 year old to be able to use this. HORRIBLE purchase.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>PlayShifu Tacto Doctor</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Disappointed
+</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The sensors don't work. the app is not recognizing the tools. It is virtually impossible to complete the simplest task, even for an adult. It seems other costumers have had a similar experience. Disappointing.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Segway Robotics S1RC340 Loomo Dev</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>You need to know programming to get the most out of it.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Can’t find a battery or any accessory for this product. Once the battery goes out? You have a big paper-weight. No help from this company finding anything having to do with Loomo no updates, for over 2 years.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Segway Robotics S1RC340 Loomo Dev</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>When the battery goes out? Can’t find another.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Loomo is being sold in 2022 with Android 5.1; which was released in 2014. Segway claims to still be releasing updates and apps for Loomo, but that seems to just be a false advertising pitch. The apps it has are not that great and the self following mode does not work as advertised. It shows that it will stop if someone walks between you and then continue to follow you when the person has passed. In reality, it will stop and immediately start following the person that walks across between you and the scooter. The Loomo's head is made with what feels like a thin/cheap plastic that would easily break if the scooter ever tipped over. Having an S Plus also, I know these Segway Self Balaning Scooters do tip over when you step off sometime or just lose control while riding.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Segway Robotics S1RC340 Loomo Dev</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+When the battery goes out? Can’t find another.
+</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I could never get the hotspot to work. When I called Segway-Ninebot they basically ignored me.The WiFi worked OK but if you go outside to connect to the hotspot out doors it never could find the Loomo.Very disappointed and upset that Segway-Ninebot totally ignored me.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Segway Robotics S1RC340 Loomo Dev</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Outdated and Overpriced
+</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Without writing a whole book on this product basically very disappointed keep it at that
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Segway Robotics S1RC340 Loomo Dev</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Segway-Ninebot help desk will not help you with issues.
+</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Does not ride like the normal Segway. Still many improvements needed to be made.. wasted money at this point
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Segway Robotics S1RC340 Loomo Dev</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+I would pass this product up I should have listened to the reviews on here
+</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It’s broken , it never worked
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Segway Robotics S1RC340 Loomo Dev</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Robot only does a few tasks
+</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Terrible terrible terrible. Worthless and a waste of money
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Segway Robotics S1RC340 Loomo Dev</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+It doesn’t work
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Updated updated update today loomo refused to turn on at all. Plugged it in overnight to charge and it won't respond to pushing power button. Lots of drama this machineUpdated update I figured out how to reset loomo you hold him upside down and turn on until it restarts fixed the black screen of death and blinking red lights on the side of device. Support still was horrible and never responded with the fix I figured it out myself thanks to YouTube.Update 5 days after I got it now there is no booting up and the robot is no longer functional I have treated it very carefully and have not damaged it one bit not even shutting it off and letting it drop and the screen is black with red lights on the sides of the head we shall see if ninebot finds a solution but it appears it's super easy to kill a expensive robot by doing nothing.. DO NOT BUY IMO NOT WORTH IT.I just got it yesterday but so far the app is bad you have to use wifi or a hotspot from the loomo and it cuts out often the microphone is weak it hardly understood me in a fairly quiet Walmart I had to practically yell at it. Support is non existent for sure when Segway was sold to ninebot they just gave up on the loomo line which is a shame because it does have great potential the looks it gets are beyond anything else. As for the functional aspects it has wider foot pads and bigger tires then the ninebot S and seems probably 25% better construction I am 250lbs on a good day and the s struggles at times and this handled me with ease going up hills was slow but steady vs the s it was hard if at all. Have not tested battery much but I do remember my s dieing fast until I got a good few miles on it to get that batteries comfortable with the use. The follow me function is also weak but I am 6'5" so I think it's a me issue being too tall for it to see me properly same goes for the gestures. The ride is more comfortable then the S but unless your a tech geek like me it's probably not worth the extra cost. I hope they pick up support and start upgrading it but I doubt they will.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Segway Robotics S1RC340 Loomo Dev</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Do not buy
+</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I bought one of these Bots, and I've always been a Segway fan prior waited and watched this grow on Indigo and all the other places they had it after receiving my but after my birthday that I purchased it for my birthday within three days  after it arrived with the Box damaged picked it up at a local new every Center excited about the product still brought his home it's programmed, and it was always finicky however still excited about the program didn't think it was anything to it, and it will take time to collaborate that turned out to be incorrect the robots spin me around and crashed me into a vehicle while riding it there were some problems with it on one side that I was not aware of keep in mind I've had the similar product before just not the robot version, so I'm fully aware of how to ride and a how to use the product how to communicating with Segway and getting a finesse of Runner runs only then to find out that they do not support or Repair the but especially with the word accident involved there is absolutely no help whatsoever after spending this much money for this product it's sitting in a corner with the Box still brand new damage cannot be used I'm just out of the funds now every time I reach out to Segway they just literally send me back and forth from Department to Department with never the right people to help me it is so disturbing to see two thousand plus dollars sitting in a corner that you cannot do anything with it's now a decoration until further notice.In addition, I have Segway Scooters love them. I've had a similar item, just not the robot, and loved stolen from me, no one's fault, but mines. I will own responsibility for my mistakes, but Segway maltreats me with this situation. I also have other Segway products that I have purchased over the past three years for family members two other scooters that one of my friends used to go to work daily works perfectly all of my issues with Segway just live with this particular product putting a horrible taste in my mouth I can't even get them to help me get the product off the app, so that is not constantly trying to connect to something cannot even be turned on
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Segway Robotics S1RC340 Loomo Dev</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+It's ok
+</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I PURCHASED THIS ROBOT BELIEVING WHAT SEGWAY SAID IN THE LISTING AND ON THEIR OFFICIAL FORUM.  NONE OF WHICH ARE TRUE, ITS A DISGRACE THAT SEGWAY CAN SELL A PRODUCT WHICH IS SO BAD FOR SUCH A LARGE PRICE TAG.  SIMPLY DOES NOT DO WHAT IT SAYS ON THE TIN, ONLY RECOGNISES ONLY 3 VOICE COMMANDS! NO FACIAL RECOGNITION AND NO UPDATES IN A YEAR AND THEY PROMISED LOADS AND DELIVERED NONE.  IF YOU CONTACT SEGWAY ASKING WHY? YOU GET NO ANSWERS, EVEN THE FOLLOW MODE IS USELESS IT BUMPS INTO EVERYTHING CAN'T EVEN GO THROUGH AN OPEN GATE WITH LOADS OF ROOM WITHOUT GETTING STUCK ON THE SIDE IT REALLY IS RUBBISH.  BUY A HOVER BOARD AT 1/3 OF THE PRICE IF YOU WANT A HOVER BOARD AND LOOK ELSEWHERE IF YOU WANT A ROBOT IF I KNEW WHAT I KNOW NOW I WOULD NOT EVEN SPEND $200 ON THIS AS THERE ARE ROBOTS WHICH ARE BETTER AT THAT PRICE.  PLEASE DON'T WASTE YOUR HARD EARNED MONEY IT HAS BEEN A AWFUL EXPERIENCE AND SHOULD HAVE BEEN SO MUCH FUN SUCH A PITTY
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>PlayShifu Tacto Doctor</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Can test your child’s patience</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tried to down load on three different tables and they all said not compatible so we bought a new one that is listed on the box and it said that it wasn’t compatible
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>PlayShifu Tacto Doctor</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Not great…</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This requires you to download an app that is not available on Google play. This is ridiculous!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>PlayShifu Tacto Doctor</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Not compatible with the tablets listed on the box
+</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Just reached out to the company via email. Hopefully they'll rectify the situation. We have the exact tablet they have listed as compatible and it isn't. Amazon fire tablet users beware.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>PlayShifu Tacto Doctor</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+DO NOT BUY!!!!
+</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I may have had a faulty one because the sensors weren’t working properly. For one tool, it kept saying it was the wrong one when it was correct. And the iPad had trouble reading some tool when placed on top.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>PlayShifu Tacto Doctor</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Isn't compatible with the devices it says it is.
+</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This was a Christmas gift for my daughter. It’sa great idea but the software was buggy and the sound didn’t work.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>PlayShifu Tacto Doctor</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Maybe a faulty one
+</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Got this product for my kids for christmas, just opened it and theres 2 broken pieces. Very frustrating
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>PlayShifu Tacto Doctor</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The software for this toy is buggy and the sound didn’t work.
+</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The description says that this is compatible with the Fire 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>PlayShifu Tacto Doctor</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Broken pieces
+</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Not very educational, software reactions are slow, kind of boring....
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>PlayShifu Tacto Doctor</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Not compatible with Fire 8
+</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Does not work, very glitchy. Was frustrating setting it up. My child was very disappointed.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>PlayShifu Tacto Doctor</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Slow and boring....
+</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We have an iPhone &amp; android phone &amp; multiple tablets in our house. The app was either not compatible or didn’t exist on any of our devices.  Not to mention the QR code didn’t work. And this was a gift so we can’t even return it! So disappointing.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Ruko Programmable Interactive Control Present</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>The replacement works</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Way too expensive for what you get. There are much better robot toys out there for less than half the price. They make this look like a big robot and it's not. Functiinality is extremly limited at best. It cant walk without falling over. Huge waste of money.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Ruko Programmable Interactive Control Present</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Not worth the money</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The box appeared to be open and toy played with (Had scuff makes).  I returned it and re-ordered and the second one also appeared to have been opened also. The tape on the box looked like someone taped over the original tape. When you spend $100 on an item I expected to not be used.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Ruko Programmable Interactive Control Present</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Way to expensive for what it is.
+</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">After about a week, it would not follow the commands. After a month and a half, it would not charge. It is a total waste of your money. Don’t bother
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Ruko Programmable Interactive Control Present</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+I feel like I received a used item
+</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    The media could not be loaded.
+ Nice robot price was a bit high it worked for a week or so then the right side wheels stopped functioning.  No way to get them working again without disassembly. Since they don't even try to move it probably means the motors are burnt out.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Ruko Programmable Interactive Control Present</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Not worth your money
+</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I thought I was getting something similar to Cosmo but in robot form, Its nothing like that. For the price, you are better off not going with this item. It is poorly constructed reminiscent of something at mall kiosk.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Ruko Programmable Interactive Control Present</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+It breaks with a week.
+</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Before buying I saw the advertisement. And it showed the robot 18 inches tall. With dancing moves and even doing karaoke. And was able to do math.  Well I was so impressed I ordered 6 for  my grand kids.  What a huge disappointment. 8 inch tall robots. And they didn't do half the things they advertised.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Ruko Programmable Interactive Control Present</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Not what you thought
+</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The robots performance has yet to be determined but I was expecting something new for price.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Ruko Programmable Interactive Control Present</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+True
+</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$50 toy at best don't waste your money or your time the free robot isn't worth it even if you got four robots it's not worth $150. Super smart 5-year-old grandson wouldn't play with twice.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Ruko Programmable Interactive Control Present</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Not new. Package was already opened and there was a stain on the robot.
+</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Don’t waste your money.  My kids played with this for about 5 mins and now is sits on a shelf.  Not much you can do with it but watch it do a few programmed moves.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Ruko Programmable Interactive Control Present</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Too high priced (fake reviews)
+</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Will not Bluetooth robot controls only radio also the voice sounds to generic
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Remote Control Dancing Imitates Animals</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>great gift</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This was a Christmas gift to my 8 yr old daughter she played with it a few times and is very gentle. The dog stop working all of a sudden and there was a leak coming from the battery area.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Remote Control Dancing Imitates Animals</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Blah</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    The media could not be loaded.
+ I am SO disappointed in this product!!! This is the only gift that my kid wanted from Santa! It worked for about 1 hour and now it just freezes and seems to be having a seizure. It will not work at all. I have tried carpet, tile, tabletop… it will come on for 2 seconds and then lock up and seize. PLEASE WATCH THE VIDEO! My son is so upset… I paid a LOT of money for just an hour of fun.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Remote Control Dancing Imitates Animals</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Stopped working
+</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Got this for my 6 year old for Christmas, we ordered a couple of months ago to make sure Santa got it for him since he wanted it so much, now the guarantee has lapsed and is no longer valid. Since a couple of reviewers had a problem with the toy's battery we took him to an electronic shop but the problem is not the battery. Anyone else was able to fix this toy? my son is heartbroken.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Remote Control Dancing Imitates Animals</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Do NOT purchase!
+</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Insanity paying this Much. For this Item
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Remote Control Dancing Imitates Animals</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+My son is heartbroken.
+</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Horrible batteries, dies too fast and not easy to charge, looking down the list of comments and seems like everyone is having issues, don't waste your money on this dumb product.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Remote Control Dancing Imitates Animals</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+WTF $59.00 NOT WORTH IT..
+</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I charged the batter and have tried everything to get this to work. It worked once it want to a downward positing got stuck there. I have tried every button the the remote and it lights up like it’s going to do something but it doesn’t. This was the number one gift my daughter asked for Christmas and it didn’t work.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Remote Control Dancing Imitates Animals</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Bad batteries
+</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This was the gift from Santa for my son. The battery is not charging. It has ruined my sons Christmas. This is probably the last year we had of him believing in Santa Clause because he is getting older so this is probably the last thing Santa is getting him and it’s a piece of junk. DO NOT BUY!!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Remote Control Dancing Imitates Animals</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Bought brand new and doesn’t work.
+</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son went to open on Christmas Day but the item never worked. It looks like this teeny tiny metal prong in the middle is missing. Hoping to get this issue fixed so my son can play with his gift from Santa!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Remote Control Dancing Imitates Animals</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+It ruins Christmas! Do not buy!!
+</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This product had a battery installation that, I’m guessing, sees folks returning this product often.  The battery was difficult to install and felt like force needed to be applied to install it.  We were unable to get this to work properly due to the issue with installing the battery.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Toniebox Starter Set Playtime Puppy</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Love Tonies!</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">First off, my son LOVES his toniebox. The problem is that it will not play once you take it off the charger. So it's not portable at all, and getting it to turn back on is horrible and it says the battery is dead. This was a Christmas present and I tried not to panic as he could technically still use it until I could get in touch with tech support and get the issue fixed. It's been three weeks since my initial email. And one week since I sent a second. In a last ditch I called the number they have for support and it says, due to the number of calls we've received we are not accepting calls. Then it hangs up on you. My husband and I are both very tech savvy. It's not giving us any "code" words and there is nothing online advice can give us when we were sold a faulty product.Honestly, it's a serious shame because my son LOVES it but can't use it the way the company says he can. I'm super annoyed and honestly kinda giving up hope that I will get this product working. Also, kinda have regret I didn't buy the yoto.Edit: I NEVER heard back from the company support. Thankfully Amazon accepted a return and I took my son with me to return it and then we went to Target and purchased one in person. I highly recommend if you do want to purchase it you purchase it third party because the Tonie box company will probably never process a return, making their "100 days of happiness" guarantee a load of balonie.Bonus info, the new toniebox works great and my four year old loves it. It is a pain in the a$$ to put a soundtrack on the "customizable tonies". You basically have to spend time recording songs off YouTube because there's no way to download content, only record.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Remote Control Dancing Imitates Animals</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Item came broken
+</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">My Grandson loves this dog!!! The remote control will not charge!!! We are so upset!! I know they’re doing right steps to try to fix it. My son is engineer and his wife a very smart nurse!!!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Toniebox Starter Set Playtime Puppy</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Good product, customer service lacking, requires internet initially</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">So I’ve heard amazing things about the Tony box from my friends and neighbors and couldnt wait to get one for my 3 year old. I ordered on Amazon and it came the next day. I went to set the thing up and found that the app actually doesn’t work with the set up and you have to go in the website even though they lead you to believe the app will help you through set up. It’s very confusing. After all is said and done- I get a “hedgehog” warning and file a complaint but no one from the Tony team  has answered me back.  The box just doesn’t connect.  We did all the appropriate steps too, so sending this back unfortunately .  I just bought another tiny box bc the last one didn’t connect and this stupid thing doesn’t connect either! We’ve tried like 20 times to set it up.  Terrible product!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Toniebox Starter Set Playtime Puppy</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Poor Customer Support
+</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Customer support is garbage. The Toniebox doesn’t connect. The Toniebox doesn’t work. It doesn’t even give me a troubleshooting code. It powers on and doesn’t work. I’ve run through literally every troubleshooting option out there and even customer support is stumped. Stumped so bad they’ve entirely ghosted me and won’t respond anymore. We have a couple Tonieboxes already though, so I know it’s not a bad product. Just this series of boxes they’ve made apparently are filled with problems and the company is swamped with issues. I recommend ordering one, and if you can’t get it to work mark it for replacement. The company has wasted 6 weeks of my time.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Toniebox Starter Set Playtime Puppy</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Confusing Set up- app doesn’t work
+</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A Christmas Gift that has never worked. Toniebox during setup appear as an "UNSECURED NETWORK" go figure. Several attempts at difference locations to include using a HOTSPOT to no avail - same issue. What is most frustrating is that Tech Support does not exist for this company. They provide a number but when called their is a voice message that specifically states they do NOT/NOT take calls WOW!We've sent numerous emails explaining the issues in detail. We even sent an attachment of the network error message, but Tonie response each time was the same "canned" setup message that also appear on their website and in their pamphlet that comes with the Tonie. Meaning, they are not even reading the emails. I wanted this to work but am sorely disappointed. Finally, I had sought ssistance from Amazon.I wish I had read the reviews before purchasing the Toniebox, Four Tonies and the Carrying Case.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Toniebox Starter Set Playtime Puppy</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Unresolvable issues
+</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**Edit - I truly have a love hate relationship. It has taken me an extra month, trips to starbucks that was unsuccessful with their wifi and then FINALLY today I decided to take it with me when I got my car washed because they have Public Wi-Fi as well. The app failed again, but I was able to get it set up through the website and it FINALLY WORKS!!!! I was so excited to bring it home for my daughter to play with and she LOVES IT!!I have tried numerous phones, and laptops, and tried their customer service and they have yet to respond to me 2 weeks later. I can not get this hooked to wifi in order to start using the system. Very disappointed! We bought all the little tonie characters and the carrying case and it just sits there until I can get the customer service to contact me and help me get it activated. I have tried all of their fixes and nothing helps.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Toniebox Starter Set Playtime Puppy</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+STOP DO NOT PASS GO, DO NOT COLLECT - DO NOT PURCHASE
+</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The product arrived on time as a Christmas gift for our kids.  Living in the year of our Lord, 2022, I assumed the device would connect to our local network and setup through the app.  3 hours later and boy was I wrong... Plain and simple, it just doesn't work.  You get to a certain point in the setup process and it fails.  They must know there are issues because there are 20 "if this happened" scenarios, none of which correct the problem after following the directions.  There's a PTSD group on reddit who have found a few loopy walkthroughs by creating guest wifi networks or using a mobile hotspot and bypassing the app, but many of us have still had no luck.  If it's not working by tomorrow I plan on returning the box and the 4 toys we purchased.  A real shame that all the money went into marketing and not into development.  Whoever their developer is needs a remedial course.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Toniebox Starter Set Playtime Puppy</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Will Not connect to Wifi to use!
+</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There is a problem with their manufacturing - these box’s don’t work.  I bought one for a present forChristmas and have returned multiple times they won’t connect.  The very first one we bought two years ago connected no problem. The second one we bought did not connect. Tonie finally replaced and admitted they were having problems - it connected and worked. The third box we bought at Christmas and still won’t work, have tried calling tonie No response at all, very frustrating.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Toniebox Starter Set Playtime Puppy</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Welcome to the setup nightmare
+</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If you ordered this for Christmas, make sure to open it and try to set it up before Christmas. Plan for hours of frustration and a defective product.I am fairly tech-savvy. However I spent HOURS connecting this box to the internet. Used multiple devices, set up hotspots, read through instruction and troubleshooting guides and watch the troubleshooting videos.After FINALLY getting this thing connected to the internet and downloading the three Tonies figurines content, I realized the skip/fast-forward function doesn’t work. The “gentle wack” that is recommended does literally nothing. The fast forward and rewind features do not work.Also, they have no customer service phone number. You can send them a troubleshooting email and you will get a response saying they are really busy but will help you when they can.What a disappointment. Will be returning the box and all figures that I got my son for Christmas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Toniebox Starter Set Playtime Puppy</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Zero customer service from tonie
+</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We have 2 boys and we got them 2 Tonieboxes, a blue one and a red one. These would be their  gifts from Santa.The blue one worked - even though the setup was tricky. The red one did not. We’ve spent 4 hours on December 24 trying to set it up for Christmas morning, went thru all Hedgehog troubleshoot options several times, tried different devices, etc., but nothing worked.We’ve been trying to contact tech support since then, but no answer. The manufacturer does not offer phone support.We are so frustrated, we wanted to return both boxes. But the kids are enjoying the blue one. So we contacted Amazon support and they are sending a replacement for the red one. I’m dreading to have to go thru the setup again.Overall we are very frustrated and disappointed with this company and we regret buying their products.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Toniebox Starter Set Playtime Puppy</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+OPEN BEFORE CHRISTMAS
+</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A box, with a button that plays a song when you push it, made of something non-toxic to children. Why is that impossible to find? Not everything needs to be a complicated mess with collectible doodads and micro-transactions for new content. An MP3 player with a built in speaker and a button big enough for a toddler to press. Thats all we need.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Toniebox Starter Set Playtime Puppy</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Love Tonies!</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We have spent 3 hours trying to get not one, but two Tonies trying to work.  We purchased 3.  We keep getting the "Hedgehog" error and we have tried all of their recommended solutions.  When we try to call their support "phone number" they say they are so busy and can't take calls.  "Please email us."  So I email them and the response I get is here is our link to start an exchange.  Supposedly they will exchange our Tonies with the firmware required to "fix the issue".  This is not an option as I need these for Christmas gifts in working order.  I will be returning all 3 Tonies and the 15 figures I purchased. Such a disapointment and waste of time.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Toniebox Starter Set Playtime Puppy</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Good product, customer service lacking, requires internet initially</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It takes hours to initially set up. Not user friendly as there’s no “on or off” buttons. The way you change the song is to slap the side of it which usually doesn’t work. The volume is so low you have to stand within 5 feet from it. Do yourself a favor and buy an old CD player and a cd with children’s songs!There is nothing unique about this product that makes it worth this much money, it now sits in a drawer collecting dust!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Toniebox Starter Set Playtime Puppy</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Huge Disappointment and waste of time
+</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ZERO STARS-BEWARE of this product!!!!  Can not count on it working and can not reach support. This is my first review I have ever written and I have shopped Amazon for years.  BUT when you sell a product for a child, you should be able to confidently believe it will work.  Hours after trying over and over- reached out to customer support- only to get the message that they are NO LONGER accepting calls for support and to send an email and they will get back WHENEVER they can- first email first.  This also suggests that they were inundated with frustrated parents, grandparents and children.  PLEASE heed warning and don't show your loved one until it is working.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Toniebox Starter Set Playtime Puppy</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+A technology nightmare
+</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I am disappointed in this product due to the following reasons: the product was not easy to set up, customer service/support was AI, and no matter what YouTube video or troubleshooting you tried, the product failed. The only thing more disappointing was seeing the child’s face when she tried to use it.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Toniebox Starter Set Playtime Puppy</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+WARNING-Don't buy and DOES NOT WORK Customer Support NO longer accepting phone calls.
+</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">My wife bought this for our grandkids and I spent over an hour trying to get it set up using two different ways and never could get it to connect to the Internet. When my son came over he was able to get it connected eventually but he works in computers and it took him a long time to get it set up. The next day when it was sitting in the same spot it had been it just lost connection to the Internet and our Internet is working fine.I don’t care how cute it may be when it’s working my experience is it doesn’t work most of the time and I would not recommend the product
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Toniebox Starter Set Playtime Puppy</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Do not purchase
+</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This was the most disappointing purchase for my sons Christmas. We spent two days trying to set it up and could never get past the Wi-Fi setup. The most frustrating part is that there is literally no one to help or trouble shoot. There is no one when you call and no live help. I emailed the company requesting help 10 days ago and the only thing I got in return was a code word to use to troubleshoot- which I already had and it didn’t work.Save your time and money on this one. My son was supper bummed because it’s a cool concept.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Toniebox Starter Set Playtime Puppy</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Do not buy this product
+</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This product was purchased for my 3 year old daughter for Christmas. I was excited to get it up set for her. Little did I know that it would take several hours and not the 20 minutes it advertised on the box. There is no way to connect customer service when an error occurs, instead you are redirected to watch a video on how to troubleshoot your box. The Tonies box website isn’t helpful and has very limited options on how you can get support. I ended up returning the whole box because it wasn’t worth it to me to. I was highly disappointed in this process.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Toniebox Starter Set Playtime Puppy</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+TERRIBLE CUSTOMER SERVICE FOR SET UP
+</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I bought this in November (when they were on sale) for a birthday present for my son’s birthday in February. It will not connect to the internet. I have tried all of the troubleshooting and still can not connect. There is no phone number to call for customer service. I am out of the window to return. Make sure it works as soon as you get it because there is no one to help you.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Toniebox Starter Set Playtime Puppy</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Very difficult to set up
+</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Awesome concept but we cant get it to connect.  Have tried on our phones and on web browser.  Will be returning product, as a result.  Wish it would have worked.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Toniebox Starter Set Playtime Puppy</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+No customer service number
+</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This product was not new it was used and it was not made clear in the description. There was no charging station included and the box was trashed. Not happy with this purchase. Since there was no charger included I do not know if it was easy to use because I COULDN'T USE IT !!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>okk Engineering Educational Intelligent Rechargeable</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Made a great gift for my 9 year old grandson</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fake product. Actual company is LEGO
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>okk Engineering Educational Intelligent Rechargeable</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Buyer Beware - APP is garbage and not usable.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I’m normally suspicious of copycat product, but it was gift, so we gave it a go. As expected, the experience was not up to the lego standard. The product comes with assembly instructions only and the app is unusable if you don’t speak Chinese. Good luck pairing the remote or understanding the charging states, because no information is provided in the box. You must find this info elsewhere…if it even exists. Good luck!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>okk Engineering Educational Intelligent Rechargeable</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+WARNING ⚠️
+</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is as close to as scam is it could get.Considirng the photos and description you would think it really has a lot of options - The arms doesn't not move with the control or app, the head barely moves and only with the remote, not with the app. It's basically a robot that goes back and forward. It does not speak though the package has a huge HELLO coming out of its mouth.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>okk Engineering Educational Intelligent Rechargeable</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Fake legos and low effort instructions
+</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Be careful! This product apperas first when you search for LEGO Boost, but it is not. Looks like a fraud to me!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>okk Engineering Educational Intelligent Rechargeable</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Made a great gift for my 9 year old grandson</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We are very disappointed with this product as it did not exceed our expectations and wouldn't recommend it because 1) this appears to be a copycat of Lego Boost, 2) privacy/security concerns with the app (not safe to download) 3) the battery only last a half an hour after a full charge although, it's supposed to last about an hour.  We wouldn't recommend this product as it is not worth the time and money if your kids cannot use the app (learn coding) without jeopardizing the privacy/security of your own device and the battery does not lasting long.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>okk Engineering Educational Intelligent Rechargeable</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Buyer Beware - APP is garbage and not usable.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I bought this in accident thinking it was the LEGOboost brand. Once we opened it I realized my mistake but decided to let my 7 year old try it out. The blocks are good, instructions are good but once we tried to connect to the app it was evident why this one was half the price of LEGO boost. It doesn’t connect well or at all to the app. The app also glitches, doesn’t show options/buttons half the time.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>okk Engineering Educational Intelligent Rechargeable</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Disappointed Product
+</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The robot kit was missing pieces and the app is extremely hard to use.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>okk Engineering Educational Intelligent Rechargeable</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Doesn’t connect to the app well
+</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Our charger and robot melted the first time we attempted to charge it. It took us longer than 30 days to build it so we were outside the warranty period. We attempted to contact the company but no reply.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>okk Engineering Educational Intelligent Rechargeable</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Robot missing pieces and does not work correctly.
+</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Once the robot was put together, it didn’t work.  The power on the remote and the robot turned on but the robot itself did not move.  I fortunately I bought this around Christmas and just got to put it together so not sure if I can return it.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>okk Engineering Educational Intelligent Rechargeable</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Charger and robot melted
+</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The instructions say open bags 0-11. There is no bag “0” or “11”, so my husband and I inventoried the whole thing to make sure all the pieces were there. They were, but that took a lot of time to be sure we weren’t missing bags. Then after my son built it, he discovered the voice control option would not work, well it might work but the instructions are not in English, and we can’t read them. We tried to look on the website for help, but that is also not available in English. So this robot will be returned.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>okk Engineering Educational Intelligent Rechargeable</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Doesn’t work.
+</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I received a unit that was clearly not new! Some of the bags were opened and we discovered several pieces were missing while building it.  I tried to look for a phone number to have missing parts sent so we could finish building it and I couldn't find one. My little guy is very disappointed 😞 next time I will pay more for an actual lego set!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>okk Engineering Educational Intelligent Rechargeable</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mislabeled bags, no voice control instructions.
+</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I order this for my son for Christmas and there were several pieces missing. Luckily we had extra pieces from other similar items that we could pull from. I do NOT recommend buying this if you have never put one together before and have extra pieces laying around
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>okk Engineering Educational Intelligent Rechargeable</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Disappointed missing and damaged parts
+</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The product was missing pieces which renders it unusable:( don’t recommend
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>okk Engineering Educational Intelligent Rechargeable</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Did NOT come with all the parts
+</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t xml:space="preserve">i like it but it is a copy of lego
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>aAnki Anki Cozmo Robot Cubes</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Very fun!!</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Product was not NEW like claimed in the description. Multiple tape marks on bottom, random peoples hair in the box and the robot was covered in dirt. When checking the face recognition on it there was already 5 others on there. Not happy or satisfied
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>aAnki Anki Cozmo Robot Cubes</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Used not new</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This does not work at all.  It came without an adapter and won't even charge at all.  We have a very disappointed child here on Christmas.  I feel TRICKED out of $500!!!!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>aAnki Anki Cozmo Robot Cubes</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Used not new
+</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I just received the Cozmo. Not in an original package. Definitely is used and no instructions. I BOUGHT IT BECAUSE I SPECIF SEARCH FOR A NEW ONE AND I GOT TOTALLY THE OPPOSITE. Waste of time and money. I’m returning it ASAP!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>aAnki Anki Cozmo Robot Cubes</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+BEWARE- DOES NOT WORK AT ALL
+</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I just received my cozmo.  It arrived without a charger.  Not in an original package.  Looks used and no instructions.  Waste of time and money.  I’m returning it ASAP!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>aAnki Anki Cozmo Robot Cubes</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+I BOUGHT IT THINKING IS NEW BUT DEFINITELY IT’s NOT!!!!
+</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bought it and right away cant get it to work. No green light at all. So cant really say if anything else works good if it doesn't even turn on.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>aAnki Anki Cozmo Robot Cubes</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Bad package
+</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">So "not fun" my kid played with it for 1 hour and never used it again
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>aAnki Anki Cozmo Robot Cubes</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Have to return the item. 😒😔
+</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I was very disappointed because I only received one cube instead of three cubes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>aAnki Anki Cozmo Robot Cubes</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Worthless
+</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I bought this for my son and when it arrived it was shattered!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>ThinkFun Gravity Marble Logic Girls</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Gravity maze</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This review is for how it arrived. I purchased this as a gift and when I went to wrap it today, I could hear lots of bits rolling around inside even though it was plastic-wrapped and the exterior was completely undamaged. I opened it and and the black packaging inside which holds all of the parts was torn apart every which way with a million shards of black plastic sitting on the bottom. The item itself looks ok and my fingers are crossed that it will work when the recipient plays with it. I dumped out the shards and wrapped it up, but I have the feeling that I was given a "return" that was put into a new box. Not pleased.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>ThinkFun Gravity Marble Logic Girls</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Good gift but very basic</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This package got shipped as part of my Amazon STEM subscription for my son. It works by bouncing a small laser light off of reflective parts you set up in prescribed patterns to light up a target.Unfortunately the laser is so weak and the reflective surfaces dull enough that the light simply isn't bright enough to light up the target after the laser bounces off the reflective parts. In fact, the laser can barely light up the target when pointed *directly* at the target from just a few inches away.Unfortunately as well, my son was quite busy with the previous STEM kit (an electronics kit) so I didn't open this Laser Maze kit until after the return window had passed :(  But thankfully it was only $20 through the subscription so I didn't waste as much money as might have happened if it was more expensive. But lesson learned -- open and test these products the day you get them, even if you don't plan to use them right away.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>ThinkFun Gravity Marble Logic Girls</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Interior packaging mangled
+</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Not going to lie. It’s a fancy lazer. Nothing more than that. I regret buying this item and trying to return it was a nightmare instead of dealing with the return I just kept it, put in on a top shelf and use it as a future gift for some one I don’t like. Other than the picture cards of where to place things it doesn’t have much more science related objective to it. I was hoping to get a little science knowledge out of it for my kids but it’s not. Not for kids since it doesn’t have any lazer knowledge what so ever other than puzzle solving to find how to get the lazer from point a to point b. So it’s a glorified  mirrors and lazer dresses up to be fun and awesome time.its like playing operation with out any of the small items to get out. It’s pointless.  I hope my review will discourage potential buyers and look else where for
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>ThinkFun Gravity Marble Logic Girls</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Laser Didn't Work Well At All
+</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Set pieces make this a very limited toy. Not really much fun.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>ThinkFun Gravity Marble Logic Girls</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Discourage future buyers
+</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maybe we are just dumb but I bought this for Christmas and none of us can get it to do anything besides the ball falling right out. The directions are extremely confusing, wouldn't reccomend for any kids under 13 every adult has also had a hard time it's so complicated. I really wish I could return this it was so expensive and it's completely useless to us.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>ThinkFun Gravity Marble Logic Girls</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Not really much to it. Not much fun.
+</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The concept of the toy is great. My 6 year old who loves puzzle was very excited to play with it at first. But soon it got really annoying and frustrating because couple spots in the gray base doesn’t hold the pieces at all and keeps falling. You have to keep reassembling the whole thing again and again. Disappointed with the quality since I paid $28 which is not cheap! Expected it to be a sturdier and good quality toy. Will not recommend.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>ThinkFun Gravity Marble Logic Girls</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+So difficult
+</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">My grandson was delighted with the bulb lit up for project 1. Then for project 2 it didn't. He had done everything right. I got out my voltmeter and batteries and discovered that the green light was defective; it would not work. That is a terrible thing to do to a child!  For something like this, quality control is essential!I thought I would return it or exchange it, but to do that I have to make a trip to a store a mile away. So I'll just absorb the loss. But I don't recommend giving this to a child until you try it yourself and check out all the components. What a disappointment!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>ThinkFun Gravity Marble Logic Girls</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Not so great!
+</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I bought this as a gift for an 8 year old and he was bored with it within minutes.  Although the colorful plastic cubes look great, the metal ball they provide is too heavy and falls through the maze so fast it's not worth the effort to make one.  I'm 60 years old and rebuild motorcycle engines, yet I found making the mazes difficult and again, not worth the effort.  The kid was like 'so what?' when I showed him the metal ball race 4 inches from the top to the bottom of my 1 turn 'maze'.  I felt bad for the kid and told him I'd get him another gift.  UGH!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>ThinkFun Gravity Marble Logic Girls</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+When defective, it makes child hate science
+</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The 5 stars review got me to buy this for my boys.  My 6 yr old was interested for a day.  My 8 yr old about 30 minutes.  We all thought there were more to the towers, but no.  Just immediately in and out for the marble.  Nothing complex once you stick your finger in the towers and understand what it is doing.  Calm the hype down!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>ThinkFun Gravity Marble Logic Girls</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Difficult and unrewarding
+</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t xml:space="preserve">My son was SO excited to see this game. We opened it up and started playing. Within 15 minutes the game was back in the box and put away in the closet. Why? Because the game just does not work well. First issue the dominos are weak. They have no heft to them. What this means is it will NOT go up the stairs. It hits the first one and it stops. The "spinner" things looked really cool, but often they do not work.Don't waste your time or money on this.
 </t>
         </is>
       </c>
